--- a/Health Plan Cost Estimator.xlsx
+++ b/Health Plan Cost Estimator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaellines/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE25B0A7-9FB5-EC4C-AC54-AAFD0DAB6C50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21254489-648D-3341-A7F3-DCB45973FBC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,31 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
-  <si>
-    <t>AETNA ACO 1000 CO</t>
-  </si>
-  <si>
-    <t>AETNA ACO 6500 CO</t>
-  </si>
-  <si>
-    <t>AETNA EPO 0 CO</t>
-  </si>
-  <si>
-    <t>AETNA EPO 2000 CO</t>
-  </si>
-  <si>
-    <t>AETNA HDHP 3000 CO</t>
-  </si>
-  <si>
-    <t>AETNA PPO 6350 CO</t>
-  </si>
-  <si>
-    <t>KAISER HDHP 6650 CO</t>
-  </si>
-  <si>
-    <t>KAISER HMO 20 CO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
   <si>
     <t>Primary CoPay</t>
   </si>
@@ -114,9 +90,6 @@
     <t>Hospital (Pregnancy)</t>
   </si>
   <si>
-    <t>KAISER HMO 3000 CO</t>
-  </si>
-  <si>
     <t>Provider Network</t>
   </si>
   <si>
@@ -126,28 +99,13 @@
     <t>Broad</t>
   </si>
   <si>
-    <t>Kaiser Only</t>
-  </si>
-  <si>
-    <t>Board</t>
-  </si>
-  <si>
-    <t>Aetna EPO Only</t>
-  </si>
-  <si>
     <t>Out of Network Costs</t>
   </si>
   <si>
     <t>* Costs Assume In-Network Providers</t>
   </si>
   <si>
-    <t>Developed by Michael Lines. Any questions or errors found, please let me know so I can answer or correct.</t>
-  </si>
-  <si>
     <t>Instructions:</t>
-  </si>
-  <si>
-    <t>1. Download the plans you are interested in for your area.</t>
   </si>
   <si>
     <t>Assumptions:</t>
@@ -157,9 +115,6 @@
   </si>
   <si>
     <t xml:space="preserve">5. The low cost estimate is based on premiums and just the usage you estimated. High cost is premiums, usage and the plan examples costs. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. This model assumes usage costs are all in network. Does not attempt to estimate out of network costs. </t>
   </si>
   <si>
     <t>Major Costs</t>
@@ -177,9 +132,6 @@
     <t>Coinsurance (Your %  of costs)</t>
   </si>
   <si>
-    <t>* Adjust based on your estimate of use and cost</t>
-  </si>
-  <si>
     <t>Cost Est Worst Annual</t>
   </si>
   <si>
@@ -190,9 +142,6 @@
   </si>
   <si>
     <t>Per Visit</t>
-  </si>
-  <si>
-    <t>UHC SELECT PLUS (Current)</t>
   </si>
   <si>
     <t>2. Go to the plan websites to be sure your doctors or providers are in-network, if this is important to you.</t>
@@ -207,31 +156,13 @@
     <t xml:space="preserve">Overview: </t>
   </si>
   <si>
-    <t>3. Enter the cost and limits from the plan documents as appropriate into the Plans tab - one plan per column. Family is any option more than yourself (you and spouse, you and child or multiple)</t>
-  </si>
-  <si>
     <t>4. Enter the standard examples for hospital, long term care and ER from the plan document. These are used for your high cost estimate. If you are just modeling individual plans you can enter $0 as you feel appropriate to your situation.</t>
   </si>
   <si>
     <t>5. Adjust the usage data in the Usage tab according to your estimates of regular, specialist and urgent care visits for your situation. Adjust the visit costs up or down as you feel appropriate to your situation or area.</t>
   </si>
   <si>
-    <t>6. In the Options tab, drag column B across as many columns as needed to match the number of plans you entered in the Plans tab. The calculations should auto populate as appropriate.</t>
-  </si>
-  <si>
-    <t>7. Adjust the graph using Select Data to match the number of columns of plans you have entered.</t>
-  </si>
-  <si>
-    <t>8. Enjoy figuring out the best insurance option for your situation!</t>
-  </si>
-  <si>
     <t xml:space="preserve">8. Where costs of usage and major expenses exceeds the OOP max, the max cost is used instead. </t>
-  </si>
-  <si>
-    <t>9. For the sample data entered, I used the lowest and highest deductible plans of each available provider. You can assume that plans in between will also have costs and risks in between the low and high plans.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10. This model does not take into account employer HSA contrinutions. You can manually add these to applicable plans as a credit to annual costs when available. </t>
   </si>
   <si>
     <t>By using some simple scenarios, this spreadsheet allows you to guesstimate your costs in between these two extremes and pick your best option.</t>
@@ -250,12 +181,6 @@
   </si>
   <si>
     <t>4. Risk comes from costs associated with out of network charges. These can occur in emergency situations where you have no choice of the provider being used (air ambulance and ER are notorious examples)</t>
-  </si>
-  <si>
-    <t>KAISER HMO 30 CO</t>
-  </si>
-  <si>
-    <t>AETNA PPO 300 CO</t>
   </si>
   <si>
     <t>7. This model does not attempt to model individual costs/limits within a family plan, but instead uses the family limits (assuming you entered these from the plan). A conservative cost estimate in other words.</t>
@@ -284,6 +209,57 @@
   <si>
     <t>Deductible (Indiv/Family)</t>
   </si>
+  <si>
+    <t>PPO A 1000</t>
+  </si>
+  <si>
+    <t>PPO B 0</t>
+  </si>
+  <si>
+    <t>PPO B 2000</t>
+  </si>
+  <si>
+    <t>HMO A 1000</t>
+  </si>
+  <si>
+    <t>HMO A 3000</t>
+  </si>
+  <si>
+    <t>HMO Only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. This model assumes usage costs are all in network. It does not attempt to estimate out of network costs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. This model does not take into account employer HSA contributions for HDHP plans. You can manually add these to applicable plans as a credit to annual costs when available. </t>
+  </si>
+  <si>
+    <t>4/25/21 - Version 1.0</t>
+  </si>
+  <si>
+    <t>Developed by Michael Lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please use Github to report any errors or ask any questions. </t>
+  </si>
+  <si>
+    <t>1. Download the plans you are interested in as provided by your employer (or Health Care exchange).</t>
+  </si>
+  <si>
+    <t>3. Enter the cost and limits from the plan documents as appropriate into the Plans tab - one plan per column up to a max of 12. Use Family limits/costs for any option more than yourself (you and spouse, you and child or multiple)</t>
+  </si>
+  <si>
+    <t>6. Enjoy figuring out the best insurance option for your situation!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample data included is used to illustrate the use of the calculator, and bears no relation to actual plans or vendors. Replace with real plan data provided by your employer or exchange. </t>
+  </si>
+  <si>
+    <t>* Adjust cost estimates based on your experience or feedback on local area costs</t>
+  </si>
+  <si>
+    <t>PPO A HDHP</t>
+  </si>
 </sst>
 </file>
 
@@ -292,7 +268,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -345,6 +321,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -380,7 +363,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -390,6 +372,7 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,7 +466,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.0072247471556373E-2"/>
+          <c:y val="7.5208333333333335E-2"/>
+          <c:w val="0.92775287704421561"/>
+          <c:h val="0.78952181758530182"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -496,7 +489,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AETNA ACO 1000 CO</c:v>
+                  <c:v>PPO A 1000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -540,16 +533,16 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>719</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>828.16666666666663</c:v>
+                  <c:v>762.91666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1368.1666666666667</c:v>
+                  <c:v>1287.9166666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1385.6666666666667</c:v>
+                  <c:v>1366.6666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -570,7 +563,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AETNA ACO 6500 CO</c:v>
+                  <c:v>PPO A HDHP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -614,16 +607,16 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>184</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>484.83333333333331</c:v>
+                  <c:v>373.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1266.5</c:v>
+                  <c:v>1165</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1267.3333333333333</c:v>
+                  <c:v>1283.3333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -644,7 +637,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AETNA EPO 0 CO</c:v>
+                  <c:v>PPO B 0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -688,16 +681,16 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1158</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1179.6666666666667</c:v>
+                  <c:v>1212.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1336.3333333333333</c:v>
+                  <c:v>1366.6666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1491.3333333333333</c:v>
+                  <c:v>1533.3333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -718,7 +711,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AETNA EPO 2000 CO</c:v>
+                  <c:v>PPO B 2000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -762,16 +755,16 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>710</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>750</c:v>
+                  <c:v>723.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1406.6666666666667</c:v>
+                  <c:v>1356.6666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1626.6666666666667</c:v>
+                  <c:v>1616.6666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -792,7 +785,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AETNA HDHP 3000 CO</c:v>
+                  <c:v>HMO A 1000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -836,16 +829,16 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>544</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>570.66666666666663</c:v>
+                  <c:v>448.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1373.1666666666667</c:v>
+                  <c:v>733.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1377.3333333333333</c:v>
+                  <c:v>733.33333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -866,7 +859,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AETNA PPO 300 CO</c:v>
+                  <c:v>HMO A 3000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -910,16 +903,16 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1389</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1439</c:v>
+                  <c:v>267.91666666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1737.3333333333333</c:v>
+                  <c:v>876.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2014</c:v>
+                  <c:v>1033.3333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -940,7 +933,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AETNA PPO 6350 CO</c:v>
+                  <c:v>$0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -986,16 +979,16 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>286</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>565.16666666666663</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1344.3333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1344.3333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1016,7 +1009,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>KAISER HDHP 6650 CO</c:v>
+                  <c:v>$0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1062,16 +1055,16 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>160.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>427.16666666666669</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1268.8333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1268.8333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1092,7 +1085,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>KAISER HMO 20 CO</c:v>
+                  <c:v>$0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1138,16 +1131,16 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>714</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>735.66666666666663</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>893.16666666666663</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1047.3333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1168,7 +1161,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>KAISER HMO 30 CO</c:v>
+                  <c:v>$0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1214,16 +1207,16 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>380</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>463.33333333333331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>713.33333333333337</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>713.33333333333337</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1244,7 +1237,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>KAISER HMO 3000 CO</c:v>
+                  <c:v>$0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1290,16 +1283,16 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>218</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>335.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>945.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1051.3333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1320,7 +1313,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>UHC SELECT PLUS (Current)</c:v>
+                  <c:v>$0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1366,16 +1359,16 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>742</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>824.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1350.3333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1825.3333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1522,7 +1515,7 @@
           <c:yMode val="edge"/>
           <c:x val="1.0790047883202931E-2"/>
           <c:y val="0.88397428379963139"/>
-          <c:w val="0.64429685082945165"/>
+          <c:w val="0.95420277224616445"/>
           <c:h val="9.655954724409449E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2394,10 +2387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39D49AF-1BEE-1147-8C7D-6404FDFF2B49}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2407,127 +2400,127 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>57</v>
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>39</v>
+      <c r="A18" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>70</v>
+      <c r="A20" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2541,110 +2534,70 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N1003"/>
+  <dimension ref="A1:H1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.33203125" style="1" customWidth="1"/>
-    <col min="3" max="8" width="21.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.33203125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="20.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="14.5" style="1"/>
+    <col min="3" max="6" width="21.6640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="20.83203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C2" s="8">
-        <v>359.5</v>
+        <v>350</v>
       </c>
       <c r="D2" s="8">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E2" s="8">
-        <v>579</v>
+        <v>600</v>
       </c>
       <c r="F2" s="8">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G2" s="8">
-        <v>272</v>
+        <v>200</v>
       </c>
       <c r="H2" s="8">
-        <v>694.5</v>
-      </c>
-      <c r="I2" s="8">
-        <v>143</v>
-      </c>
-      <c r="J2" s="8">
-        <v>80.25</v>
-      </c>
-      <c r="K2" s="8">
-        <v>357</v>
-      </c>
-      <c r="L2" s="8">
-        <v>190</v>
-      </c>
-      <c r="M2" s="8">
-        <v>109</v>
-      </c>
-      <c r="N2" s="8">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -2652,22 +2605,16 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C4" s="8">
         <v>2000</v>
       </c>
       <c r="D4" s="8">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
@@ -2676,33 +2623,15 @@
         <v>4000</v>
       </c>
       <c r="G4" s="8">
+        <v>2000</v>
+      </c>
+      <c r="H4" s="8">
         <v>6000</v>
       </c>
-      <c r="H4" s="8">
-        <v>900</v>
-      </c>
-      <c r="I4" s="8">
-        <v>12700</v>
-      </c>
-      <c r="J4" s="8">
-        <v>13300</v>
-      </c>
-      <c r="K4" s="8">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8">
-        <v>2000</v>
-      </c>
-      <c r="M4" s="8">
-        <v>6000</v>
-      </c>
-      <c r="N4" s="8">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C5" s="8">
         <v>8000</v>
@@ -2717,33 +2646,15 @@
         <v>11000</v>
       </c>
       <c r="G5" s="8">
+        <v>4000</v>
+      </c>
+      <c r="H5" s="8">
         <v>10000</v>
       </c>
-      <c r="H5" s="8">
-        <v>7500</v>
-      </c>
-      <c r="I5" s="8">
-        <v>12700</v>
-      </c>
-      <c r="J5" s="8">
-        <v>13300</v>
-      </c>
-      <c r="K5" s="8">
-        <v>4000</v>
-      </c>
-      <c r="L5" s="8">
-        <v>4000</v>
-      </c>
-      <c r="M5" s="8">
-        <v>10000</v>
-      </c>
-      <c r="N5" s="8">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C6" s="8">
         <v>25</v>
@@ -2758,33 +2669,15 @@
         <v>40</v>
       </c>
       <c r="G6" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H6" s="8">
-        <v>20</v>
-      </c>
-      <c r="I6" s="9">
-        <v>25</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>20</v>
-      </c>
-      <c r="L6" s="8">
-        <v>30</v>
-      </c>
-      <c r="M6" s="8">
         <v>35</v>
       </c>
-      <c r="N6" s="8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C7" s="8">
         <v>50</v>
@@ -2799,33 +2692,15 @@
         <v>60</v>
       </c>
       <c r="G7" s="8">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H7" s="8">
-        <v>40</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>35</v>
-      </c>
-      <c r="L7" s="8">
-        <v>45</v>
-      </c>
-      <c r="M7" s="8">
         <v>60</v>
       </c>
-      <c r="N7" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C8" s="8">
         <v>75</v>
@@ -2840,33 +2715,15 @@
         <v>75</v>
       </c>
       <c r="G8" s="8">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H8" s="8">
         <v>75</v>
       </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>50</v>
-      </c>
-      <c r="L8" s="8">
-        <v>75</v>
-      </c>
-      <c r="M8" s="8">
-        <v>75</v>
-      </c>
-      <c r="N8" s="8">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C9" s="10">
         <v>0.3</v>
@@ -2881,33 +2738,15 @@
         <v>0</v>
       </c>
       <c r="G9" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="I9" s="10">
-        <v>1</v>
-      </c>
-      <c r="J9" s="11">
-        <v>1</v>
-      </c>
-      <c r="K9" s="10">
-        <v>0</v>
-      </c>
-      <c r="L9" s="10">
         <v>0.2</v>
       </c>
-      <c r="M9" s="10">
+      <c r="H9" s="10">
         <v>0.3</v>
       </c>
-      <c r="N9" s="10">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -2916,162 +2755,96 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="12">
-        <v>24000</v>
-      </c>
-      <c r="D11" s="12">
-        <v>50000</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="12">
+        <v>56</v>
+      </c>
+      <c r="C11" s="11">
         <v>20000</v>
       </c>
-      <c r="H11" s="12">
-        <v>11000</v>
-      </c>
-      <c r="I11" s="12">
-        <v>30000</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="N11" s="12">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D11" s="11">
+        <v>45000</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C14" s="8">
-        <v>4060</v>
+        <v>4000</v>
       </c>
       <c r="D14" s="8">
-        <v>6560</v>
+        <v>4000</v>
       </c>
       <c r="E14" s="8">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="F14" s="8">
-        <v>5260</v>
+        <v>5000</v>
       </c>
       <c r="G14" s="8">
-        <v>4070</v>
+        <v>2000</v>
       </c>
       <c r="H14" s="8">
-        <v>1610</v>
-      </c>
-      <c r="I14" s="8">
-        <v>6410</v>
-      </c>
-      <c r="J14" s="8">
-        <v>6710</v>
-      </c>
-      <c r="K14" s="8">
-        <v>360</v>
-      </c>
-      <c r="L14" s="8">
-        <v>2060</v>
-      </c>
-      <c r="M14" s="8">
-        <v>5060</v>
-      </c>
-      <c r="N14" s="8">
-        <v>3090</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C15" s="8">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="D15" s="9">
-        <v>1120</v>
+        <v>3500</v>
       </c>
       <c r="E15" s="8">
-        <v>1020</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="8">
-        <v>1320</v>
+        <v>1300</v>
       </c>
       <c r="G15" s="8">
-        <v>3660</v>
+        <v>1000</v>
       </c>
       <c r="H15" s="8">
-        <v>1220</v>
-      </c>
-      <c r="I15" s="8">
-        <v>1720</v>
-      </c>
-      <c r="J15" s="8">
-        <v>6710</v>
-      </c>
-      <c r="K15" s="8">
-        <v>1060</v>
-      </c>
-      <c r="L15" s="8">
-        <v>1160</v>
-      </c>
-      <c r="M15" s="8">
-        <v>1460</v>
-      </c>
-      <c r="N15" s="8">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C16" s="8">
         <v>1300</v>
       </c>
       <c r="D16" s="8">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="E16" s="8">
         <v>500</v>
@@ -3080,4014 +2853,3978 @@
         <v>1300</v>
       </c>
       <c r="G16" s="8">
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="H16" s="8">
-        <v>750</v>
-      </c>
-      <c r="I16" s="8">
-        <v>1900</v>
-      </c>
-      <c r="J16" s="9">
-        <v>1900</v>
-      </c>
-      <c r="K16" s="8">
-        <v>470</v>
-      </c>
-      <c r="L16" s="8">
-        <v>1130</v>
-      </c>
-      <c r="M16" s="8">
         <v>800</v>
       </c>
-      <c r="N16" s="8">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
     </row>
     <row r="102" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
     </row>
     <row r="107" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
     </row>
     <row r="108" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
     </row>
     <row r="109" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
     </row>
     <row r="111" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
     </row>
     <row r="112" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
     </row>
     <row r="113" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
     </row>
     <row r="114" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
     </row>
     <row r="115" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
     </row>
     <row r="116" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
     </row>
     <row r="117" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
     </row>
     <row r="118" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
     </row>
     <row r="119" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
     </row>
     <row r="120" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
     </row>
     <row r="121" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
     </row>
     <row r="122" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
     </row>
     <row r="123" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
     </row>
     <row r="124" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
     </row>
     <row r="125" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
     </row>
     <row r="126" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
     </row>
     <row r="127" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
     </row>
     <row r="128" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
     </row>
     <row r="129" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
     </row>
     <row r="130" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
     </row>
     <row r="131" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
     </row>
     <row r="132" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
     </row>
     <row r="133" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
     </row>
     <row r="134" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
     </row>
     <row r="135" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
     </row>
     <row r="136" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
     </row>
     <row r="137" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
     </row>
     <row r="138" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
     </row>
     <row r="139" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13"/>
     </row>
     <row r="140" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
     </row>
     <row r="141" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
     </row>
     <row r="142" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
     </row>
     <row r="143" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
     </row>
     <row r="144" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C144" s="14"/>
-      <c r="D144" s="14"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13"/>
     </row>
     <row r="145" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C145" s="14"/>
-      <c r="D145" s="14"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
     </row>
     <row r="146" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C146" s="14"/>
-      <c r="D146" s="14"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
     </row>
     <row r="147" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C147" s="14"/>
-      <c r="D147" s="14"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
     </row>
     <row r="148" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C148" s="14"/>
-      <c r="D148" s="14"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
     </row>
     <row r="149" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C149" s="14"/>
-      <c r="D149" s="14"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
     </row>
     <row r="150" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C150" s="14"/>
-      <c r="D150" s="14"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
     </row>
     <row r="151" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C151" s="14"/>
-      <c r="D151" s="14"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
     </row>
     <row r="152" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C152" s="14"/>
-      <c r="D152" s="14"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
     </row>
     <row r="153" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C153" s="14"/>
-      <c r="D153" s="14"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
     </row>
     <row r="154" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C154" s="14"/>
-      <c r="D154" s="14"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
     </row>
     <row r="155" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C155" s="14"/>
-      <c r="D155" s="14"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="13"/>
     </row>
     <row r="156" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C156" s="14"/>
-      <c r="D156" s="14"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
     </row>
     <row r="157" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C157" s="14"/>
-      <c r="D157" s="14"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
     </row>
     <row r="158" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C158" s="14"/>
-      <c r="D158" s="14"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
     </row>
     <row r="159" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C159" s="14"/>
-      <c r="D159" s="14"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="13"/>
     </row>
     <row r="160" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C160" s="14"/>
-      <c r="D160" s="14"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="13"/>
     </row>
     <row r="161" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C161" s="14"/>
-      <c r="D161" s="14"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="13"/>
     </row>
     <row r="162" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C162" s="14"/>
-      <c r="D162" s="14"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
     </row>
     <row r="163" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C163" s="14"/>
-      <c r="D163" s="14"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="13"/>
     </row>
     <row r="164" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C164" s="14"/>
-      <c r="D164" s="14"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
     </row>
     <row r="165" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C165" s="14"/>
-      <c r="D165" s="14"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="13"/>
     </row>
     <row r="166" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C166" s="14"/>
-      <c r="D166" s="14"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="13"/>
     </row>
     <row r="167" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C167" s="14"/>
-      <c r="D167" s="14"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="13"/>
     </row>
     <row r="168" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C168" s="14"/>
-      <c r="D168" s="14"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="13"/>
     </row>
     <row r="169" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C169" s="14"/>
-      <c r="D169" s="14"/>
+      <c r="C169" s="13"/>
+      <c r="D169" s="13"/>
     </row>
     <row r="170" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C170" s="14"/>
-      <c r="D170" s="14"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13"/>
     </row>
     <row r="171" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C171" s="14"/>
-      <c r="D171" s="14"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
     </row>
     <row r="172" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C172" s="14"/>
-      <c r="D172" s="14"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="13"/>
     </row>
     <row r="173" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C173" s="14"/>
-      <c r="D173" s="14"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="13"/>
     </row>
     <row r="174" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C174" s="14"/>
-      <c r="D174" s="14"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="13"/>
     </row>
     <row r="175" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C175" s="14"/>
-      <c r="D175" s="14"/>
+      <c r="C175" s="13"/>
+      <c r="D175" s="13"/>
     </row>
     <row r="176" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C176" s="14"/>
-      <c r="D176" s="14"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="13"/>
     </row>
     <row r="177" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C177" s="14"/>
-      <c r="D177" s="14"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="13"/>
     </row>
     <row r="178" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C178" s="14"/>
-      <c r="D178" s="14"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="13"/>
     </row>
     <row r="179" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C179" s="14"/>
-      <c r="D179" s="14"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="13"/>
     </row>
     <row r="180" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C180" s="14"/>
-      <c r="D180" s="14"/>
+      <c r="C180" s="13"/>
+      <c r="D180" s="13"/>
     </row>
     <row r="181" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C181" s="14"/>
-      <c r="D181" s="14"/>
+      <c r="C181" s="13"/>
+      <c r="D181" s="13"/>
     </row>
     <row r="182" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C182" s="14"/>
-      <c r="D182" s="14"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="13"/>
     </row>
     <row r="183" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C183" s="14"/>
-      <c r="D183" s="14"/>
+      <c r="C183" s="13"/>
+      <c r="D183" s="13"/>
     </row>
     <row r="184" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C184" s="14"/>
-      <c r="D184" s="14"/>
+      <c r="C184" s="13"/>
+      <c r="D184" s="13"/>
     </row>
     <row r="185" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C185" s="14"/>
-      <c r="D185" s="14"/>
+      <c r="C185" s="13"/>
+      <c r="D185" s="13"/>
     </row>
     <row r="186" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C186" s="14"/>
-      <c r="D186" s="14"/>
+      <c r="C186" s="13"/>
+      <c r="D186" s="13"/>
     </row>
     <row r="187" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C187" s="14"/>
-      <c r="D187" s="14"/>
+      <c r="C187" s="13"/>
+      <c r="D187" s="13"/>
     </row>
     <row r="188" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C188" s="14"/>
-      <c r="D188" s="14"/>
+      <c r="C188" s="13"/>
+      <c r="D188" s="13"/>
     </row>
     <row r="189" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C189" s="14"/>
-      <c r="D189" s="14"/>
+      <c r="C189" s="13"/>
+      <c r="D189" s="13"/>
     </row>
     <row r="190" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C190" s="14"/>
-      <c r="D190" s="14"/>
+      <c r="C190" s="13"/>
+      <c r="D190" s="13"/>
     </row>
     <row r="191" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C191" s="14"/>
-      <c r="D191" s="14"/>
+      <c r="C191" s="13"/>
+      <c r="D191" s="13"/>
     </row>
     <row r="192" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C192" s="14"/>
-      <c r="D192" s="14"/>
+      <c r="C192" s="13"/>
+      <c r="D192" s="13"/>
     </row>
     <row r="193" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C193" s="14"/>
-      <c r="D193" s="14"/>
+      <c r="C193" s="13"/>
+      <c r="D193" s="13"/>
     </row>
     <row r="194" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C194" s="14"/>
-      <c r="D194" s="14"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="13"/>
     </row>
     <row r="195" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C195" s="14"/>
-      <c r="D195" s="14"/>
+      <c r="C195" s="13"/>
+      <c r="D195" s="13"/>
     </row>
     <row r="196" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C196" s="14"/>
-      <c r="D196" s="14"/>
+      <c r="C196" s="13"/>
+      <c r="D196" s="13"/>
     </row>
     <row r="197" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C197" s="14"/>
-      <c r="D197" s="14"/>
+      <c r="C197" s="13"/>
+      <c r="D197" s="13"/>
     </row>
     <row r="198" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C198" s="14"/>
-      <c r="D198" s="14"/>
+      <c r="C198" s="13"/>
+      <c r="D198" s="13"/>
     </row>
     <row r="199" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C199" s="14"/>
-      <c r="D199" s="14"/>
+      <c r="C199" s="13"/>
+      <c r="D199" s="13"/>
     </row>
     <row r="200" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C200" s="14"/>
-      <c r="D200" s="14"/>
+      <c r="C200" s="13"/>
+      <c r="D200" s="13"/>
     </row>
     <row r="201" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C201" s="14"/>
-      <c r="D201" s="14"/>
+      <c r="C201" s="13"/>
+      <c r="D201" s="13"/>
     </row>
     <row r="202" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C202" s="14"/>
-      <c r="D202" s="14"/>
+      <c r="C202" s="13"/>
+      <c r="D202" s="13"/>
     </row>
     <row r="203" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C203" s="14"/>
-      <c r="D203" s="14"/>
+      <c r="C203" s="13"/>
+      <c r="D203" s="13"/>
     </row>
     <row r="204" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C204" s="14"/>
-      <c r="D204" s="14"/>
+      <c r="C204" s="13"/>
+      <c r="D204" s="13"/>
     </row>
     <row r="205" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C205" s="14"/>
-      <c r="D205" s="14"/>
+      <c r="C205" s="13"/>
+      <c r="D205" s="13"/>
     </row>
     <row r="206" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C206" s="14"/>
-      <c r="D206" s="14"/>
+      <c r="C206" s="13"/>
+      <c r="D206" s="13"/>
     </row>
     <row r="207" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C207" s="14"/>
-      <c r="D207" s="14"/>
+      <c r="C207" s="13"/>
+      <c r="D207" s="13"/>
     </row>
     <row r="208" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C208" s="14"/>
-      <c r="D208" s="14"/>
+      <c r="C208" s="13"/>
+      <c r="D208" s="13"/>
     </row>
     <row r="209" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C209" s="14"/>
-      <c r="D209" s="14"/>
+      <c r="C209" s="13"/>
+      <c r="D209" s="13"/>
     </row>
     <row r="210" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C210" s="14"/>
-      <c r="D210" s="14"/>
+      <c r="C210" s="13"/>
+      <c r="D210" s="13"/>
     </row>
     <row r="211" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C211" s="14"/>
-      <c r="D211" s="14"/>
+      <c r="C211" s="13"/>
+      <c r="D211" s="13"/>
     </row>
     <row r="212" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C212" s="14"/>
-      <c r="D212" s="14"/>
+      <c r="C212" s="13"/>
+      <c r="D212" s="13"/>
     </row>
     <row r="213" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C213" s="14"/>
-      <c r="D213" s="14"/>
+      <c r="C213" s="13"/>
+      <c r="D213" s="13"/>
     </row>
     <row r="214" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C214" s="14"/>
-      <c r="D214" s="14"/>
+      <c r="C214" s="13"/>
+      <c r="D214" s="13"/>
     </row>
     <row r="215" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C215" s="14"/>
-      <c r="D215" s="14"/>
+      <c r="C215" s="13"/>
+      <c r="D215" s="13"/>
     </row>
     <row r="216" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C216" s="14"/>
-      <c r="D216" s="14"/>
+      <c r="C216" s="13"/>
+      <c r="D216" s="13"/>
     </row>
     <row r="217" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C217" s="14"/>
-      <c r="D217" s="14"/>
+      <c r="C217" s="13"/>
+      <c r="D217" s="13"/>
     </row>
     <row r="218" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C218" s="14"/>
-      <c r="D218" s="14"/>
+      <c r="C218" s="13"/>
+      <c r="D218" s="13"/>
     </row>
     <row r="219" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C219" s="14"/>
-      <c r="D219" s="14"/>
+      <c r="C219" s="13"/>
+      <c r="D219" s="13"/>
     </row>
     <row r="220" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C220" s="14"/>
-      <c r="D220" s="14"/>
+      <c r="C220" s="13"/>
+      <c r="D220" s="13"/>
     </row>
     <row r="221" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C221" s="14"/>
-      <c r="D221" s="14"/>
+      <c r="C221" s="13"/>
+      <c r="D221" s="13"/>
     </row>
     <row r="222" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C222" s="14"/>
-      <c r="D222" s="14"/>
+      <c r="C222" s="13"/>
+      <c r="D222" s="13"/>
     </row>
     <row r="223" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C223" s="14"/>
-      <c r="D223" s="14"/>
+      <c r="C223" s="13"/>
+      <c r="D223" s="13"/>
     </row>
     <row r="224" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C224" s="14"/>
-      <c r="D224" s="14"/>
+      <c r="C224" s="13"/>
+      <c r="D224" s="13"/>
     </row>
     <row r="225" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C225" s="14"/>
-      <c r="D225" s="14"/>
+      <c r="C225" s="13"/>
+      <c r="D225" s="13"/>
     </row>
     <row r="226" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C226" s="14"/>
-      <c r="D226" s="14"/>
+      <c r="C226" s="13"/>
+      <c r="D226" s="13"/>
     </row>
     <row r="227" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C227" s="14"/>
-      <c r="D227" s="14"/>
+      <c r="C227" s="13"/>
+      <c r="D227" s="13"/>
     </row>
     <row r="228" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C228" s="14"/>
-      <c r="D228" s="14"/>
+      <c r="C228" s="13"/>
+      <c r="D228" s="13"/>
     </row>
     <row r="229" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C229" s="14"/>
-      <c r="D229" s="14"/>
+      <c r="C229" s="13"/>
+      <c r="D229" s="13"/>
     </row>
     <row r="230" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C230" s="14"/>
-      <c r="D230" s="14"/>
+      <c r="C230" s="13"/>
+      <c r="D230" s="13"/>
     </row>
     <row r="231" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C231" s="14"/>
-      <c r="D231" s="14"/>
+      <c r="C231" s="13"/>
+      <c r="D231" s="13"/>
     </row>
     <row r="232" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C232" s="14"/>
-      <c r="D232" s="14"/>
+      <c r="C232" s="13"/>
+      <c r="D232" s="13"/>
     </row>
     <row r="233" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C233" s="14"/>
-      <c r="D233" s="14"/>
+      <c r="C233" s="13"/>
+      <c r="D233" s="13"/>
     </row>
     <row r="234" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C234" s="14"/>
-      <c r="D234" s="14"/>
+      <c r="C234" s="13"/>
+      <c r="D234" s="13"/>
     </row>
     <row r="235" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C235" s="14"/>
-      <c r="D235" s="14"/>
+      <c r="C235" s="13"/>
+      <c r="D235" s="13"/>
     </row>
     <row r="236" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C236" s="14"/>
-      <c r="D236" s="14"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="13"/>
     </row>
     <row r="237" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C237" s="14"/>
-      <c r="D237" s="14"/>
+      <c r="C237" s="13"/>
+      <c r="D237" s="13"/>
     </row>
     <row r="238" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C238" s="14"/>
-      <c r="D238" s="14"/>
+      <c r="C238" s="13"/>
+      <c r="D238" s="13"/>
     </row>
     <row r="239" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C239" s="14"/>
-      <c r="D239" s="14"/>
+      <c r="C239" s="13"/>
+      <c r="D239" s="13"/>
     </row>
     <row r="240" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C240" s="14"/>
-      <c r="D240" s="14"/>
+      <c r="C240" s="13"/>
+      <c r="D240" s="13"/>
     </row>
     <row r="241" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C241" s="14"/>
-      <c r="D241" s="14"/>
+      <c r="C241" s="13"/>
+      <c r="D241" s="13"/>
     </row>
     <row r="242" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C242" s="14"/>
-      <c r="D242" s="14"/>
+      <c r="C242" s="13"/>
+      <c r="D242" s="13"/>
     </row>
     <row r="243" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C243" s="14"/>
-      <c r="D243" s="14"/>
+      <c r="C243" s="13"/>
+      <c r="D243" s="13"/>
     </row>
     <row r="244" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C244" s="14"/>
-      <c r="D244" s="14"/>
+      <c r="C244" s="13"/>
+      <c r="D244" s="13"/>
     </row>
     <row r="245" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C245" s="14"/>
-      <c r="D245" s="14"/>
+      <c r="C245" s="13"/>
+      <c r="D245" s="13"/>
     </row>
     <row r="246" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C246" s="14"/>
-      <c r="D246" s="14"/>
+      <c r="C246" s="13"/>
+      <c r="D246" s="13"/>
     </row>
     <row r="247" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C247" s="14"/>
-      <c r="D247" s="14"/>
+      <c r="C247" s="13"/>
+      <c r="D247" s="13"/>
     </row>
     <row r="248" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C248" s="14"/>
-      <c r="D248" s="14"/>
+      <c r="C248" s="13"/>
+      <c r="D248" s="13"/>
     </row>
     <row r="249" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C249" s="14"/>
-      <c r="D249" s="14"/>
+      <c r="C249" s="13"/>
+      <c r="D249" s="13"/>
     </row>
     <row r="250" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C250" s="14"/>
-      <c r="D250" s="14"/>
+      <c r="C250" s="13"/>
+      <c r="D250" s="13"/>
     </row>
     <row r="251" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C251" s="14"/>
-      <c r="D251" s="14"/>
+      <c r="C251" s="13"/>
+      <c r="D251" s="13"/>
     </row>
     <row r="252" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C252" s="14"/>
-      <c r="D252" s="14"/>
+      <c r="C252" s="13"/>
+      <c r="D252" s="13"/>
     </row>
     <row r="253" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C253" s="14"/>
-      <c r="D253" s="14"/>
+      <c r="C253" s="13"/>
+      <c r="D253" s="13"/>
     </row>
     <row r="254" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C254" s="14"/>
-      <c r="D254" s="14"/>
+      <c r="C254" s="13"/>
+      <c r="D254" s="13"/>
     </row>
     <row r="255" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C255" s="14"/>
-      <c r="D255" s="14"/>
+      <c r="C255" s="13"/>
+      <c r="D255" s="13"/>
     </row>
     <row r="256" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C256" s="14"/>
-      <c r="D256" s="14"/>
+      <c r="C256" s="13"/>
+      <c r="D256" s="13"/>
     </row>
     <row r="257" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C257" s="14"/>
-      <c r="D257" s="14"/>
+      <c r="C257" s="13"/>
+      <c r="D257" s="13"/>
     </row>
     <row r="258" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C258" s="14"/>
-      <c r="D258" s="14"/>
+      <c r="C258" s="13"/>
+      <c r="D258" s="13"/>
     </row>
     <row r="259" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C259" s="14"/>
-      <c r="D259" s="14"/>
+      <c r="C259" s="13"/>
+      <c r="D259" s="13"/>
     </row>
     <row r="260" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C260" s="14"/>
-      <c r="D260" s="14"/>
+      <c r="C260" s="13"/>
+      <c r="D260" s="13"/>
     </row>
     <row r="261" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C261" s="14"/>
-      <c r="D261" s="14"/>
+      <c r="C261" s="13"/>
+      <c r="D261" s="13"/>
     </row>
     <row r="262" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C262" s="14"/>
-      <c r="D262" s="14"/>
+      <c r="C262" s="13"/>
+      <c r="D262" s="13"/>
     </row>
     <row r="263" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C263" s="14"/>
-      <c r="D263" s="14"/>
+      <c r="C263" s="13"/>
+      <c r="D263" s="13"/>
     </row>
     <row r="264" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C264" s="14"/>
-      <c r="D264" s="14"/>
+      <c r="C264" s="13"/>
+      <c r="D264" s="13"/>
     </row>
     <row r="265" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C265" s="14"/>
-      <c r="D265" s="14"/>
+      <c r="C265" s="13"/>
+      <c r="D265" s="13"/>
     </row>
     <row r="266" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C266" s="14"/>
-      <c r="D266" s="14"/>
+      <c r="C266" s="13"/>
+      <c r="D266" s="13"/>
     </row>
     <row r="267" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C267" s="14"/>
-      <c r="D267" s="14"/>
+      <c r="C267" s="13"/>
+      <c r="D267" s="13"/>
     </row>
     <row r="268" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C268" s="14"/>
-      <c r="D268" s="14"/>
+      <c r="C268" s="13"/>
+      <c r="D268" s="13"/>
     </row>
     <row r="269" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C269" s="14"/>
-      <c r="D269" s="14"/>
+      <c r="C269" s="13"/>
+      <c r="D269" s="13"/>
     </row>
     <row r="270" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C270" s="14"/>
-      <c r="D270" s="14"/>
+      <c r="C270" s="13"/>
+      <c r="D270" s="13"/>
     </row>
     <row r="271" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C271" s="14"/>
-      <c r="D271" s="14"/>
+      <c r="C271" s="13"/>
+      <c r="D271" s="13"/>
     </row>
     <row r="272" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C272" s="14"/>
-      <c r="D272" s="14"/>
+      <c r="C272" s="13"/>
+      <c r="D272" s="13"/>
     </row>
     <row r="273" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C273" s="14"/>
-      <c r="D273" s="14"/>
+      <c r="C273" s="13"/>
+      <c r="D273" s="13"/>
     </row>
     <row r="274" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C274" s="14"/>
-      <c r="D274" s="14"/>
+      <c r="C274" s="13"/>
+      <c r="D274" s="13"/>
     </row>
     <row r="275" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C275" s="14"/>
-      <c r="D275" s="14"/>
+      <c r="C275" s="13"/>
+      <c r="D275" s="13"/>
     </row>
     <row r="276" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C276" s="14"/>
-      <c r="D276" s="14"/>
+      <c r="C276" s="13"/>
+      <c r="D276" s="13"/>
     </row>
     <row r="277" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C277" s="14"/>
-      <c r="D277" s="14"/>
+      <c r="C277" s="13"/>
+      <c r="D277" s="13"/>
     </row>
     <row r="278" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C278" s="14"/>
-      <c r="D278" s="14"/>
+      <c r="C278" s="13"/>
+      <c r="D278" s="13"/>
     </row>
     <row r="279" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C279" s="14"/>
-      <c r="D279" s="14"/>
+      <c r="C279" s="13"/>
+      <c r="D279" s="13"/>
     </row>
     <row r="280" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C280" s="14"/>
-      <c r="D280" s="14"/>
+      <c r="C280" s="13"/>
+      <c r="D280" s="13"/>
     </row>
     <row r="281" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C281" s="14"/>
-      <c r="D281" s="14"/>
+      <c r="C281" s="13"/>
+      <c r="D281" s="13"/>
     </row>
     <row r="282" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C282" s="14"/>
-      <c r="D282" s="14"/>
+      <c r="C282" s="13"/>
+      <c r="D282" s="13"/>
     </row>
     <row r="283" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C283" s="14"/>
-      <c r="D283" s="14"/>
+      <c r="C283" s="13"/>
+      <c r="D283" s="13"/>
     </row>
     <row r="284" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C284" s="14"/>
-      <c r="D284" s="14"/>
+      <c r="C284" s="13"/>
+      <c r="D284" s="13"/>
     </row>
     <row r="285" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C285" s="14"/>
-      <c r="D285" s="14"/>
+      <c r="C285" s="13"/>
+      <c r="D285" s="13"/>
     </row>
     <row r="286" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C286" s="14"/>
-      <c r="D286" s="14"/>
+      <c r="C286" s="13"/>
+      <c r="D286" s="13"/>
     </row>
     <row r="287" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C287" s="14"/>
-      <c r="D287" s="14"/>
+      <c r="C287" s="13"/>
+      <c r="D287" s="13"/>
     </row>
     <row r="288" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C288" s="14"/>
-      <c r="D288" s="14"/>
+      <c r="C288" s="13"/>
+      <c r="D288" s="13"/>
     </row>
     <row r="289" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C289" s="14"/>
-      <c r="D289" s="14"/>
+      <c r="C289" s="13"/>
+      <c r="D289" s="13"/>
     </row>
     <row r="290" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C290" s="14"/>
-      <c r="D290" s="14"/>
+      <c r="C290" s="13"/>
+      <c r="D290" s="13"/>
     </row>
     <row r="291" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C291" s="14"/>
-      <c r="D291" s="14"/>
+      <c r="C291" s="13"/>
+      <c r="D291" s="13"/>
     </row>
     <row r="292" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C292" s="14"/>
-      <c r="D292" s="14"/>
+      <c r="C292" s="13"/>
+      <c r="D292" s="13"/>
     </row>
     <row r="293" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C293" s="14"/>
-      <c r="D293" s="14"/>
+      <c r="C293" s="13"/>
+      <c r="D293" s="13"/>
     </row>
     <row r="294" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C294" s="14"/>
-      <c r="D294" s="14"/>
+      <c r="C294" s="13"/>
+      <c r="D294" s="13"/>
     </row>
     <row r="295" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C295" s="14"/>
-      <c r="D295" s="14"/>
+      <c r="C295" s="13"/>
+      <c r="D295" s="13"/>
     </row>
     <row r="296" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C296" s="14"/>
-      <c r="D296" s="14"/>
+      <c r="C296" s="13"/>
+      <c r="D296" s="13"/>
     </row>
     <row r="297" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C297" s="14"/>
-      <c r="D297" s="14"/>
+      <c r="C297" s="13"/>
+      <c r="D297" s="13"/>
     </row>
     <row r="298" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C298" s="14"/>
-      <c r="D298" s="14"/>
+      <c r="C298" s="13"/>
+      <c r="D298" s="13"/>
     </row>
     <row r="299" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C299" s="14"/>
-      <c r="D299" s="14"/>
+      <c r="C299" s="13"/>
+      <c r="D299" s="13"/>
     </row>
     <row r="300" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C300" s="14"/>
-      <c r="D300" s="14"/>
+      <c r="C300" s="13"/>
+      <c r="D300" s="13"/>
     </row>
     <row r="301" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C301" s="14"/>
-      <c r="D301" s="14"/>
+      <c r="C301" s="13"/>
+      <c r="D301" s="13"/>
     </row>
     <row r="302" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C302" s="14"/>
-      <c r="D302" s="14"/>
+      <c r="C302" s="13"/>
+      <c r="D302" s="13"/>
     </row>
     <row r="303" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C303" s="14"/>
-      <c r="D303" s="14"/>
+      <c r="C303" s="13"/>
+      <c r="D303" s="13"/>
     </row>
     <row r="304" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C304" s="14"/>
-      <c r="D304" s="14"/>
+      <c r="C304" s="13"/>
+      <c r="D304" s="13"/>
     </row>
     <row r="305" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C305" s="14"/>
-      <c r="D305" s="14"/>
+      <c r="C305" s="13"/>
+      <c r="D305" s="13"/>
     </row>
     <row r="306" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C306" s="14"/>
-      <c r="D306" s="14"/>
+      <c r="C306" s="13"/>
+      <c r="D306" s="13"/>
     </row>
     <row r="307" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C307" s="14"/>
-      <c r="D307" s="14"/>
+      <c r="C307" s="13"/>
+      <c r="D307" s="13"/>
     </row>
     <row r="308" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C308" s="14"/>
-      <c r="D308" s="14"/>
+      <c r="C308" s="13"/>
+      <c r="D308" s="13"/>
     </row>
     <row r="309" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C309" s="14"/>
-      <c r="D309" s="14"/>
+      <c r="C309" s="13"/>
+      <c r="D309" s="13"/>
     </row>
     <row r="310" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C310" s="14"/>
-      <c r="D310" s="14"/>
+      <c r="C310" s="13"/>
+      <c r="D310" s="13"/>
     </row>
     <row r="311" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C311" s="14"/>
-      <c r="D311" s="14"/>
+      <c r="C311" s="13"/>
+      <c r="D311" s="13"/>
     </row>
     <row r="312" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C312" s="14"/>
-      <c r="D312" s="14"/>
+      <c r="C312" s="13"/>
+      <c r="D312" s="13"/>
     </row>
     <row r="313" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C313" s="14"/>
-      <c r="D313" s="14"/>
+      <c r="C313" s="13"/>
+      <c r="D313" s="13"/>
     </row>
     <row r="314" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C314" s="14"/>
-      <c r="D314" s="14"/>
+      <c r="C314" s="13"/>
+      <c r="D314" s="13"/>
     </row>
     <row r="315" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C315" s="14"/>
-      <c r="D315" s="14"/>
+      <c r="C315" s="13"/>
+      <c r="D315" s="13"/>
     </row>
     <row r="316" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C316" s="14"/>
-      <c r="D316" s="14"/>
+      <c r="C316" s="13"/>
+      <c r="D316" s="13"/>
     </row>
     <row r="317" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C317" s="14"/>
-      <c r="D317" s="14"/>
+      <c r="C317" s="13"/>
+      <c r="D317" s="13"/>
     </row>
     <row r="318" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C318" s="14"/>
-      <c r="D318" s="14"/>
+      <c r="C318" s="13"/>
+      <c r="D318" s="13"/>
     </row>
     <row r="319" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C319" s="14"/>
-      <c r="D319" s="14"/>
+      <c r="C319" s="13"/>
+      <c r="D319" s="13"/>
     </row>
     <row r="320" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C320" s="14"/>
-      <c r="D320" s="14"/>
+      <c r="C320" s="13"/>
+      <c r="D320" s="13"/>
     </row>
     <row r="321" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C321" s="14"/>
-      <c r="D321" s="14"/>
+      <c r="C321" s="13"/>
+      <c r="D321" s="13"/>
     </row>
     <row r="322" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C322" s="14"/>
-      <c r="D322" s="14"/>
+      <c r="C322" s="13"/>
+      <c r="D322" s="13"/>
     </row>
     <row r="323" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C323" s="14"/>
-      <c r="D323" s="14"/>
+      <c r="C323" s="13"/>
+      <c r="D323" s="13"/>
     </row>
     <row r="324" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C324" s="14"/>
-      <c r="D324" s="14"/>
+      <c r="C324" s="13"/>
+      <c r="D324" s="13"/>
     </row>
     <row r="325" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C325" s="14"/>
-      <c r="D325" s="14"/>
+      <c r="C325" s="13"/>
+      <c r="D325" s="13"/>
     </row>
     <row r="326" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C326" s="14"/>
-      <c r="D326" s="14"/>
+      <c r="C326" s="13"/>
+      <c r="D326" s="13"/>
     </row>
     <row r="327" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C327" s="14"/>
-      <c r="D327" s="14"/>
+      <c r="C327" s="13"/>
+      <c r="D327" s="13"/>
     </row>
     <row r="328" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C328" s="14"/>
-      <c r="D328" s="14"/>
+      <c r="C328" s="13"/>
+      <c r="D328" s="13"/>
     </row>
     <row r="329" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C329" s="14"/>
-      <c r="D329" s="14"/>
+      <c r="C329" s="13"/>
+      <c r="D329" s="13"/>
     </row>
     <row r="330" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C330" s="14"/>
-      <c r="D330" s="14"/>
+      <c r="C330" s="13"/>
+      <c r="D330" s="13"/>
     </row>
     <row r="331" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C331" s="14"/>
-      <c r="D331" s="14"/>
+      <c r="C331" s="13"/>
+      <c r="D331" s="13"/>
     </row>
     <row r="332" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C332" s="14"/>
-      <c r="D332" s="14"/>
+      <c r="C332" s="13"/>
+      <c r="D332" s="13"/>
     </row>
     <row r="333" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C333" s="14"/>
-      <c r="D333" s="14"/>
+      <c r="C333" s="13"/>
+      <c r="D333" s="13"/>
     </row>
     <row r="334" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C334" s="14"/>
-      <c r="D334" s="14"/>
+      <c r="C334" s="13"/>
+      <c r="D334" s="13"/>
     </row>
     <row r="335" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C335" s="14"/>
-      <c r="D335" s="14"/>
+      <c r="C335" s="13"/>
+      <c r="D335" s="13"/>
     </row>
     <row r="336" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C336" s="14"/>
-      <c r="D336" s="14"/>
+      <c r="C336" s="13"/>
+      <c r="D336" s="13"/>
     </row>
     <row r="337" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C337" s="14"/>
-      <c r="D337" s="14"/>
+      <c r="C337" s="13"/>
+      <c r="D337" s="13"/>
     </row>
     <row r="338" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C338" s="14"/>
-      <c r="D338" s="14"/>
+      <c r="C338" s="13"/>
+      <c r="D338" s="13"/>
     </row>
     <row r="339" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C339" s="14"/>
-      <c r="D339" s="14"/>
+      <c r="C339" s="13"/>
+      <c r="D339" s="13"/>
     </row>
     <row r="340" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C340" s="14"/>
-      <c r="D340" s="14"/>
+      <c r="C340" s="13"/>
+      <c r="D340" s="13"/>
     </row>
     <row r="341" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C341" s="14"/>
-      <c r="D341" s="14"/>
+      <c r="C341" s="13"/>
+      <c r="D341" s="13"/>
     </row>
     <row r="342" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C342" s="14"/>
-      <c r="D342" s="14"/>
+      <c r="C342" s="13"/>
+      <c r="D342" s="13"/>
     </row>
     <row r="343" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C343" s="14"/>
-      <c r="D343" s="14"/>
+      <c r="C343" s="13"/>
+      <c r="D343" s="13"/>
     </row>
     <row r="344" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C344" s="14"/>
-      <c r="D344" s="14"/>
+      <c r="C344" s="13"/>
+      <c r="D344" s="13"/>
     </row>
     <row r="345" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C345" s="14"/>
-      <c r="D345" s="14"/>
+      <c r="C345" s="13"/>
+      <c r="D345" s="13"/>
     </row>
     <row r="346" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C346" s="14"/>
-      <c r="D346" s="14"/>
+      <c r="C346" s="13"/>
+      <c r="D346" s="13"/>
     </row>
     <row r="347" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C347" s="14"/>
-      <c r="D347" s="14"/>
+      <c r="C347" s="13"/>
+      <c r="D347" s="13"/>
     </row>
     <row r="348" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C348" s="14"/>
-      <c r="D348" s="14"/>
+      <c r="C348" s="13"/>
+      <c r="D348" s="13"/>
     </row>
     <row r="349" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C349" s="14"/>
-      <c r="D349" s="14"/>
+      <c r="C349" s="13"/>
+      <c r="D349" s="13"/>
     </row>
     <row r="350" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C350" s="14"/>
-      <c r="D350" s="14"/>
+      <c r="C350" s="13"/>
+      <c r="D350" s="13"/>
     </row>
     <row r="351" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C351" s="14"/>
-      <c r="D351" s="14"/>
+      <c r="C351" s="13"/>
+      <c r="D351" s="13"/>
     </row>
     <row r="352" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C352" s="14"/>
-      <c r="D352" s="14"/>
+      <c r="C352" s="13"/>
+      <c r="D352" s="13"/>
     </row>
     <row r="353" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C353" s="14"/>
-      <c r="D353" s="14"/>
+      <c r="C353" s="13"/>
+      <c r="D353" s="13"/>
     </row>
     <row r="354" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C354" s="14"/>
-      <c r="D354" s="14"/>
+      <c r="C354" s="13"/>
+      <c r="D354" s="13"/>
     </row>
     <row r="355" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C355" s="14"/>
-      <c r="D355" s="14"/>
+      <c r="C355" s="13"/>
+      <c r="D355" s="13"/>
     </row>
     <row r="356" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C356" s="14"/>
-      <c r="D356" s="14"/>
+      <c r="C356" s="13"/>
+      <c r="D356" s="13"/>
     </row>
     <row r="357" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C357" s="14"/>
-      <c r="D357" s="14"/>
+      <c r="C357" s="13"/>
+      <c r="D357" s="13"/>
     </row>
     <row r="358" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C358" s="14"/>
-      <c r="D358" s="14"/>
+      <c r="C358" s="13"/>
+      <c r="D358" s="13"/>
     </row>
     <row r="359" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C359" s="14"/>
-      <c r="D359" s="14"/>
+      <c r="C359" s="13"/>
+      <c r="D359" s="13"/>
     </row>
     <row r="360" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C360" s="14"/>
-      <c r="D360" s="14"/>
+      <c r="C360" s="13"/>
+      <c r="D360" s="13"/>
     </row>
     <row r="361" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C361" s="14"/>
-      <c r="D361" s="14"/>
+      <c r="C361" s="13"/>
+      <c r="D361" s="13"/>
     </row>
     <row r="362" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C362" s="14"/>
-      <c r="D362" s="14"/>
+      <c r="C362" s="13"/>
+      <c r="D362" s="13"/>
     </row>
     <row r="363" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C363" s="14"/>
-      <c r="D363" s="14"/>
+      <c r="C363" s="13"/>
+      <c r="D363" s="13"/>
     </row>
     <row r="364" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C364" s="14"/>
-      <c r="D364" s="14"/>
+      <c r="C364" s="13"/>
+      <c r="D364" s="13"/>
     </row>
     <row r="365" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C365" s="14"/>
-      <c r="D365" s="14"/>
+      <c r="C365" s="13"/>
+      <c r="D365" s="13"/>
     </row>
     <row r="366" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C366" s="14"/>
-      <c r="D366" s="14"/>
+      <c r="C366" s="13"/>
+      <c r="D366" s="13"/>
     </row>
     <row r="367" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C367" s="14"/>
-      <c r="D367" s="14"/>
+      <c r="C367" s="13"/>
+      <c r="D367" s="13"/>
     </row>
     <row r="368" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C368" s="14"/>
-      <c r="D368" s="14"/>
+      <c r="C368" s="13"/>
+      <c r="D368" s="13"/>
     </row>
     <row r="369" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C369" s="14"/>
-      <c r="D369" s="14"/>
+      <c r="C369" s="13"/>
+      <c r="D369" s="13"/>
     </row>
     <row r="370" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C370" s="14"/>
-      <c r="D370" s="14"/>
+      <c r="C370" s="13"/>
+      <c r="D370" s="13"/>
     </row>
     <row r="371" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C371" s="14"/>
-      <c r="D371" s="14"/>
+      <c r="C371" s="13"/>
+      <c r="D371" s="13"/>
     </row>
     <row r="372" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C372" s="14"/>
-      <c r="D372" s="14"/>
+      <c r="C372" s="13"/>
+      <c r="D372" s="13"/>
     </row>
     <row r="373" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C373" s="14"/>
-      <c r="D373" s="14"/>
+      <c r="C373" s="13"/>
+      <c r="D373" s="13"/>
     </row>
     <row r="374" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C374" s="14"/>
-      <c r="D374" s="14"/>
+      <c r="C374" s="13"/>
+      <c r="D374" s="13"/>
     </row>
     <row r="375" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C375" s="14"/>
-      <c r="D375" s="14"/>
+      <c r="C375" s="13"/>
+      <c r="D375" s="13"/>
     </row>
     <row r="376" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C376" s="14"/>
-      <c r="D376" s="14"/>
+      <c r="C376" s="13"/>
+      <c r="D376" s="13"/>
     </row>
     <row r="377" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C377" s="14"/>
-      <c r="D377" s="14"/>
+      <c r="C377" s="13"/>
+      <c r="D377" s="13"/>
     </row>
     <row r="378" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C378" s="14"/>
-      <c r="D378" s="14"/>
+      <c r="C378" s="13"/>
+      <c r="D378" s="13"/>
     </row>
     <row r="379" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C379" s="14"/>
-      <c r="D379" s="14"/>
+      <c r="C379" s="13"/>
+      <c r="D379" s="13"/>
     </row>
     <row r="380" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C380" s="14"/>
-      <c r="D380" s="14"/>
+      <c r="C380" s="13"/>
+      <c r="D380" s="13"/>
     </row>
     <row r="381" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C381" s="14"/>
-      <c r="D381" s="14"/>
+      <c r="C381" s="13"/>
+      <c r="D381" s="13"/>
     </row>
     <row r="382" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C382" s="14"/>
-      <c r="D382" s="14"/>
+      <c r="C382" s="13"/>
+      <c r="D382" s="13"/>
     </row>
     <row r="383" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C383" s="14"/>
-      <c r="D383" s="14"/>
+      <c r="C383" s="13"/>
+      <c r="D383" s="13"/>
     </row>
     <row r="384" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C384" s="14"/>
-      <c r="D384" s="14"/>
+      <c r="C384" s="13"/>
+      <c r="D384" s="13"/>
     </row>
     <row r="385" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C385" s="14"/>
-      <c r="D385" s="14"/>
+      <c r="C385" s="13"/>
+      <c r="D385" s="13"/>
     </row>
     <row r="386" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C386" s="14"/>
-      <c r="D386" s="14"/>
+      <c r="C386" s="13"/>
+      <c r="D386" s="13"/>
     </row>
     <row r="387" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C387" s="14"/>
-      <c r="D387" s="14"/>
+      <c r="C387" s="13"/>
+      <c r="D387" s="13"/>
     </row>
     <row r="388" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C388" s="14"/>
-      <c r="D388" s="14"/>
+      <c r="C388" s="13"/>
+      <c r="D388" s="13"/>
     </row>
     <row r="389" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C389" s="14"/>
-      <c r="D389" s="14"/>
+      <c r="C389" s="13"/>
+      <c r="D389" s="13"/>
     </row>
     <row r="390" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C390" s="14"/>
-      <c r="D390" s="14"/>
+      <c r="C390" s="13"/>
+      <c r="D390" s="13"/>
     </row>
     <row r="391" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C391" s="14"/>
-      <c r="D391" s="14"/>
+      <c r="C391" s="13"/>
+      <c r="D391" s="13"/>
     </row>
     <row r="392" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C392" s="14"/>
-      <c r="D392" s="14"/>
+      <c r="C392" s="13"/>
+      <c r="D392" s="13"/>
     </row>
     <row r="393" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C393" s="14"/>
-      <c r="D393" s="14"/>
+      <c r="C393" s="13"/>
+      <c r="D393" s="13"/>
     </row>
     <row r="394" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C394" s="14"/>
-      <c r="D394" s="14"/>
+      <c r="C394" s="13"/>
+      <c r="D394" s="13"/>
     </row>
     <row r="395" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C395" s="14"/>
-      <c r="D395" s="14"/>
+      <c r="C395" s="13"/>
+      <c r="D395" s="13"/>
     </row>
     <row r="396" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C396" s="14"/>
-      <c r="D396" s="14"/>
+      <c r="C396" s="13"/>
+      <c r="D396" s="13"/>
     </row>
     <row r="397" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C397" s="14"/>
-      <c r="D397" s="14"/>
+      <c r="C397" s="13"/>
+      <c r="D397" s="13"/>
     </row>
     <row r="398" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C398" s="14"/>
-      <c r="D398" s="14"/>
+      <c r="C398" s="13"/>
+      <c r="D398" s="13"/>
     </row>
     <row r="399" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C399" s="14"/>
-      <c r="D399" s="14"/>
+      <c r="C399" s="13"/>
+      <c r="D399" s="13"/>
     </row>
     <row r="400" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C400" s="14"/>
-      <c r="D400" s="14"/>
+      <c r="C400" s="13"/>
+      <c r="D400" s="13"/>
     </row>
     <row r="401" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C401" s="14"/>
-      <c r="D401" s="14"/>
+      <c r="C401" s="13"/>
+      <c r="D401" s="13"/>
     </row>
     <row r="402" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C402" s="14"/>
-      <c r="D402" s="14"/>
+      <c r="C402" s="13"/>
+      <c r="D402" s="13"/>
     </row>
     <row r="403" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C403" s="14"/>
-      <c r="D403" s="14"/>
+      <c r="C403" s="13"/>
+      <c r="D403" s="13"/>
     </row>
     <row r="404" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C404" s="14"/>
-      <c r="D404" s="14"/>
+      <c r="C404" s="13"/>
+      <c r="D404" s="13"/>
     </row>
     <row r="405" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C405" s="14"/>
-      <c r="D405" s="14"/>
+      <c r="C405" s="13"/>
+      <c r="D405" s="13"/>
     </row>
     <row r="406" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C406" s="14"/>
-      <c r="D406" s="14"/>
+      <c r="C406" s="13"/>
+      <c r="D406" s="13"/>
     </row>
     <row r="407" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C407" s="14"/>
-      <c r="D407" s="14"/>
+      <c r="C407" s="13"/>
+      <c r="D407" s="13"/>
     </row>
     <row r="408" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C408" s="14"/>
-      <c r="D408" s="14"/>
+      <c r="C408" s="13"/>
+      <c r="D408" s="13"/>
     </row>
     <row r="409" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C409" s="14"/>
-      <c r="D409" s="14"/>
+      <c r="C409" s="13"/>
+      <c r="D409" s="13"/>
     </row>
     <row r="410" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C410" s="14"/>
-      <c r="D410" s="14"/>
+      <c r="C410" s="13"/>
+      <c r="D410" s="13"/>
     </row>
     <row r="411" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C411" s="14"/>
-      <c r="D411" s="14"/>
+      <c r="C411" s="13"/>
+      <c r="D411" s="13"/>
     </row>
     <row r="412" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C412" s="14"/>
-      <c r="D412" s="14"/>
+      <c r="C412" s="13"/>
+      <c r="D412" s="13"/>
     </row>
     <row r="413" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C413" s="14"/>
-      <c r="D413" s="14"/>
+      <c r="C413" s="13"/>
+      <c r="D413" s="13"/>
     </row>
     <row r="414" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C414" s="14"/>
-      <c r="D414" s="14"/>
+      <c r="C414" s="13"/>
+      <c r="D414" s="13"/>
     </row>
     <row r="415" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C415" s="14"/>
-      <c r="D415" s="14"/>
+      <c r="C415" s="13"/>
+      <c r="D415" s="13"/>
     </row>
     <row r="416" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C416" s="14"/>
-      <c r="D416" s="14"/>
+      <c r="C416" s="13"/>
+      <c r="D416" s="13"/>
     </row>
     <row r="417" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C417" s="14"/>
-      <c r="D417" s="14"/>
+      <c r="C417" s="13"/>
+      <c r="D417" s="13"/>
     </row>
     <row r="418" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C418" s="14"/>
-      <c r="D418" s="14"/>
+      <c r="C418" s="13"/>
+      <c r="D418" s="13"/>
     </row>
     <row r="419" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C419" s="14"/>
-      <c r="D419" s="14"/>
+      <c r="C419" s="13"/>
+      <c r="D419" s="13"/>
     </row>
     <row r="420" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C420" s="14"/>
-      <c r="D420" s="14"/>
+      <c r="C420" s="13"/>
+      <c r="D420" s="13"/>
     </row>
     <row r="421" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C421" s="14"/>
-      <c r="D421" s="14"/>
+      <c r="C421" s="13"/>
+      <c r="D421" s="13"/>
     </row>
     <row r="422" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C422" s="14"/>
-      <c r="D422" s="14"/>
+      <c r="C422" s="13"/>
+      <c r="D422" s="13"/>
     </row>
     <row r="423" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C423" s="14"/>
-      <c r="D423" s="14"/>
+      <c r="C423" s="13"/>
+      <c r="D423" s="13"/>
     </row>
     <row r="424" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C424" s="14"/>
-      <c r="D424" s="14"/>
+      <c r="C424" s="13"/>
+      <c r="D424" s="13"/>
     </row>
     <row r="425" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C425" s="14"/>
-      <c r="D425" s="14"/>
+      <c r="C425" s="13"/>
+      <c r="D425" s="13"/>
     </row>
     <row r="426" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C426" s="14"/>
-      <c r="D426" s="14"/>
+      <c r="C426" s="13"/>
+      <c r="D426" s="13"/>
     </row>
     <row r="427" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C427" s="14"/>
-      <c r="D427" s="14"/>
+      <c r="C427" s="13"/>
+      <c r="D427" s="13"/>
     </row>
     <row r="428" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C428" s="14"/>
-      <c r="D428" s="14"/>
+      <c r="C428" s="13"/>
+      <c r="D428" s="13"/>
     </row>
     <row r="429" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C429" s="14"/>
-      <c r="D429" s="14"/>
+      <c r="C429" s="13"/>
+      <c r="D429" s="13"/>
     </row>
     <row r="430" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C430" s="14"/>
-      <c r="D430" s="14"/>
+      <c r="C430" s="13"/>
+      <c r="D430" s="13"/>
     </row>
     <row r="431" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C431" s="14"/>
-      <c r="D431" s="14"/>
+      <c r="C431" s="13"/>
+      <c r="D431" s="13"/>
     </row>
     <row r="432" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C432" s="14"/>
-      <c r="D432" s="14"/>
+      <c r="C432" s="13"/>
+      <c r="D432" s="13"/>
     </row>
     <row r="433" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C433" s="14"/>
-      <c r="D433" s="14"/>
+      <c r="C433" s="13"/>
+      <c r="D433" s="13"/>
     </row>
     <row r="434" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C434" s="14"/>
-      <c r="D434" s="14"/>
+      <c r="C434" s="13"/>
+      <c r="D434" s="13"/>
     </row>
     <row r="435" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C435" s="14"/>
-      <c r="D435" s="14"/>
+      <c r="C435" s="13"/>
+      <c r="D435" s="13"/>
     </row>
     <row r="436" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C436" s="14"/>
-      <c r="D436" s="14"/>
+      <c r="C436" s="13"/>
+      <c r="D436" s="13"/>
     </row>
     <row r="437" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C437" s="14"/>
-      <c r="D437" s="14"/>
+      <c r="C437" s="13"/>
+      <c r="D437" s="13"/>
     </row>
     <row r="438" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C438" s="14"/>
-      <c r="D438" s="14"/>
+      <c r="C438" s="13"/>
+      <c r="D438" s="13"/>
     </row>
     <row r="439" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C439" s="14"/>
-      <c r="D439" s="14"/>
+      <c r="C439" s="13"/>
+      <c r="D439" s="13"/>
     </row>
     <row r="440" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C440" s="14"/>
-      <c r="D440" s="14"/>
+      <c r="C440" s="13"/>
+      <c r="D440" s="13"/>
     </row>
     <row r="441" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C441" s="14"/>
-      <c r="D441" s="14"/>
+      <c r="C441" s="13"/>
+      <c r="D441" s="13"/>
     </row>
     <row r="442" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C442" s="14"/>
-      <c r="D442" s="14"/>
+      <c r="C442" s="13"/>
+      <c r="D442" s="13"/>
     </row>
     <row r="443" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C443" s="14"/>
-      <c r="D443" s="14"/>
+      <c r="C443" s="13"/>
+      <c r="D443" s="13"/>
     </row>
     <row r="444" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C444" s="14"/>
-      <c r="D444" s="14"/>
+      <c r="C444" s="13"/>
+      <c r="D444" s="13"/>
     </row>
     <row r="445" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C445" s="14"/>
-      <c r="D445" s="14"/>
+      <c r="C445" s="13"/>
+      <c r="D445" s="13"/>
     </row>
     <row r="446" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C446" s="14"/>
-      <c r="D446" s="14"/>
+      <c r="C446" s="13"/>
+      <c r="D446" s="13"/>
     </row>
     <row r="447" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C447" s="14"/>
-      <c r="D447" s="14"/>
+      <c r="C447" s="13"/>
+      <c r="D447" s="13"/>
     </row>
     <row r="448" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C448" s="14"/>
-      <c r="D448" s="14"/>
+      <c r="C448" s="13"/>
+      <c r="D448" s="13"/>
     </row>
     <row r="449" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C449" s="14"/>
-      <c r="D449" s="14"/>
+      <c r="C449" s="13"/>
+      <c r="D449" s="13"/>
     </row>
     <row r="450" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C450" s="14"/>
-      <c r="D450" s="14"/>
+      <c r="C450" s="13"/>
+      <c r="D450" s="13"/>
     </row>
     <row r="451" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C451" s="14"/>
-      <c r="D451" s="14"/>
+      <c r="C451" s="13"/>
+      <c r="D451" s="13"/>
     </row>
     <row r="452" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C452" s="14"/>
-      <c r="D452" s="14"/>
+      <c r="C452" s="13"/>
+      <c r="D452" s="13"/>
     </row>
     <row r="453" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C453" s="14"/>
-      <c r="D453" s="14"/>
+      <c r="C453" s="13"/>
+      <c r="D453" s="13"/>
     </row>
     <row r="454" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C454" s="14"/>
-      <c r="D454" s="14"/>
+      <c r="C454" s="13"/>
+      <c r="D454" s="13"/>
     </row>
     <row r="455" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C455" s="14"/>
-      <c r="D455" s="14"/>
+      <c r="C455" s="13"/>
+      <c r="D455" s="13"/>
     </row>
     <row r="456" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C456" s="14"/>
-      <c r="D456" s="14"/>
+      <c r="C456" s="13"/>
+      <c r="D456" s="13"/>
     </row>
     <row r="457" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C457" s="14"/>
-      <c r="D457" s="14"/>
+      <c r="C457" s="13"/>
+      <c r="D457" s="13"/>
     </row>
     <row r="458" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C458" s="14"/>
-      <c r="D458" s="14"/>
+      <c r="C458" s="13"/>
+      <c r="D458" s="13"/>
     </row>
     <row r="459" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C459" s="14"/>
-      <c r="D459" s="14"/>
+      <c r="C459" s="13"/>
+      <c r="D459" s="13"/>
     </row>
     <row r="460" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C460" s="14"/>
-      <c r="D460" s="14"/>
+      <c r="C460" s="13"/>
+      <c r="D460" s="13"/>
     </row>
     <row r="461" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C461" s="14"/>
-      <c r="D461" s="14"/>
+      <c r="C461" s="13"/>
+      <c r="D461" s="13"/>
     </row>
     <row r="462" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C462" s="14"/>
-      <c r="D462" s="14"/>
+      <c r="C462" s="13"/>
+      <c r="D462" s="13"/>
     </row>
     <row r="463" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C463" s="14"/>
-      <c r="D463" s="14"/>
+      <c r="C463" s="13"/>
+      <c r="D463" s="13"/>
     </row>
     <row r="464" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C464" s="14"/>
-      <c r="D464" s="14"/>
+      <c r="C464" s="13"/>
+      <c r="D464" s="13"/>
     </row>
     <row r="465" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C465" s="14"/>
-      <c r="D465" s="14"/>
+      <c r="C465" s="13"/>
+      <c r="D465" s="13"/>
     </row>
     <row r="466" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C466" s="14"/>
-      <c r="D466" s="14"/>
+      <c r="C466" s="13"/>
+      <c r="D466" s="13"/>
     </row>
     <row r="467" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C467" s="14"/>
-      <c r="D467" s="14"/>
+      <c r="C467" s="13"/>
+      <c r="D467" s="13"/>
     </row>
     <row r="468" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C468" s="14"/>
-      <c r="D468" s="14"/>
+      <c r="C468" s="13"/>
+      <c r="D468" s="13"/>
     </row>
     <row r="469" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C469" s="14"/>
-      <c r="D469" s="14"/>
+      <c r="C469" s="13"/>
+      <c r="D469" s="13"/>
     </row>
     <row r="470" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C470" s="14"/>
-      <c r="D470" s="14"/>
+      <c r="C470" s="13"/>
+      <c r="D470" s="13"/>
     </row>
     <row r="471" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C471" s="14"/>
-      <c r="D471" s="14"/>
+      <c r="C471" s="13"/>
+      <c r="D471" s="13"/>
     </row>
     <row r="472" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C472" s="14"/>
-      <c r="D472" s="14"/>
+      <c r="C472" s="13"/>
+      <c r="D472" s="13"/>
     </row>
     <row r="473" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C473" s="14"/>
-      <c r="D473" s="14"/>
+      <c r="C473" s="13"/>
+      <c r="D473" s="13"/>
     </row>
     <row r="474" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C474" s="14"/>
-      <c r="D474" s="14"/>
+      <c r="C474" s="13"/>
+      <c r="D474" s="13"/>
     </row>
     <row r="475" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C475" s="14"/>
-      <c r="D475" s="14"/>
+      <c r="C475" s="13"/>
+      <c r="D475" s="13"/>
     </row>
     <row r="476" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C476" s="14"/>
-      <c r="D476" s="14"/>
+      <c r="C476" s="13"/>
+      <c r="D476" s="13"/>
     </row>
     <row r="477" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C477" s="14"/>
-      <c r="D477" s="14"/>
+      <c r="C477" s="13"/>
+      <c r="D477" s="13"/>
     </row>
     <row r="478" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C478" s="14"/>
-      <c r="D478" s="14"/>
+      <c r="C478" s="13"/>
+      <c r="D478" s="13"/>
     </row>
     <row r="479" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C479" s="14"/>
-      <c r="D479" s="14"/>
+      <c r="C479" s="13"/>
+      <c r="D479" s="13"/>
     </row>
     <row r="480" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C480" s="14"/>
-      <c r="D480" s="14"/>
+      <c r="C480" s="13"/>
+      <c r="D480" s="13"/>
     </row>
     <row r="481" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C481" s="14"/>
-      <c r="D481" s="14"/>
+      <c r="C481" s="13"/>
+      <c r="D481" s="13"/>
     </row>
     <row r="482" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C482" s="14"/>
-      <c r="D482" s="14"/>
+      <c r="C482" s="13"/>
+      <c r="D482" s="13"/>
     </row>
     <row r="483" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C483" s="14"/>
-      <c r="D483" s="14"/>
+      <c r="C483" s="13"/>
+      <c r="D483" s="13"/>
     </row>
     <row r="484" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C484" s="14"/>
-      <c r="D484" s="14"/>
+      <c r="C484" s="13"/>
+      <c r="D484" s="13"/>
     </row>
     <row r="485" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C485" s="14"/>
-      <c r="D485" s="14"/>
+      <c r="C485" s="13"/>
+      <c r="D485" s="13"/>
     </row>
     <row r="486" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C486" s="14"/>
-      <c r="D486" s="14"/>
+      <c r="C486" s="13"/>
+      <c r="D486" s="13"/>
     </row>
     <row r="487" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C487" s="14"/>
-      <c r="D487" s="14"/>
+      <c r="C487" s="13"/>
+      <c r="D487" s="13"/>
     </row>
     <row r="488" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C488" s="14"/>
-      <c r="D488" s="14"/>
+      <c r="C488" s="13"/>
+      <c r="D488" s="13"/>
     </row>
     <row r="489" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C489" s="14"/>
-      <c r="D489" s="14"/>
+      <c r="C489" s="13"/>
+      <c r="D489" s="13"/>
     </row>
     <row r="490" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C490" s="14"/>
-      <c r="D490" s="14"/>
+      <c r="C490" s="13"/>
+      <c r="D490" s="13"/>
     </row>
     <row r="491" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C491" s="14"/>
-      <c r="D491" s="14"/>
+      <c r="C491" s="13"/>
+      <c r="D491" s="13"/>
     </row>
     <row r="492" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C492" s="14"/>
-      <c r="D492" s="14"/>
+      <c r="C492" s="13"/>
+      <c r="D492" s="13"/>
     </row>
     <row r="493" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C493" s="14"/>
-      <c r="D493" s="14"/>
+      <c r="C493" s="13"/>
+      <c r="D493" s="13"/>
     </row>
     <row r="494" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C494" s="14"/>
-      <c r="D494" s="14"/>
+      <c r="C494" s="13"/>
+      <c r="D494" s="13"/>
     </row>
     <row r="495" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C495" s="14"/>
-      <c r="D495" s="14"/>
+      <c r="C495" s="13"/>
+      <c r="D495" s="13"/>
     </row>
     <row r="496" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C496" s="14"/>
-      <c r="D496" s="14"/>
+      <c r="C496" s="13"/>
+      <c r="D496" s="13"/>
     </row>
     <row r="497" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C497" s="14"/>
-      <c r="D497" s="14"/>
+      <c r="C497" s="13"/>
+      <c r="D497" s="13"/>
     </row>
     <row r="498" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C498" s="14"/>
-      <c r="D498" s="14"/>
+      <c r="C498" s="13"/>
+      <c r="D498" s="13"/>
     </row>
     <row r="499" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C499" s="14"/>
-      <c r="D499" s="14"/>
+      <c r="C499" s="13"/>
+      <c r="D499" s="13"/>
     </row>
     <row r="500" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C500" s="14"/>
-      <c r="D500" s="14"/>
+      <c r="C500" s="13"/>
+      <c r="D500" s="13"/>
     </row>
     <row r="501" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C501" s="14"/>
-      <c r="D501" s="14"/>
+      <c r="C501" s="13"/>
+      <c r="D501" s="13"/>
     </row>
     <row r="502" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C502" s="14"/>
-      <c r="D502" s="14"/>
+      <c r="C502" s="13"/>
+      <c r="D502" s="13"/>
     </row>
     <row r="503" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C503" s="14"/>
-      <c r="D503" s="14"/>
+      <c r="C503" s="13"/>
+      <c r="D503" s="13"/>
     </row>
     <row r="504" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C504" s="14"/>
-      <c r="D504" s="14"/>
+      <c r="C504" s="13"/>
+      <c r="D504" s="13"/>
     </row>
     <row r="505" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C505" s="14"/>
-      <c r="D505" s="14"/>
+      <c r="C505" s="13"/>
+      <c r="D505" s="13"/>
     </row>
     <row r="506" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C506" s="14"/>
-      <c r="D506" s="14"/>
+      <c r="C506" s="13"/>
+      <c r="D506" s="13"/>
     </row>
     <row r="507" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C507" s="14"/>
-      <c r="D507" s="14"/>
+      <c r="C507" s="13"/>
+      <c r="D507" s="13"/>
     </row>
     <row r="508" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C508" s="14"/>
-      <c r="D508" s="14"/>
+      <c r="C508" s="13"/>
+      <c r="D508" s="13"/>
     </row>
     <row r="509" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C509" s="14"/>
-      <c r="D509" s="14"/>
+      <c r="C509" s="13"/>
+      <c r="D509" s="13"/>
     </row>
     <row r="510" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C510" s="14"/>
-      <c r="D510" s="14"/>
+      <c r="C510" s="13"/>
+      <c r="D510" s="13"/>
     </row>
     <row r="511" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C511" s="14"/>
-      <c r="D511" s="14"/>
+      <c r="C511" s="13"/>
+      <c r="D511" s="13"/>
     </row>
     <row r="512" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C512" s="14"/>
-      <c r="D512" s="14"/>
+      <c r="C512" s="13"/>
+      <c r="D512" s="13"/>
     </row>
     <row r="513" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C513" s="14"/>
-      <c r="D513" s="14"/>
+      <c r="C513" s="13"/>
+      <c r="D513" s="13"/>
     </row>
     <row r="514" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C514" s="14"/>
-      <c r="D514" s="14"/>
+      <c r="C514" s="13"/>
+      <c r="D514" s="13"/>
     </row>
     <row r="515" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C515" s="14"/>
-      <c r="D515" s="14"/>
+      <c r="C515" s="13"/>
+      <c r="D515" s="13"/>
     </row>
     <row r="516" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C516" s="14"/>
-      <c r="D516" s="14"/>
+      <c r="C516" s="13"/>
+      <c r="D516" s="13"/>
     </row>
     <row r="517" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C517" s="14"/>
-      <c r="D517" s="14"/>
+      <c r="C517" s="13"/>
+      <c r="D517" s="13"/>
     </row>
     <row r="518" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C518" s="14"/>
-      <c r="D518" s="14"/>
+      <c r="C518" s="13"/>
+      <c r="D518" s="13"/>
     </row>
     <row r="519" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C519" s="14"/>
-      <c r="D519" s="14"/>
+      <c r="C519" s="13"/>
+      <c r="D519" s="13"/>
     </row>
     <row r="520" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C520" s="14"/>
-      <c r="D520" s="14"/>
+      <c r="C520" s="13"/>
+      <c r="D520" s="13"/>
     </row>
     <row r="521" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C521" s="14"/>
-      <c r="D521" s="14"/>
+      <c r="C521" s="13"/>
+      <c r="D521" s="13"/>
     </row>
     <row r="522" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C522" s="14"/>
-      <c r="D522" s="14"/>
+      <c r="C522" s="13"/>
+      <c r="D522" s="13"/>
     </row>
     <row r="523" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C523" s="14"/>
-      <c r="D523" s="14"/>
+      <c r="C523" s="13"/>
+      <c r="D523" s="13"/>
     </row>
     <row r="524" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C524" s="14"/>
-      <c r="D524" s="14"/>
+      <c r="C524" s="13"/>
+      <c r="D524" s="13"/>
     </row>
     <row r="525" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C525" s="14"/>
-      <c r="D525" s="14"/>
+      <c r="C525" s="13"/>
+      <c r="D525" s="13"/>
     </row>
     <row r="526" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C526" s="14"/>
-      <c r="D526" s="14"/>
+      <c r="C526" s="13"/>
+      <c r="D526" s="13"/>
     </row>
     <row r="527" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C527" s="14"/>
-      <c r="D527" s="14"/>
+      <c r="C527" s="13"/>
+      <c r="D527" s="13"/>
     </row>
     <row r="528" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C528" s="14"/>
-      <c r="D528" s="14"/>
+      <c r="C528" s="13"/>
+      <c r="D528" s="13"/>
     </row>
     <row r="529" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C529" s="14"/>
-      <c r="D529" s="14"/>
+      <c r="C529" s="13"/>
+      <c r="D529" s="13"/>
     </row>
     <row r="530" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C530" s="14"/>
-      <c r="D530" s="14"/>
+      <c r="C530" s="13"/>
+      <c r="D530" s="13"/>
     </row>
     <row r="531" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C531" s="14"/>
-      <c r="D531" s="14"/>
+      <c r="C531" s="13"/>
+      <c r="D531" s="13"/>
     </row>
     <row r="532" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C532" s="14"/>
-      <c r="D532" s="14"/>
+      <c r="C532" s="13"/>
+      <c r="D532" s="13"/>
     </row>
     <row r="533" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C533" s="14"/>
-      <c r="D533" s="14"/>
+      <c r="C533" s="13"/>
+      <c r="D533" s="13"/>
     </row>
     <row r="534" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C534" s="14"/>
-      <c r="D534" s="14"/>
+      <c r="C534" s="13"/>
+      <c r="D534" s="13"/>
     </row>
     <row r="535" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C535" s="14"/>
-      <c r="D535" s="14"/>
+      <c r="C535" s="13"/>
+      <c r="D535" s="13"/>
     </row>
     <row r="536" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C536" s="14"/>
-      <c r="D536" s="14"/>
+      <c r="C536" s="13"/>
+      <c r="D536" s="13"/>
     </row>
     <row r="537" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C537" s="14"/>
-      <c r="D537" s="14"/>
+      <c r="C537" s="13"/>
+      <c r="D537" s="13"/>
     </row>
     <row r="538" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C538" s="14"/>
-      <c r="D538" s="14"/>
+      <c r="C538" s="13"/>
+      <c r="D538" s="13"/>
     </row>
     <row r="539" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C539" s="14"/>
-      <c r="D539" s="14"/>
+      <c r="C539" s="13"/>
+      <c r="D539" s="13"/>
     </row>
     <row r="540" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C540" s="14"/>
-      <c r="D540" s="14"/>
+      <c r="C540" s="13"/>
+      <c r="D540" s="13"/>
     </row>
     <row r="541" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C541" s="14"/>
-      <c r="D541" s="14"/>
+      <c r="C541" s="13"/>
+      <c r="D541" s="13"/>
     </row>
     <row r="542" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C542" s="14"/>
-      <c r="D542" s="14"/>
+      <c r="C542" s="13"/>
+      <c r="D542" s="13"/>
     </row>
     <row r="543" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C543" s="14"/>
-      <c r="D543" s="14"/>
+      <c r="C543" s="13"/>
+      <c r="D543" s="13"/>
     </row>
     <row r="544" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C544" s="14"/>
-      <c r="D544" s="14"/>
+      <c r="C544" s="13"/>
+      <c r="D544" s="13"/>
     </row>
     <row r="545" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C545" s="14"/>
-      <c r="D545" s="14"/>
+      <c r="C545" s="13"/>
+      <c r="D545" s="13"/>
     </row>
     <row r="546" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C546" s="14"/>
-      <c r="D546" s="14"/>
+      <c r="C546" s="13"/>
+      <c r="D546" s="13"/>
     </row>
     <row r="547" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C547" s="14"/>
-      <c r="D547" s="14"/>
+      <c r="C547" s="13"/>
+      <c r="D547" s="13"/>
     </row>
     <row r="548" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C548" s="14"/>
-      <c r="D548" s="14"/>
+      <c r="C548" s="13"/>
+      <c r="D548" s="13"/>
     </row>
     <row r="549" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C549" s="14"/>
-      <c r="D549" s="14"/>
+      <c r="C549" s="13"/>
+      <c r="D549" s="13"/>
     </row>
     <row r="550" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C550" s="14"/>
-      <c r="D550" s="14"/>
+      <c r="C550" s="13"/>
+      <c r="D550" s="13"/>
     </row>
     <row r="551" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C551" s="14"/>
-      <c r="D551" s="14"/>
+      <c r="C551" s="13"/>
+      <c r="D551" s="13"/>
     </row>
     <row r="552" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C552" s="14"/>
-      <c r="D552" s="14"/>
+      <c r="C552" s="13"/>
+      <c r="D552" s="13"/>
     </row>
     <row r="553" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C553" s="14"/>
-      <c r="D553" s="14"/>
+      <c r="C553" s="13"/>
+      <c r="D553" s="13"/>
     </row>
     <row r="554" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C554" s="14"/>
-      <c r="D554" s="14"/>
+      <c r="C554" s="13"/>
+      <c r="D554" s="13"/>
     </row>
     <row r="555" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C555" s="14"/>
-      <c r="D555" s="14"/>
+      <c r="C555" s="13"/>
+      <c r="D555" s="13"/>
     </row>
     <row r="556" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C556" s="14"/>
-      <c r="D556" s="14"/>
+      <c r="C556" s="13"/>
+      <c r="D556" s="13"/>
     </row>
     <row r="557" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C557" s="14"/>
-      <c r="D557" s="14"/>
+      <c r="C557" s="13"/>
+      <c r="D557" s="13"/>
     </row>
     <row r="558" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C558" s="14"/>
-      <c r="D558" s="14"/>
+      <c r="C558" s="13"/>
+      <c r="D558" s="13"/>
     </row>
     <row r="559" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C559" s="14"/>
-      <c r="D559" s="14"/>
+      <c r="C559" s="13"/>
+      <c r="D559" s="13"/>
     </row>
     <row r="560" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C560" s="14"/>
-      <c r="D560" s="14"/>
+      <c r="C560" s="13"/>
+      <c r="D560" s="13"/>
     </row>
     <row r="561" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C561" s="14"/>
-      <c r="D561" s="14"/>
+      <c r="C561" s="13"/>
+      <c r="D561" s="13"/>
     </row>
     <row r="562" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C562" s="14"/>
-      <c r="D562" s="14"/>
+      <c r="C562" s="13"/>
+      <c r="D562" s="13"/>
     </row>
     <row r="563" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C563" s="14"/>
-      <c r="D563" s="14"/>
+      <c r="C563" s="13"/>
+      <c r="D563" s="13"/>
     </row>
     <row r="564" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C564" s="14"/>
-      <c r="D564" s="14"/>
+      <c r="C564" s="13"/>
+      <c r="D564" s="13"/>
     </row>
     <row r="565" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C565" s="14"/>
-      <c r="D565" s="14"/>
+      <c r="C565" s="13"/>
+      <c r="D565" s="13"/>
     </row>
     <row r="566" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C566" s="14"/>
-      <c r="D566" s="14"/>
+      <c r="C566" s="13"/>
+      <c r="D566" s="13"/>
     </row>
     <row r="567" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C567" s="14"/>
-      <c r="D567" s="14"/>
+      <c r="C567" s="13"/>
+      <c r="D567" s="13"/>
     </row>
     <row r="568" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C568" s="14"/>
-      <c r="D568" s="14"/>
+      <c r="C568" s="13"/>
+      <c r="D568" s="13"/>
     </row>
     <row r="569" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C569" s="14"/>
-      <c r="D569" s="14"/>
+      <c r="C569" s="13"/>
+      <c r="D569" s="13"/>
     </row>
     <row r="570" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C570" s="14"/>
-      <c r="D570" s="14"/>
+      <c r="C570" s="13"/>
+      <c r="D570" s="13"/>
     </row>
     <row r="571" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C571" s="14"/>
-      <c r="D571" s="14"/>
+      <c r="C571" s="13"/>
+      <c r="D571" s="13"/>
     </row>
     <row r="572" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C572" s="14"/>
-      <c r="D572" s="14"/>
+      <c r="C572" s="13"/>
+      <c r="D572" s="13"/>
     </row>
     <row r="573" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C573" s="14"/>
-      <c r="D573" s="14"/>
+      <c r="C573" s="13"/>
+      <c r="D573" s="13"/>
     </row>
     <row r="574" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C574" s="14"/>
-      <c r="D574" s="14"/>
+      <c r="C574" s="13"/>
+      <c r="D574" s="13"/>
     </row>
     <row r="575" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C575" s="14"/>
-      <c r="D575" s="14"/>
+      <c r="C575" s="13"/>
+      <c r="D575" s="13"/>
     </row>
     <row r="576" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C576" s="14"/>
-      <c r="D576" s="14"/>
+      <c r="C576" s="13"/>
+      <c r="D576" s="13"/>
     </row>
     <row r="577" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C577" s="14"/>
-      <c r="D577" s="14"/>
+      <c r="C577" s="13"/>
+      <c r="D577" s="13"/>
     </row>
     <row r="578" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C578" s="14"/>
-      <c r="D578" s="14"/>
+      <c r="C578" s="13"/>
+      <c r="D578" s="13"/>
     </row>
     <row r="579" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C579" s="14"/>
-      <c r="D579" s="14"/>
+      <c r="C579" s="13"/>
+      <c r="D579" s="13"/>
     </row>
     <row r="580" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C580" s="14"/>
-      <c r="D580" s="14"/>
+      <c r="C580" s="13"/>
+      <c r="D580" s="13"/>
     </row>
     <row r="581" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C581" s="14"/>
-      <c r="D581" s="14"/>
+      <c r="C581" s="13"/>
+      <c r="D581" s="13"/>
     </row>
     <row r="582" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C582" s="14"/>
-      <c r="D582" s="14"/>
+      <c r="C582" s="13"/>
+      <c r="D582" s="13"/>
     </row>
     <row r="583" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C583" s="14"/>
-      <c r="D583" s="14"/>
+      <c r="C583" s="13"/>
+      <c r="D583" s="13"/>
     </row>
     <row r="584" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C584" s="14"/>
-      <c r="D584" s="14"/>
+      <c r="C584" s="13"/>
+      <c r="D584" s="13"/>
     </row>
     <row r="585" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C585" s="14"/>
-      <c r="D585" s="14"/>
+      <c r="C585" s="13"/>
+      <c r="D585" s="13"/>
     </row>
     <row r="586" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C586" s="14"/>
-      <c r="D586" s="14"/>
+      <c r="C586" s="13"/>
+      <c r="D586" s="13"/>
     </row>
     <row r="587" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C587" s="14"/>
-      <c r="D587" s="14"/>
+      <c r="C587" s="13"/>
+      <c r="D587" s="13"/>
     </row>
     <row r="588" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C588" s="14"/>
-      <c r="D588" s="14"/>
+      <c r="C588" s="13"/>
+      <c r="D588" s="13"/>
     </row>
     <row r="589" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C589" s="14"/>
-      <c r="D589" s="14"/>
+      <c r="C589" s="13"/>
+      <c r="D589" s="13"/>
     </row>
     <row r="590" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C590" s="14"/>
-      <c r="D590" s="14"/>
+      <c r="C590" s="13"/>
+      <c r="D590" s="13"/>
     </row>
     <row r="591" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C591" s="14"/>
-      <c r="D591" s="14"/>
+      <c r="C591" s="13"/>
+      <c r="D591" s="13"/>
     </row>
     <row r="592" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C592" s="14"/>
-      <c r="D592" s="14"/>
+      <c r="C592" s="13"/>
+      <c r="D592" s="13"/>
     </row>
     <row r="593" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C593" s="14"/>
-      <c r="D593" s="14"/>
+      <c r="C593" s="13"/>
+      <c r="D593" s="13"/>
     </row>
     <row r="594" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C594" s="14"/>
-      <c r="D594" s="14"/>
+      <c r="C594" s="13"/>
+      <c r="D594" s="13"/>
     </row>
     <row r="595" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C595" s="14"/>
-      <c r="D595" s="14"/>
+      <c r="C595" s="13"/>
+      <c r="D595" s="13"/>
     </row>
     <row r="596" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C596" s="14"/>
-      <c r="D596" s="14"/>
+      <c r="C596" s="13"/>
+      <c r="D596" s="13"/>
     </row>
     <row r="597" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C597" s="14"/>
-      <c r="D597" s="14"/>
+      <c r="C597" s="13"/>
+      <c r="D597" s="13"/>
     </row>
     <row r="598" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C598" s="14"/>
-      <c r="D598" s="14"/>
+      <c r="C598" s="13"/>
+      <c r="D598" s="13"/>
     </row>
     <row r="599" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C599" s="14"/>
-      <c r="D599" s="14"/>
+      <c r="C599" s="13"/>
+      <c r="D599" s="13"/>
     </row>
     <row r="600" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C600" s="14"/>
-      <c r="D600" s="14"/>
+      <c r="C600" s="13"/>
+      <c r="D600" s="13"/>
     </row>
     <row r="601" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C601" s="14"/>
-      <c r="D601" s="14"/>
+      <c r="C601" s="13"/>
+      <c r="D601" s="13"/>
     </row>
     <row r="602" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C602" s="14"/>
-      <c r="D602" s="14"/>
+      <c r="C602" s="13"/>
+      <c r="D602" s="13"/>
     </row>
     <row r="603" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C603" s="14"/>
-      <c r="D603" s="14"/>
+      <c r="C603" s="13"/>
+      <c r="D603" s="13"/>
     </row>
     <row r="604" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C604" s="14"/>
-      <c r="D604" s="14"/>
+      <c r="C604" s="13"/>
+      <c r="D604" s="13"/>
     </row>
     <row r="605" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C605" s="14"/>
-      <c r="D605" s="14"/>
+      <c r="C605" s="13"/>
+      <c r="D605" s="13"/>
     </row>
     <row r="606" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C606" s="14"/>
-      <c r="D606" s="14"/>
+      <c r="C606" s="13"/>
+      <c r="D606" s="13"/>
     </row>
     <row r="607" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C607" s="14"/>
-      <c r="D607" s="14"/>
+      <c r="C607" s="13"/>
+      <c r="D607" s="13"/>
     </row>
     <row r="608" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C608" s="14"/>
-      <c r="D608" s="14"/>
+      <c r="C608" s="13"/>
+      <c r="D608" s="13"/>
     </row>
     <row r="609" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C609" s="14"/>
-      <c r="D609" s="14"/>
+      <c r="C609" s="13"/>
+      <c r="D609" s="13"/>
     </row>
     <row r="610" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C610" s="14"/>
-      <c r="D610" s="14"/>
+      <c r="C610" s="13"/>
+      <c r="D610" s="13"/>
     </row>
     <row r="611" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C611" s="14"/>
-      <c r="D611" s="14"/>
+      <c r="C611" s="13"/>
+      <c r="D611" s="13"/>
     </row>
     <row r="612" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C612" s="14"/>
-      <c r="D612" s="14"/>
+      <c r="C612" s="13"/>
+      <c r="D612" s="13"/>
     </row>
     <row r="613" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C613" s="14"/>
-      <c r="D613" s="14"/>
+      <c r="C613" s="13"/>
+      <c r="D613" s="13"/>
     </row>
     <row r="614" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C614" s="14"/>
-      <c r="D614" s="14"/>
+      <c r="C614" s="13"/>
+      <c r="D614" s="13"/>
     </row>
     <row r="615" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C615" s="14"/>
-      <c r="D615" s="14"/>
+      <c r="C615" s="13"/>
+      <c r="D615" s="13"/>
     </row>
     <row r="616" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C616" s="14"/>
-      <c r="D616" s="14"/>
+      <c r="C616" s="13"/>
+      <c r="D616" s="13"/>
     </row>
     <row r="617" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C617" s="14"/>
-      <c r="D617" s="14"/>
+      <c r="C617" s="13"/>
+      <c r="D617" s="13"/>
     </row>
     <row r="618" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C618" s="14"/>
-      <c r="D618" s="14"/>
+      <c r="C618" s="13"/>
+      <c r="D618" s="13"/>
     </row>
     <row r="619" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C619" s="14"/>
-      <c r="D619" s="14"/>
+      <c r="C619" s="13"/>
+      <c r="D619" s="13"/>
     </row>
     <row r="620" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C620" s="14"/>
-      <c r="D620" s="14"/>
+      <c r="C620" s="13"/>
+      <c r="D620" s="13"/>
     </row>
     <row r="621" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C621" s="14"/>
-      <c r="D621" s="14"/>
+      <c r="C621" s="13"/>
+      <c r="D621" s="13"/>
     </row>
     <row r="622" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C622" s="14"/>
-      <c r="D622" s="14"/>
+      <c r="C622" s="13"/>
+      <c r="D622" s="13"/>
     </row>
     <row r="623" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C623" s="14"/>
-      <c r="D623" s="14"/>
+      <c r="C623" s="13"/>
+      <c r="D623" s="13"/>
     </row>
     <row r="624" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C624" s="14"/>
-      <c r="D624" s="14"/>
+      <c r="C624" s="13"/>
+      <c r="D624" s="13"/>
     </row>
     <row r="625" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C625" s="14"/>
-      <c r="D625" s="14"/>
+      <c r="C625" s="13"/>
+      <c r="D625" s="13"/>
     </row>
     <row r="626" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C626" s="14"/>
-      <c r="D626" s="14"/>
+      <c r="C626" s="13"/>
+      <c r="D626" s="13"/>
     </row>
     <row r="627" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C627" s="14"/>
-      <c r="D627" s="14"/>
+      <c r="C627" s="13"/>
+      <c r="D627" s="13"/>
     </row>
     <row r="628" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C628" s="14"/>
-      <c r="D628" s="14"/>
+      <c r="C628" s="13"/>
+      <c r="D628" s="13"/>
     </row>
     <row r="629" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C629" s="14"/>
-      <c r="D629" s="14"/>
+      <c r="C629" s="13"/>
+      <c r="D629" s="13"/>
     </row>
     <row r="630" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C630" s="14"/>
-      <c r="D630" s="14"/>
+      <c r="C630" s="13"/>
+      <c r="D630" s="13"/>
     </row>
     <row r="631" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C631" s="14"/>
-      <c r="D631" s="14"/>
+      <c r="C631" s="13"/>
+      <c r="D631" s="13"/>
     </row>
     <row r="632" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C632" s="14"/>
-      <c r="D632" s="14"/>
+      <c r="C632" s="13"/>
+      <c r="D632" s="13"/>
     </row>
     <row r="633" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C633" s="14"/>
-      <c r="D633" s="14"/>
+      <c r="C633" s="13"/>
+      <c r="D633" s="13"/>
     </row>
     <row r="634" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C634" s="14"/>
-      <c r="D634" s="14"/>
+      <c r="C634" s="13"/>
+      <c r="D634" s="13"/>
     </row>
     <row r="635" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C635" s="14"/>
-      <c r="D635" s="14"/>
+      <c r="C635" s="13"/>
+      <c r="D635" s="13"/>
     </row>
     <row r="636" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C636" s="14"/>
-      <c r="D636" s="14"/>
+      <c r="C636" s="13"/>
+      <c r="D636" s="13"/>
     </row>
     <row r="637" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C637" s="14"/>
-      <c r="D637" s="14"/>
+      <c r="C637" s="13"/>
+      <c r="D637" s="13"/>
     </row>
     <row r="638" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C638" s="14"/>
-      <c r="D638" s="14"/>
+      <c r="C638" s="13"/>
+      <c r="D638" s="13"/>
     </row>
     <row r="639" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C639" s="14"/>
-      <c r="D639" s="14"/>
+      <c r="C639" s="13"/>
+      <c r="D639" s="13"/>
     </row>
     <row r="640" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C640" s="14"/>
-      <c r="D640" s="14"/>
+      <c r="C640" s="13"/>
+      <c r="D640" s="13"/>
     </row>
     <row r="641" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C641" s="14"/>
-      <c r="D641" s="14"/>
+      <c r="C641" s="13"/>
+      <c r="D641" s="13"/>
     </row>
     <row r="642" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C642" s="14"/>
-      <c r="D642" s="14"/>
+      <c r="C642" s="13"/>
+      <c r="D642" s="13"/>
     </row>
     <row r="643" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C643" s="14"/>
-      <c r="D643" s="14"/>
+      <c r="C643" s="13"/>
+      <c r="D643" s="13"/>
     </row>
     <row r="644" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C644" s="14"/>
-      <c r="D644" s="14"/>
+      <c r="C644" s="13"/>
+      <c r="D644" s="13"/>
     </row>
     <row r="645" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C645" s="14"/>
-      <c r="D645" s="14"/>
+      <c r="C645" s="13"/>
+      <c r="D645" s="13"/>
     </row>
     <row r="646" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C646" s="14"/>
-      <c r="D646" s="14"/>
+      <c r="C646" s="13"/>
+      <c r="D646" s="13"/>
     </row>
     <row r="647" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C647" s="14"/>
-      <c r="D647" s="14"/>
+      <c r="C647" s="13"/>
+      <c r="D647" s="13"/>
     </row>
     <row r="648" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C648" s="14"/>
-      <c r="D648" s="14"/>
+      <c r="C648" s="13"/>
+      <c r="D648" s="13"/>
     </row>
     <row r="649" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C649" s="14"/>
-      <c r="D649" s="14"/>
+      <c r="C649" s="13"/>
+      <c r="D649" s="13"/>
     </row>
     <row r="650" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C650" s="14"/>
-      <c r="D650" s="14"/>
+      <c r="C650" s="13"/>
+      <c r="D650" s="13"/>
     </row>
     <row r="651" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C651" s="14"/>
-      <c r="D651" s="14"/>
+      <c r="C651" s="13"/>
+      <c r="D651" s="13"/>
     </row>
     <row r="652" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C652" s="14"/>
-      <c r="D652" s="14"/>
+      <c r="C652" s="13"/>
+      <c r="D652" s="13"/>
     </row>
     <row r="653" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C653" s="14"/>
-      <c r="D653" s="14"/>
+      <c r="C653" s="13"/>
+      <c r="D653" s="13"/>
     </row>
     <row r="654" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C654" s="14"/>
-      <c r="D654" s="14"/>
+      <c r="C654" s="13"/>
+      <c r="D654" s="13"/>
     </row>
     <row r="655" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C655" s="14"/>
-      <c r="D655" s="14"/>
+      <c r="C655" s="13"/>
+      <c r="D655" s="13"/>
     </row>
     <row r="656" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C656" s="14"/>
-      <c r="D656" s="14"/>
+      <c r="C656" s="13"/>
+      <c r="D656" s="13"/>
     </row>
     <row r="657" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C657" s="14"/>
-      <c r="D657" s="14"/>
+      <c r="C657" s="13"/>
+      <c r="D657" s="13"/>
     </row>
     <row r="658" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C658" s="14"/>
-      <c r="D658" s="14"/>
+      <c r="C658" s="13"/>
+      <c r="D658" s="13"/>
     </row>
     <row r="659" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C659" s="14"/>
-      <c r="D659" s="14"/>
+      <c r="C659" s="13"/>
+      <c r="D659" s="13"/>
     </row>
     <row r="660" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C660" s="14"/>
-      <c r="D660" s="14"/>
+      <c r="C660" s="13"/>
+      <c r="D660" s="13"/>
     </row>
     <row r="661" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C661" s="14"/>
-      <c r="D661" s="14"/>
+      <c r="C661" s="13"/>
+      <c r="D661" s="13"/>
     </row>
     <row r="662" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C662" s="14"/>
-      <c r="D662" s="14"/>
+      <c r="C662" s="13"/>
+      <c r="D662" s="13"/>
     </row>
     <row r="663" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C663" s="14"/>
-      <c r="D663" s="14"/>
+      <c r="C663" s="13"/>
+      <c r="D663" s="13"/>
     </row>
     <row r="664" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C664" s="14"/>
-      <c r="D664" s="14"/>
+      <c r="C664" s="13"/>
+      <c r="D664" s="13"/>
     </row>
     <row r="665" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C665" s="14"/>
-      <c r="D665" s="14"/>
+      <c r="C665" s="13"/>
+      <c r="D665" s="13"/>
     </row>
     <row r="666" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C666" s="14"/>
-      <c r="D666" s="14"/>
+      <c r="C666" s="13"/>
+      <c r="D666" s="13"/>
     </row>
     <row r="667" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C667" s="14"/>
-      <c r="D667" s="14"/>
+      <c r="C667" s="13"/>
+      <c r="D667" s="13"/>
     </row>
     <row r="668" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C668" s="14"/>
-      <c r="D668" s="14"/>
+      <c r="C668" s="13"/>
+      <c r="D668" s="13"/>
     </row>
     <row r="669" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C669" s="14"/>
-      <c r="D669" s="14"/>
+      <c r="C669" s="13"/>
+      <c r="D669" s="13"/>
     </row>
     <row r="670" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C670" s="14"/>
-      <c r="D670" s="14"/>
+      <c r="C670" s="13"/>
+      <c r="D670" s="13"/>
     </row>
     <row r="671" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C671" s="14"/>
-      <c r="D671" s="14"/>
+      <c r="C671" s="13"/>
+      <c r="D671" s="13"/>
     </row>
     <row r="672" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C672" s="14"/>
-      <c r="D672" s="14"/>
+      <c r="C672" s="13"/>
+      <c r="D672" s="13"/>
     </row>
     <row r="673" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C673" s="14"/>
-      <c r="D673" s="14"/>
+      <c r="C673" s="13"/>
+      <c r="D673" s="13"/>
     </row>
     <row r="674" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C674" s="14"/>
-      <c r="D674" s="14"/>
+      <c r="C674" s="13"/>
+      <c r="D674" s="13"/>
     </row>
     <row r="675" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C675" s="14"/>
-      <c r="D675" s="14"/>
+      <c r="C675" s="13"/>
+      <c r="D675" s="13"/>
     </row>
     <row r="676" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C676" s="14"/>
-      <c r="D676" s="14"/>
+      <c r="C676" s="13"/>
+      <c r="D676" s="13"/>
     </row>
     <row r="677" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C677" s="14"/>
-      <c r="D677" s="14"/>
+      <c r="C677" s="13"/>
+      <c r="D677" s="13"/>
     </row>
     <row r="678" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C678" s="14"/>
-      <c r="D678" s="14"/>
+      <c r="C678" s="13"/>
+      <c r="D678" s="13"/>
     </row>
     <row r="679" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C679" s="14"/>
-      <c r="D679" s="14"/>
+      <c r="C679" s="13"/>
+      <c r="D679" s="13"/>
     </row>
     <row r="680" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C680" s="14"/>
-      <c r="D680" s="14"/>
+      <c r="C680" s="13"/>
+      <c r="D680" s="13"/>
     </row>
     <row r="681" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C681" s="14"/>
-      <c r="D681" s="14"/>
+      <c r="C681" s="13"/>
+      <c r="D681" s="13"/>
     </row>
     <row r="682" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C682" s="14"/>
-      <c r="D682" s="14"/>
+      <c r="C682" s="13"/>
+      <c r="D682" s="13"/>
     </row>
     <row r="683" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C683" s="14"/>
-      <c r="D683" s="14"/>
+      <c r="C683" s="13"/>
+      <c r="D683" s="13"/>
     </row>
     <row r="684" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C684" s="14"/>
-      <c r="D684" s="14"/>
+      <c r="C684" s="13"/>
+      <c r="D684" s="13"/>
     </row>
     <row r="685" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C685" s="14"/>
-      <c r="D685" s="14"/>
+      <c r="C685" s="13"/>
+      <c r="D685" s="13"/>
     </row>
     <row r="686" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C686" s="14"/>
-      <c r="D686" s="14"/>
+      <c r="C686" s="13"/>
+      <c r="D686" s="13"/>
     </row>
     <row r="687" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C687" s="14"/>
-      <c r="D687" s="14"/>
+      <c r="C687" s="13"/>
+      <c r="D687" s="13"/>
     </row>
     <row r="688" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C688" s="14"/>
-      <c r="D688" s="14"/>
+      <c r="C688" s="13"/>
+      <c r="D688" s="13"/>
     </row>
     <row r="689" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C689" s="14"/>
-      <c r="D689" s="14"/>
+      <c r="C689" s="13"/>
+      <c r="D689" s="13"/>
     </row>
     <row r="690" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C690" s="14"/>
-      <c r="D690" s="14"/>
+      <c r="C690" s="13"/>
+      <c r="D690" s="13"/>
     </row>
     <row r="691" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C691" s="14"/>
-      <c r="D691" s="14"/>
+      <c r="C691" s="13"/>
+      <c r="D691" s="13"/>
     </row>
     <row r="692" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C692" s="14"/>
-      <c r="D692" s="14"/>
+      <c r="C692" s="13"/>
+      <c r="D692" s="13"/>
     </row>
     <row r="693" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C693" s="14"/>
-      <c r="D693" s="14"/>
+      <c r="C693" s="13"/>
+      <c r="D693" s="13"/>
     </row>
     <row r="694" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C694" s="14"/>
-      <c r="D694" s="14"/>
+      <c r="C694" s="13"/>
+      <c r="D694" s="13"/>
     </row>
     <row r="695" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C695" s="14"/>
-      <c r="D695" s="14"/>
+      <c r="C695" s="13"/>
+      <c r="D695" s="13"/>
     </row>
     <row r="696" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C696" s="14"/>
-      <c r="D696" s="14"/>
+      <c r="C696" s="13"/>
+      <c r="D696" s="13"/>
     </row>
     <row r="697" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C697" s="14"/>
-      <c r="D697" s="14"/>
+      <c r="C697" s="13"/>
+      <c r="D697" s="13"/>
     </row>
     <row r="698" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C698" s="14"/>
-      <c r="D698" s="14"/>
+      <c r="C698" s="13"/>
+      <c r="D698" s="13"/>
     </row>
     <row r="699" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C699" s="14"/>
-      <c r="D699" s="14"/>
+      <c r="C699" s="13"/>
+      <c r="D699" s="13"/>
     </row>
     <row r="700" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C700" s="14"/>
-      <c r="D700" s="14"/>
+      <c r="C700" s="13"/>
+      <c r="D700" s="13"/>
     </row>
     <row r="701" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C701" s="14"/>
-      <c r="D701" s="14"/>
+      <c r="C701" s="13"/>
+      <c r="D701" s="13"/>
     </row>
     <row r="702" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C702" s="14"/>
-      <c r="D702" s="14"/>
+      <c r="C702" s="13"/>
+      <c r="D702" s="13"/>
     </row>
     <row r="703" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C703" s="14"/>
-      <c r="D703" s="14"/>
+      <c r="C703" s="13"/>
+      <c r="D703" s="13"/>
     </row>
     <row r="704" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C704" s="14"/>
-      <c r="D704" s="14"/>
+      <c r="C704" s="13"/>
+      <c r="D704" s="13"/>
     </row>
     <row r="705" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C705" s="14"/>
-      <c r="D705" s="14"/>
+      <c r="C705" s="13"/>
+      <c r="D705" s="13"/>
     </row>
     <row r="706" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C706" s="14"/>
-      <c r="D706" s="14"/>
+      <c r="C706" s="13"/>
+      <c r="D706" s="13"/>
     </row>
     <row r="707" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C707" s="14"/>
-      <c r="D707" s="14"/>
+      <c r="C707" s="13"/>
+      <c r="D707" s="13"/>
     </row>
     <row r="708" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C708" s="14"/>
-      <c r="D708" s="14"/>
+      <c r="C708" s="13"/>
+      <c r="D708" s="13"/>
     </row>
     <row r="709" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C709" s="14"/>
-      <c r="D709" s="14"/>
+      <c r="C709" s="13"/>
+      <c r="D709" s="13"/>
     </row>
     <row r="710" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C710" s="14"/>
-      <c r="D710" s="14"/>
+      <c r="C710" s="13"/>
+      <c r="D710" s="13"/>
     </row>
     <row r="711" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C711" s="14"/>
-      <c r="D711" s="14"/>
+      <c r="C711" s="13"/>
+      <c r="D711" s="13"/>
     </row>
     <row r="712" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C712" s="14"/>
-      <c r="D712" s="14"/>
+      <c r="C712" s="13"/>
+      <c r="D712" s="13"/>
     </row>
     <row r="713" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C713" s="14"/>
-      <c r="D713" s="14"/>
+      <c r="C713" s="13"/>
+      <c r="D713" s="13"/>
     </row>
     <row r="714" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C714" s="14"/>
-      <c r="D714" s="14"/>
+      <c r="C714" s="13"/>
+      <c r="D714" s="13"/>
     </row>
     <row r="715" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C715" s="14"/>
-      <c r="D715" s="14"/>
+      <c r="C715" s="13"/>
+      <c r="D715" s="13"/>
     </row>
     <row r="716" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C716" s="14"/>
-      <c r="D716" s="14"/>
+      <c r="C716" s="13"/>
+      <c r="D716" s="13"/>
     </row>
     <row r="717" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C717" s="14"/>
-      <c r="D717" s="14"/>
+      <c r="C717" s="13"/>
+      <c r="D717" s="13"/>
     </row>
     <row r="718" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C718" s="14"/>
-      <c r="D718" s="14"/>
+      <c r="C718" s="13"/>
+      <c r="D718" s="13"/>
     </row>
     <row r="719" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C719" s="14"/>
-      <c r="D719" s="14"/>
+      <c r="C719" s="13"/>
+      <c r="D719" s="13"/>
     </row>
     <row r="720" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C720" s="14"/>
-      <c r="D720" s="14"/>
+      <c r="C720" s="13"/>
+      <c r="D720" s="13"/>
     </row>
     <row r="721" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C721" s="14"/>
-      <c r="D721" s="14"/>
+      <c r="C721" s="13"/>
+      <c r="D721" s="13"/>
     </row>
     <row r="722" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C722" s="14"/>
-      <c r="D722" s="14"/>
+      <c r="C722" s="13"/>
+      <c r="D722" s="13"/>
     </row>
     <row r="723" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C723" s="14"/>
-      <c r="D723" s="14"/>
+      <c r="C723" s="13"/>
+      <c r="D723" s="13"/>
     </row>
     <row r="724" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C724" s="14"/>
-      <c r="D724" s="14"/>
+      <c r="C724" s="13"/>
+      <c r="D724" s="13"/>
     </row>
     <row r="725" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C725" s="14"/>
-      <c r="D725" s="14"/>
+      <c r="C725" s="13"/>
+      <c r="D725" s="13"/>
     </row>
     <row r="726" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C726" s="14"/>
-      <c r="D726" s="14"/>
+      <c r="C726" s="13"/>
+      <c r="D726" s="13"/>
     </row>
     <row r="727" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C727" s="14"/>
-      <c r="D727" s="14"/>
+      <c r="C727" s="13"/>
+      <c r="D727" s="13"/>
     </row>
     <row r="728" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C728" s="14"/>
-      <c r="D728" s="14"/>
+      <c r="C728" s="13"/>
+      <c r="D728" s="13"/>
     </row>
     <row r="729" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C729" s="14"/>
-      <c r="D729" s="14"/>
+      <c r="C729" s="13"/>
+      <c r="D729" s="13"/>
     </row>
     <row r="730" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C730" s="14"/>
-      <c r="D730" s="14"/>
+      <c r="C730" s="13"/>
+      <c r="D730" s="13"/>
     </row>
     <row r="731" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C731" s="14"/>
-      <c r="D731" s="14"/>
+      <c r="C731" s="13"/>
+      <c r="D731" s="13"/>
     </row>
     <row r="732" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C732" s="14"/>
-      <c r="D732" s="14"/>
+      <c r="C732" s="13"/>
+      <c r="D732" s="13"/>
     </row>
     <row r="733" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C733" s="14"/>
-      <c r="D733" s="14"/>
+      <c r="C733" s="13"/>
+      <c r="D733" s="13"/>
     </row>
     <row r="734" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C734" s="14"/>
-      <c r="D734" s="14"/>
+      <c r="C734" s="13"/>
+      <c r="D734" s="13"/>
     </row>
     <row r="735" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C735" s="14"/>
-      <c r="D735" s="14"/>
+      <c r="C735" s="13"/>
+      <c r="D735" s="13"/>
     </row>
     <row r="736" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C736" s="14"/>
-      <c r="D736" s="14"/>
+      <c r="C736" s="13"/>
+      <c r="D736" s="13"/>
     </row>
     <row r="737" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C737" s="14"/>
-      <c r="D737" s="14"/>
+      <c r="C737" s="13"/>
+      <c r="D737" s="13"/>
     </row>
     <row r="738" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C738" s="14"/>
-      <c r="D738" s="14"/>
+      <c r="C738" s="13"/>
+      <c r="D738" s="13"/>
     </row>
     <row r="739" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C739" s="14"/>
-      <c r="D739" s="14"/>
+      <c r="C739" s="13"/>
+      <c r="D739" s="13"/>
     </row>
     <row r="740" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C740" s="14"/>
-      <c r="D740" s="14"/>
+      <c r="C740" s="13"/>
+      <c r="D740" s="13"/>
     </row>
     <row r="741" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C741" s="14"/>
-      <c r="D741" s="14"/>
+      <c r="C741" s="13"/>
+      <c r="D741" s="13"/>
     </row>
     <row r="742" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C742" s="14"/>
-      <c r="D742" s="14"/>
+      <c r="C742" s="13"/>
+      <c r="D742" s="13"/>
     </row>
     <row r="743" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C743" s="14"/>
-      <c r="D743" s="14"/>
+      <c r="C743" s="13"/>
+      <c r="D743" s="13"/>
     </row>
     <row r="744" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C744" s="14"/>
-      <c r="D744" s="14"/>
+      <c r="C744" s="13"/>
+      <c r="D744" s="13"/>
     </row>
     <row r="745" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C745" s="14"/>
-      <c r="D745" s="14"/>
+      <c r="C745" s="13"/>
+      <c r="D745" s="13"/>
     </row>
     <row r="746" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C746" s="14"/>
-      <c r="D746" s="14"/>
+      <c r="C746" s="13"/>
+      <c r="D746" s="13"/>
     </row>
     <row r="747" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C747" s="14"/>
-      <c r="D747" s="14"/>
+      <c r="C747" s="13"/>
+      <c r="D747" s="13"/>
     </row>
     <row r="748" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C748" s="14"/>
-      <c r="D748" s="14"/>
+      <c r="C748" s="13"/>
+      <c r="D748" s="13"/>
     </row>
     <row r="749" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C749" s="14"/>
-      <c r="D749" s="14"/>
+      <c r="C749" s="13"/>
+      <c r="D749" s="13"/>
     </row>
     <row r="750" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C750" s="14"/>
-      <c r="D750" s="14"/>
+      <c r="C750" s="13"/>
+      <c r="D750" s="13"/>
     </row>
     <row r="751" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C751" s="14"/>
-      <c r="D751" s="14"/>
+      <c r="C751" s="13"/>
+      <c r="D751" s="13"/>
     </row>
     <row r="752" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C752" s="14"/>
-      <c r="D752" s="14"/>
+      <c r="C752" s="13"/>
+      <c r="D752" s="13"/>
     </row>
     <row r="753" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C753" s="14"/>
-      <c r="D753" s="14"/>
+      <c r="C753" s="13"/>
+      <c r="D753" s="13"/>
     </row>
     <row r="754" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C754" s="14"/>
-      <c r="D754" s="14"/>
+      <c r="C754" s="13"/>
+      <c r="D754" s="13"/>
     </row>
     <row r="755" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C755" s="14"/>
-      <c r="D755" s="14"/>
+      <c r="C755" s="13"/>
+      <c r="D755" s="13"/>
     </row>
     <row r="756" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C756" s="14"/>
-      <c r="D756" s="14"/>
+      <c r="C756" s="13"/>
+      <c r="D756" s="13"/>
     </row>
     <row r="757" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C757" s="14"/>
-      <c r="D757" s="14"/>
+      <c r="C757" s="13"/>
+      <c r="D757" s="13"/>
     </row>
     <row r="758" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C758" s="14"/>
-      <c r="D758" s="14"/>
+      <c r="C758" s="13"/>
+      <c r="D758" s="13"/>
     </row>
     <row r="759" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C759" s="14"/>
-      <c r="D759" s="14"/>
+      <c r="C759" s="13"/>
+      <c r="D759" s="13"/>
     </row>
     <row r="760" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C760" s="14"/>
-      <c r="D760" s="14"/>
+      <c r="C760" s="13"/>
+      <c r="D760" s="13"/>
     </row>
     <row r="761" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C761" s="14"/>
-      <c r="D761" s="14"/>
+      <c r="C761" s="13"/>
+      <c r="D761" s="13"/>
     </row>
     <row r="762" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C762" s="14"/>
-      <c r="D762" s="14"/>
+      <c r="C762" s="13"/>
+      <c r="D762" s="13"/>
     </row>
     <row r="763" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C763" s="14"/>
-      <c r="D763" s="14"/>
+      <c r="C763" s="13"/>
+      <c r="D763" s="13"/>
     </row>
     <row r="764" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C764" s="14"/>
-      <c r="D764" s="14"/>
+      <c r="C764" s="13"/>
+      <c r="D764" s="13"/>
     </row>
     <row r="765" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C765" s="14"/>
-      <c r="D765" s="14"/>
+      <c r="C765" s="13"/>
+      <c r="D765" s="13"/>
     </row>
     <row r="766" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C766" s="14"/>
-      <c r="D766" s="14"/>
+      <c r="C766" s="13"/>
+      <c r="D766" s="13"/>
     </row>
     <row r="767" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C767" s="14"/>
-      <c r="D767" s="14"/>
+      <c r="C767" s="13"/>
+      <c r="D767" s="13"/>
     </row>
     <row r="768" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C768" s="14"/>
-      <c r="D768" s="14"/>
+      <c r="C768" s="13"/>
+      <c r="D768" s="13"/>
     </row>
     <row r="769" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C769" s="14"/>
-      <c r="D769" s="14"/>
+      <c r="C769" s="13"/>
+      <c r="D769" s="13"/>
     </row>
     <row r="770" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C770" s="14"/>
-      <c r="D770" s="14"/>
+      <c r="C770" s="13"/>
+      <c r="D770" s="13"/>
     </row>
     <row r="771" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C771" s="14"/>
-      <c r="D771" s="14"/>
+      <c r="C771" s="13"/>
+      <c r="D771" s="13"/>
     </row>
     <row r="772" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C772" s="14"/>
-      <c r="D772" s="14"/>
+      <c r="C772" s="13"/>
+      <c r="D772" s="13"/>
     </row>
     <row r="773" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C773" s="14"/>
-      <c r="D773" s="14"/>
+      <c r="C773" s="13"/>
+      <c r="D773" s="13"/>
     </row>
     <row r="774" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C774" s="14"/>
-      <c r="D774" s="14"/>
+      <c r="C774" s="13"/>
+      <c r="D774" s="13"/>
     </row>
     <row r="775" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C775" s="14"/>
-      <c r="D775" s="14"/>
+      <c r="C775" s="13"/>
+      <c r="D775" s="13"/>
     </row>
     <row r="776" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C776" s="14"/>
-      <c r="D776" s="14"/>
+      <c r="C776" s="13"/>
+      <c r="D776" s="13"/>
     </row>
     <row r="777" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C777" s="14"/>
-      <c r="D777" s="14"/>
+      <c r="C777" s="13"/>
+      <c r="D777" s="13"/>
     </row>
     <row r="778" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C778" s="14"/>
-      <c r="D778" s="14"/>
+      <c r="C778" s="13"/>
+      <c r="D778" s="13"/>
     </row>
     <row r="779" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C779" s="14"/>
-      <c r="D779" s="14"/>
+      <c r="C779" s="13"/>
+      <c r="D779" s="13"/>
     </row>
     <row r="780" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C780" s="14"/>
-      <c r="D780" s="14"/>
+      <c r="C780" s="13"/>
+      <c r="D780" s="13"/>
     </row>
     <row r="781" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C781" s="14"/>
-      <c r="D781" s="14"/>
+      <c r="C781" s="13"/>
+      <c r="D781" s="13"/>
     </row>
     <row r="782" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C782" s="14"/>
-      <c r="D782" s="14"/>
+      <c r="C782" s="13"/>
+      <c r="D782" s="13"/>
     </row>
     <row r="783" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C783" s="14"/>
-      <c r="D783" s="14"/>
+      <c r="C783" s="13"/>
+      <c r="D783" s="13"/>
     </row>
     <row r="784" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C784" s="14"/>
-      <c r="D784" s="14"/>
+      <c r="C784" s="13"/>
+      <c r="D784" s="13"/>
     </row>
     <row r="785" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C785" s="14"/>
-      <c r="D785" s="14"/>
+      <c r="C785" s="13"/>
+      <c r="D785" s="13"/>
     </row>
     <row r="786" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C786" s="14"/>
-      <c r="D786" s="14"/>
+      <c r="C786" s="13"/>
+      <c r="D786" s="13"/>
     </row>
     <row r="787" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C787" s="14"/>
-      <c r="D787" s="14"/>
+      <c r="C787" s="13"/>
+      <c r="D787" s="13"/>
     </row>
     <row r="788" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C788" s="14"/>
-      <c r="D788" s="14"/>
+      <c r="C788" s="13"/>
+      <c r="D788" s="13"/>
     </row>
     <row r="789" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C789" s="14"/>
-      <c r="D789" s="14"/>
+      <c r="C789" s="13"/>
+      <c r="D789" s="13"/>
     </row>
     <row r="790" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C790" s="14"/>
-      <c r="D790" s="14"/>
+      <c r="C790" s="13"/>
+      <c r="D790" s="13"/>
     </row>
     <row r="791" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C791" s="14"/>
-      <c r="D791" s="14"/>
+      <c r="C791" s="13"/>
+      <c r="D791" s="13"/>
     </row>
     <row r="792" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C792" s="14"/>
-      <c r="D792" s="14"/>
+      <c r="C792" s="13"/>
+      <c r="D792" s="13"/>
     </row>
     <row r="793" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C793" s="14"/>
-      <c r="D793" s="14"/>
+      <c r="C793" s="13"/>
+      <c r="D793" s="13"/>
     </row>
     <row r="794" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C794" s="14"/>
-      <c r="D794" s="14"/>
+      <c r="C794" s="13"/>
+      <c r="D794" s="13"/>
     </row>
     <row r="795" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C795" s="14"/>
-      <c r="D795" s="14"/>
+      <c r="C795" s="13"/>
+      <c r="D795" s="13"/>
     </row>
     <row r="796" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C796" s="14"/>
-      <c r="D796" s="14"/>
+      <c r="C796" s="13"/>
+      <c r="D796" s="13"/>
     </row>
     <row r="797" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C797" s="14"/>
-      <c r="D797" s="14"/>
+      <c r="C797" s="13"/>
+      <c r="D797" s="13"/>
     </row>
     <row r="798" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C798" s="14"/>
-      <c r="D798" s="14"/>
+      <c r="C798" s="13"/>
+      <c r="D798" s="13"/>
     </row>
     <row r="799" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C799" s="14"/>
-      <c r="D799" s="14"/>
+      <c r="C799" s="13"/>
+      <c r="D799" s="13"/>
     </row>
     <row r="800" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C800" s="14"/>
-      <c r="D800" s="14"/>
+      <c r="C800" s="13"/>
+      <c r="D800" s="13"/>
     </row>
     <row r="801" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C801" s="14"/>
-      <c r="D801" s="14"/>
+      <c r="C801" s="13"/>
+      <c r="D801" s="13"/>
     </row>
     <row r="802" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C802" s="14"/>
-      <c r="D802" s="14"/>
+      <c r="C802" s="13"/>
+      <c r="D802" s="13"/>
     </row>
     <row r="803" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C803" s="14"/>
-      <c r="D803" s="14"/>
+      <c r="C803" s="13"/>
+      <c r="D803" s="13"/>
     </row>
     <row r="804" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C804" s="14"/>
-      <c r="D804" s="14"/>
+      <c r="C804" s="13"/>
+      <c r="D804" s="13"/>
     </row>
     <row r="805" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C805" s="14"/>
-      <c r="D805" s="14"/>
+      <c r="C805" s="13"/>
+      <c r="D805" s="13"/>
     </row>
     <row r="806" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C806" s="14"/>
-      <c r="D806" s="14"/>
+      <c r="C806" s="13"/>
+      <c r="D806" s="13"/>
     </row>
     <row r="807" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C807" s="14"/>
-      <c r="D807" s="14"/>
+      <c r="C807" s="13"/>
+      <c r="D807" s="13"/>
     </row>
     <row r="808" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C808" s="14"/>
-      <c r="D808" s="14"/>
+      <c r="C808" s="13"/>
+      <c r="D808" s="13"/>
     </row>
     <row r="809" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C809" s="14"/>
-      <c r="D809" s="14"/>
+      <c r="C809" s="13"/>
+      <c r="D809" s="13"/>
     </row>
     <row r="810" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C810" s="14"/>
-      <c r="D810" s="14"/>
+      <c r="C810" s="13"/>
+      <c r="D810" s="13"/>
     </row>
     <row r="811" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C811" s="14"/>
-      <c r="D811" s="14"/>
+      <c r="C811" s="13"/>
+      <c r="D811" s="13"/>
     </row>
     <row r="812" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C812" s="14"/>
-      <c r="D812" s="14"/>
+      <c r="C812" s="13"/>
+      <c r="D812" s="13"/>
     </row>
     <row r="813" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C813" s="14"/>
-      <c r="D813" s="14"/>
+      <c r="C813" s="13"/>
+      <c r="D813" s="13"/>
     </row>
     <row r="814" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C814" s="14"/>
-      <c r="D814" s="14"/>
+      <c r="C814" s="13"/>
+      <c r="D814" s="13"/>
     </row>
     <row r="815" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C815" s="14"/>
-      <c r="D815" s="14"/>
+      <c r="C815" s="13"/>
+      <c r="D815" s="13"/>
     </row>
     <row r="816" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C816" s="14"/>
-      <c r="D816" s="14"/>
+      <c r="C816" s="13"/>
+      <c r="D816" s="13"/>
     </row>
     <row r="817" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C817" s="14"/>
-      <c r="D817" s="14"/>
+      <c r="C817" s="13"/>
+      <c r="D817" s="13"/>
     </row>
     <row r="818" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C818" s="14"/>
-      <c r="D818" s="14"/>
+      <c r="C818" s="13"/>
+      <c r="D818" s="13"/>
     </row>
     <row r="819" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C819" s="14"/>
-      <c r="D819" s="14"/>
+      <c r="C819" s="13"/>
+      <c r="D819" s="13"/>
     </row>
     <row r="820" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C820" s="14"/>
-      <c r="D820" s="14"/>
+      <c r="C820" s="13"/>
+      <c r="D820" s="13"/>
     </row>
     <row r="821" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C821" s="14"/>
-      <c r="D821" s="14"/>
+      <c r="C821" s="13"/>
+      <c r="D821" s="13"/>
     </row>
     <row r="822" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C822" s="14"/>
-      <c r="D822" s="14"/>
+      <c r="C822" s="13"/>
+      <c r="D822" s="13"/>
     </row>
     <row r="823" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C823" s="14"/>
-      <c r="D823" s="14"/>
+      <c r="C823" s="13"/>
+      <c r="D823" s="13"/>
     </row>
     <row r="824" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C824" s="14"/>
-      <c r="D824" s="14"/>
+      <c r="C824" s="13"/>
+      <c r="D824" s="13"/>
     </row>
     <row r="825" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C825" s="14"/>
-      <c r="D825" s="14"/>
+      <c r="C825" s="13"/>
+      <c r="D825" s="13"/>
     </row>
     <row r="826" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C826" s="14"/>
-      <c r="D826" s="14"/>
+      <c r="C826" s="13"/>
+      <c r="D826" s="13"/>
     </row>
     <row r="827" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C827" s="14"/>
-      <c r="D827" s="14"/>
+      <c r="C827" s="13"/>
+      <c r="D827" s="13"/>
     </row>
     <row r="828" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C828" s="14"/>
-      <c r="D828" s="14"/>
+      <c r="C828" s="13"/>
+      <c r="D828" s="13"/>
     </row>
     <row r="829" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C829" s="14"/>
-      <c r="D829" s="14"/>
+      <c r="C829" s="13"/>
+      <c r="D829" s="13"/>
     </row>
     <row r="830" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C830" s="14"/>
-      <c r="D830" s="14"/>
+      <c r="C830" s="13"/>
+      <c r="D830" s="13"/>
     </row>
     <row r="831" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C831" s="14"/>
-      <c r="D831" s="14"/>
+      <c r="C831" s="13"/>
+      <c r="D831" s="13"/>
     </row>
     <row r="832" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C832" s="14"/>
-      <c r="D832" s="14"/>
+      <c r="C832" s="13"/>
+      <c r="D832" s="13"/>
     </row>
     <row r="833" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C833" s="14"/>
-      <c r="D833" s="14"/>
+      <c r="C833" s="13"/>
+      <c r="D833" s="13"/>
     </row>
     <row r="834" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C834" s="14"/>
-      <c r="D834" s="14"/>
+      <c r="C834" s="13"/>
+      <c r="D834" s="13"/>
     </row>
     <row r="835" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C835" s="14"/>
-      <c r="D835" s="14"/>
+      <c r="C835" s="13"/>
+      <c r="D835" s="13"/>
     </row>
     <row r="836" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C836" s="14"/>
-      <c r="D836" s="14"/>
+      <c r="C836" s="13"/>
+      <c r="D836" s="13"/>
     </row>
     <row r="837" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C837" s="14"/>
-      <c r="D837" s="14"/>
+      <c r="C837" s="13"/>
+      <c r="D837" s="13"/>
     </row>
     <row r="838" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C838" s="14"/>
-      <c r="D838" s="14"/>
+      <c r="C838" s="13"/>
+      <c r="D838" s="13"/>
     </row>
     <row r="839" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C839" s="14"/>
-      <c r="D839" s="14"/>
+      <c r="C839" s="13"/>
+      <c r="D839" s="13"/>
     </row>
     <row r="840" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C840" s="14"/>
-      <c r="D840" s="14"/>
+      <c r="C840" s="13"/>
+      <c r="D840" s="13"/>
     </row>
     <row r="841" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C841" s="14"/>
-      <c r="D841" s="14"/>
+      <c r="C841" s="13"/>
+      <c r="D841" s="13"/>
     </row>
     <row r="842" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C842" s="14"/>
-      <c r="D842" s="14"/>
+      <c r="C842" s="13"/>
+      <c r="D842" s="13"/>
     </row>
     <row r="843" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C843" s="14"/>
-      <c r="D843" s="14"/>
+      <c r="C843" s="13"/>
+      <c r="D843" s="13"/>
     </row>
     <row r="844" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C844" s="14"/>
-      <c r="D844" s="14"/>
+      <c r="C844" s="13"/>
+      <c r="D844" s="13"/>
     </row>
     <row r="845" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C845" s="14"/>
-      <c r="D845" s="14"/>
+      <c r="C845" s="13"/>
+      <c r="D845" s="13"/>
     </row>
     <row r="846" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C846" s="14"/>
-      <c r="D846" s="14"/>
+      <c r="C846" s="13"/>
+      <c r="D846" s="13"/>
     </row>
     <row r="847" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C847" s="14"/>
-      <c r="D847" s="14"/>
+      <c r="C847" s="13"/>
+      <c r="D847" s="13"/>
     </row>
     <row r="848" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C848" s="14"/>
-      <c r="D848" s="14"/>
+      <c r="C848" s="13"/>
+      <c r="D848" s="13"/>
     </row>
     <row r="849" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C849" s="14"/>
-      <c r="D849" s="14"/>
+      <c r="C849" s="13"/>
+      <c r="D849" s="13"/>
     </row>
     <row r="850" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C850" s="14"/>
-      <c r="D850" s="14"/>
+      <c r="C850" s="13"/>
+      <c r="D850" s="13"/>
     </row>
     <row r="851" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C851" s="14"/>
-      <c r="D851" s="14"/>
+      <c r="C851" s="13"/>
+      <c r="D851" s="13"/>
     </row>
     <row r="852" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C852" s="14"/>
-      <c r="D852" s="14"/>
+      <c r="C852" s="13"/>
+      <c r="D852" s="13"/>
     </row>
     <row r="853" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C853" s="14"/>
-      <c r="D853" s="14"/>
+      <c r="C853" s="13"/>
+      <c r="D853" s="13"/>
     </row>
     <row r="854" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C854" s="14"/>
-      <c r="D854" s="14"/>
+      <c r="C854" s="13"/>
+      <c r="D854" s="13"/>
     </row>
     <row r="855" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C855" s="14"/>
-      <c r="D855" s="14"/>
+      <c r="C855" s="13"/>
+      <c r="D855" s="13"/>
     </row>
     <row r="856" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C856" s="14"/>
-      <c r="D856" s="14"/>
+      <c r="C856" s="13"/>
+      <c r="D856" s="13"/>
     </row>
     <row r="857" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C857" s="14"/>
-      <c r="D857" s="14"/>
+      <c r="C857" s="13"/>
+      <c r="D857" s="13"/>
     </row>
     <row r="858" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C858" s="14"/>
-      <c r="D858" s="14"/>
+      <c r="C858" s="13"/>
+      <c r="D858" s="13"/>
     </row>
     <row r="859" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C859" s="14"/>
-      <c r="D859" s="14"/>
+      <c r="C859" s="13"/>
+      <c r="D859" s="13"/>
     </row>
     <row r="860" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C860" s="14"/>
-      <c r="D860" s="14"/>
+      <c r="C860" s="13"/>
+      <c r="D860" s="13"/>
     </row>
     <row r="861" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C861" s="14"/>
-      <c r="D861" s="14"/>
+      <c r="C861" s="13"/>
+      <c r="D861" s="13"/>
     </row>
     <row r="862" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C862" s="14"/>
-      <c r="D862" s="14"/>
+      <c r="C862" s="13"/>
+      <c r="D862" s="13"/>
     </row>
     <row r="863" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C863" s="14"/>
-      <c r="D863" s="14"/>
+      <c r="C863" s="13"/>
+      <c r="D863" s="13"/>
     </row>
     <row r="864" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C864" s="14"/>
-      <c r="D864" s="14"/>
+      <c r="C864" s="13"/>
+      <c r="D864" s="13"/>
     </row>
     <row r="865" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C865" s="14"/>
-      <c r="D865" s="14"/>
+      <c r="C865" s="13"/>
+      <c r="D865" s="13"/>
     </row>
     <row r="866" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C866" s="14"/>
-      <c r="D866" s="14"/>
+      <c r="C866" s="13"/>
+      <c r="D866" s="13"/>
     </row>
     <row r="867" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C867" s="14"/>
-      <c r="D867" s="14"/>
+      <c r="C867" s="13"/>
+      <c r="D867" s="13"/>
     </row>
     <row r="868" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C868" s="14"/>
-      <c r="D868" s="14"/>
+      <c r="C868" s="13"/>
+      <c r="D868" s="13"/>
     </row>
     <row r="869" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C869" s="14"/>
-      <c r="D869" s="14"/>
+      <c r="C869" s="13"/>
+      <c r="D869" s="13"/>
     </row>
     <row r="870" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C870" s="14"/>
-      <c r="D870" s="14"/>
+      <c r="C870" s="13"/>
+      <c r="D870" s="13"/>
     </row>
     <row r="871" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C871" s="14"/>
-      <c r="D871" s="14"/>
+      <c r="C871" s="13"/>
+      <c r="D871" s="13"/>
     </row>
     <row r="872" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C872" s="14"/>
-      <c r="D872" s="14"/>
+      <c r="C872" s="13"/>
+      <c r="D872" s="13"/>
     </row>
     <row r="873" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C873" s="14"/>
-      <c r="D873" s="14"/>
+      <c r="C873" s="13"/>
+      <c r="D873" s="13"/>
     </row>
     <row r="874" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C874" s="14"/>
-      <c r="D874" s="14"/>
+      <c r="C874" s="13"/>
+      <c r="D874" s="13"/>
     </row>
     <row r="875" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C875" s="14"/>
-      <c r="D875" s="14"/>
+      <c r="C875" s="13"/>
+      <c r="D875" s="13"/>
     </row>
     <row r="876" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C876" s="14"/>
-      <c r="D876" s="14"/>
+      <c r="C876" s="13"/>
+      <c r="D876" s="13"/>
     </row>
     <row r="877" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C877" s="14"/>
-      <c r="D877" s="14"/>
+      <c r="C877" s="13"/>
+      <c r="D877" s="13"/>
     </row>
     <row r="878" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C878" s="14"/>
-      <c r="D878" s="14"/>
+      <c r="C878" s="13"/>
+      <c r="D878" s="13"/>
     </row>
     <row r="879" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C879" s="14"/>
-      <c r="D879" s="14"/>
+      <c r="C879" s="13"/>
+      <c r="D879" s="13"/>
     </row>
     <row r="880" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C880" s="14"/>
-      <c r="D880" s="14"/>
+      <c r="C880" s="13"/>
+      <c r="D880" s="13"/>
     </row>
     <row r="881" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C881" s="14"/>
-      <c r="D881" s="14"/>
+      <c r="C881" s="13"/>
+      <c r="D881" s="13"/>
     </row>
     <row r="882" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C882" s="14"/>
-      <c r="D882" s="14"/>
+      <c r="C882" s="13"/>
+      <c r="D882" s="13"/>
     </row>
     <row r="883" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C883" s="14"/>
-      <c r="D883" s="14"/>
+      <c r="C883" s="13"/>
+      <c r="D883" s="13"/>
     </row>
     <row r="884" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C884" s="14"/>
-      <c r="D884" s="14"/>
+      <c r="C884" s="13"/>
+      <c r="D884" s="13"/>
     </row>
     <row r="885" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C885" s="14"/>
-      <c r="D885" s="14"/>
+      <c r="C885" s="13"/>
+      <c r="D885" s="13"/>
     </row>
     <row r="886" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C886" s="14"/>
-      <c r="D886" s="14"/>
+      <c r="C886" s="13"/>
+      <c r="D886" s="13"/>
     </row>
     <row r="887" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C887" s="14"/>
-      <c r="D887" s="14"/>
+      <c r="C887" s="13"/>
+      <c r="D887" s="13"/>
     </row>
     <row r="888" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C888" s="14"/>
-      <c r="D888" s="14"/>
+      <c r="C888" s="13"/>
+      <c r="D888" s="13"/>
     </row>
     <row r="889" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C889" s="14"/>
-      <c r="D889" s="14"/>
+      <c r="C889" s="13"/>
+      <c r="D889" s="13"/>
     </row>
     <row r="890" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C890" s="14"/>
-      <c r="D890" s="14"/>
+      <c r="C890" s="13"/>
+      <c r="D890" s="13"/>
     </row>
     <row r="891" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C891" s="14"/>
-      <c r="D891" s="14"/>
+      <c r="C891" s="13"/>
+      <c r="D891" s="13"/>
     </row>
     <row r="892" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C892" s="14"/>
-      <c r="D892" s="14"/>
+      <c r="C892" s="13"/>
+      <c r="D892" s="13"/>
     </row>
     <row r="893" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C893" s="14"/>
-      <c r="D893" s="14"/>
+      <c r="C893" s="13"/>
+      <c r="D893" s="13"/>
     </row>
     <row r="894" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C894" s="14"/>
-      <c r="D894" s="14"/>
+      <c r="C894" s="13"/>
+      <c r="D894" s="13"/>
     </row>
     <row r="895" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C895" s="14"/>
-      <c r="D895" s="14"/>
+      <c r="C895" s="13"/>
+      <c r="D895" s="13"/>
     </row>
     <row r="896" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C896" s="14"/>
-      <c r="D896" s="14"/>
+      <c r="C896" s="13"/>
+      <c r="D896" s="13"/>
     </row>
     <row r="897" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C897" s="14"/>
-      <c r="D897" s="14"/>
+      <c r="C897" s="13"/>
+      <c r="D897" s="13"/>
     </row>
     <row r="898" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C898" s="14"/>
-      <c r="D898" s="14"/>
+      <c r="C898" s="13"/>
+      <c r="D898" s="13"/>
     </row>
     <row r="899" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C899" s="14"/>
-      <c r="D899" s="14"/>
+      <c r="C899" s="13"/>
+      <c r="D899" s="13"/>
     </row>
     <row r="900" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C900" s="14"/>
-      <c r="D900" s="14"/>
+      <c r="C900" s="13"/>
+      <c r="D900" s="13"/>
     </row>
     <row r="901" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C901" s="14"/>
-      <c r="D901" s="14"/>
+      <c r="C901" s="13"/>
+      <c r="D901" s="13"/>
     </row>
     <row r="902" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C902" s="14"/>
-      <c r="D902" s="14"/>
+      <c r="C902" s="13"/>
+      <c r="D902" s="13"/>
     </row>
     <row r="903" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C903" s="14"/>
-      <c r="D903" s="14"/>
+      <c r="C903" s="13"/>
+      <c r="D903" s="13"/>
     </row>
     <row r="904" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C904" s="14"/>
-      <c r="D904" s="14"/>
+      <c r="C904" s="13"/>
+      <c r="D904" s="13"/>
     </row>
     <row r="905" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C905" s="14"/>
-      <c r="D905" s="14"/>
+      <c r="C905" s="13"/>
+      <c r="D905" s="13"/>
     </row>
     <row r="906" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C906" s="14"/>
-      <c r="D906" s="14"/>
+      <c r="C906" s="13"/>
+      <c r="D906" s="13"/>
     </row>
     <row r="907" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C907" s="14"/>
-      <c r="D907" s="14"/>
+      <c r="C907" s="13"/>
+      <c r="D907" s="13"/>
     </row>
     <row r="908" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C908" s="14"/>
-      <c r="D908" s="14"/>
+      <c r="C908" s="13"/>
+      <c r="D908" s="13"/>
     </row>
     <row r="909" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C909" s="14"/>
-      <c r="D909" s="14"/>
+      <c r="C909" s="13"/>
+      <c r="D909" s="13"/>
     </row>
     <row r="910" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C910" s="14"/>
-      <c r="D910" s="14"/>
+      <c r="C910" s="13"/>
+      <c r="D910" s="13"/>
     </row>
     <row r="911" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C911" s="14"/>
-      <c r="D911" s="14"/>
+      <c r="C911" s="13"/>
+      <c r="D911" s="13"/>
     </row>
     <row r="912" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C912" s="14"/>
-      <c r="D912" s="14"/>
+      <c r="C912" s="13"/>
+      <c r="D912" s="13"/>
     </row>
     <row r="913" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C913" s="14"/>
-      <c r="D913" s="14"/>
+      <c r="C913" s="13"/>
+      <c r="D913" s="13"/>
     </row>
     <row r="914" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C914" s="14"/>
-      <c r="D914" s="14"/>
+      <c r="C914" s="13"/>
+      <c r="D914" s="13"/>
     </row>
     <row r="915" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C915" s="14"/>
-      <c r="D915" s="14"/>
+      <c r="C915" s="13"/>
+      <c r="D915" s="13"/>
     </row>
     <row r="916" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C916" s="14"/>
-      <c r="D916" s="14"/>
+      <c r="C916" s="13"/>
+      <c r="D916" s="13"/>
     </row>
     <row r="917" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C917" s="14"/>
-      <c r="D917" s="14"/>
+      <c r="C917" s="13"/>
+      <c r="D917" s="13"/>
     </row>
     <row r="918" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C918" s="14"/>
-      <c r="D918" s="14"/>
+      <c r="C918" s="13"/>
+      <c r="D918" s="13"/>
     </row>
     <row r="919" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C919" s="14"/>
-      <c r="D919" s="14"/>
+      <c r="C919" s="13"/>
+      <c r="D919" s="13"/>
     </row>
     <row r="920" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C920" s="14"/>
-      <c r="D920" s="14"/>
+      <c r="C920" s="13"/>
+      <c r="D920" s="13"/>
     </row>
     <row r="921" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C921" s="14"/>
-      <c r="D921" s="14"/>
+      <c r="C921" s="13"/>
+      <c r="D921" s="13"/>
     </row>
     <row r="922" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C922" s="14"/>
-      <c r="D922" s="14"/>
+      <c r="C922" s="13"/>
+      <c r="D922" s="13"/>
     </row>
     <row r="923" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C923" s="14"/>
-      <c r="D923" s="14"/>
+      <c r="C923" s="13"/>
+      <c r="D923" s="13"/>
     </row>
     <row r="924" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C924" s="14"/>
-      <c r="D924" s="14"/>
+      <c r="C924" s="13"/>
+      <c r="D924" s="13"/>
     </row>
     <row r="925" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C925" s="14"/>
-      <c r="D925" s="14"/>
+      <c r="C925" s="13"/>
+      <c r="D925" s="13"/>
     </row>
     <row r="926" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C926" s="14"/>
-      <c r="D926" s="14"/>
+      <c r="C926" s="13"/>
+      <c r="D926" s="13"/>
     </row>
     <row r="927" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C927" s="14"/>
-      <c r="D927" s="14"/>
+      <c r="C927" s="13"/>
+      <c r="D927" s="13"/>
     </row>
     <row r="928" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C928" s="14"/>
-      <c r="D928" s="14"/>
+      <c r="C928" s="13"/>
+      <c r="D928" s="13"/>
     </row>
     <row r="929" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C929" s="14"/>
-      <c r="D929" s="14"/>
+      <c r="C929" s="13"/>
+      <c r="D929" s="13"/>
     </row>
     <row r="930" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C930" s="14"/>
-      <c r="D930" s="14"/>
+      <c r="C930" s="13"/>
+      <c r="D930" s="13"/>
     </row>
     <row r="931" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C931" s="14"/>
-      <c r="D931" s="14"/>
+      <c r="C931" s="13"/>
+      <c r="D931" s="13"/>
     </row>
     <row r="932" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C932" s="14"/>
-      <c r="D932" s="14"/>
+      <c r="C932" s="13"/>
+      <c r="D932" s="13"/>
     </row>
     <row r="933" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C933" s="14"/>
-      <c r="D933" s="14"/>
+      <c r="C933" s="13"/>
+      <c r="D933" s="13"/>
     </row>
     <row r="934" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C934" s="14"/>
-      <c r="D934" s="14"/>
+      <c r="C934" s="13"/>
+      <c r="D934" s="13"/>
     </row>
     <row r="935" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C935" s="14"/>
-      <c r="D935" s="14"/>
+      <c r="C935" s="13"/>
+      <c r="D935" s="13"/>
     </row>
     <row r="936" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C936" s="14"/>
-      <c r="D936" s="14"/>
+      <c r="C936" s="13"/>
+      <c r="D936" s="13"/>
     </row>
     <row r="937" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C937" s="14"/>
-      <c r="D937" s="14"/>
+      <c r="C937" s="13"/>
+      <c r="D937" s="13"/>
     </row>
     <row r="938" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C938" s="14"/>
-      <c r="D938" s="14"/>
+      <c r="C938" s="13"/>
+      <c r="D938" s="13"/>
     </row>
     <row r="939" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C939" s="14"/>
-      <c r="D939" s="14"/>
+      <c r="C939" s="13"/>
+      <c r="D939" s="13"/>
     </row>
     <row r="940" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C940" s="14"/>
-      <c r="D940" s="14"/>
+      <c r="C940" s="13"/>
+      <c r="D940" s="13"/>
     </row>
     <row r="941" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C941" s="14"/>
-      <c r="D941" s="14"/>
+      <c r="C941" s="13"/>
+      <c r="D941" s="13"/>
     </row>
     <row r="942" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C942" s="14"/>
-      <c r="D942" s="14"/>
+      <c r="C942" s="13"/>
+      <c r="D942" s="13"/>
     </row>
     <row r="943" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C943" s="14"/>
-      <c r="D943" s="14"/>
+      <c r="C943" s="13"/>
+      <c r="D943" s="13"/>
     </row>
     <row r="944" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C944" s="14"/>
-      <c r="D944" s="14"/>
+      <c r="C944" s="13"/>
+      <c r="D944" s="13"/>
     </row>
     <row r="945" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C945" s="14"/>
-      <c r="D945" s="14"/>
+      <c r="C945" s="13"/>
+      <c r="D945" s="13"/>
     </row>
     <row r="946" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C946" s="14"/>
-      <c r="D946" s="14"/>
+      <c r="C946" s="13"/>
+      <c r="D946" s="13"/>
     </row>
     <row r="947" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C947" s="14"/>
-      <c r="D947" s="14"/>
+      <c r="C947" s="13"/>
+      <c r="D947" s="13"/>
     </row>
     <row r="948" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C948" s="14"/>
-      <c r="D948" s="14"/>
+      <c r="C948" s="13"/>
+      <c r="D948" s="13"/>
     </row>
     <row r="949" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C949" s="14"/>
-      <c r="D949" s="14"/>
+      <c r="C949" s="13"/>
+      <c r="D949" s="13"/>
     </row>
     <row r="950" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C950" s="14"/>
-      <c r="D950" s="14"/>
+      <c r="C950" s="13"/>
+      <c r="D950" s="13"/>
     </row>
     <row r="951" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C951" s="14"/>
-      <c r="D951" s="14"/>
+      <c r="C951" s="13"/>
+      <c r="D951" s="13"/>
     </row>
     <row r="952" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C952" s="14"/>
-      <c r="D952" s="14"/>
+      <c r="C952" s="13"/>
+      <c r="D952" s="13"/>
     </row>
     <row r="953" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C953" s="14"/>
-      <c r="D953" s="14"/>
+      <c r="C953" s="13"/>
+      <c r="D953" s="13"/>
     </row>
     <row r="954" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C954" s="14"/>
-      <c r="D954" s="14"/>
+      <c r="C954" s="13"/>
+      <c r="D954" s="13"/>
     </row>
     <row r="955" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C955" s="14"/>
-      <c r="D955" s="14"/>
+      <c r="C955" s="13"/>
+      <c r="D955" s="13"/>
     </row>
     <row r="956" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C956" s="14"/>
-      <c r="D956" s="14"/>
+      <c r="C956" s="13"/>
+      <c r="D956" s="13"/>
     </row>
     <row r="957" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C957" s="14"/>
-      <c r="D957" s="14"/>
+      <c r="C957" s="13"/>
+      <c r="D957" s="13"/>
     </row>
     <row r="958" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C958" s="14"/>
-      <c r="D958" s="14"/>
+      <c r="C958" s="13"/>
+      <c r="D958" s="13"/>
     </row>
     <row r="959" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C959" s="14"/>
-      <c r="D959" s="14"/>
+      <c r="C959" s="13"/>
+      <c r="D959" s="13"/>
     </row>
     <row r="960" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C960" s="14"/>
-      <c r="D960" s="14"/>
+      <c r="C960" s="13"/>
+      <c r="D960" s="13"/>
     </row>
     <row r="961" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C961" s="14"/>
-      <c r="D961" s="14"/>
+      <c r="C961" s="13"/>
+      <c r="D961" s="13"/>
     </row>
     <row r="962" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C962" s="14"/>
-      <c r="D962" s="14"/>
+      <c r="C962" s="13"/>
+      <c r="D962" s="13"/>
     </row>
     <row r="963" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C963" s="14"/>
-      <c r="D963" s="14"/>
+      <c r="C963" s="13"/>
+      <c r="D963" s="13"/>
     </row>
     <row r="964" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C964" s="14"/>
-      <c r="D964" s="14"/>
+      <c r="C964" s="13"/>
+      <c r="D964" s="13"/>
     </row>
     <row r="965" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C965" s="14"/>
-      <c r="D965" s="14"/>
+      <c r="C965" s="13"/>
+      <c r="D965" s="13"/>
     </row>
     <row r="966" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C966" s="14"/>
-      <c r="D966" s="14"/>
+      <c r="C966" s="13"/>
+      <c r="D966" s="13"/>
     </row>
     <row r="967" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C967" s="14"/>
-      <c r="D967" s="14"/>
+      <c r="C967" s="13"/>
+      <c r="D967" s="13"/>
     </row>
     <row r="968" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C968" s="14"/>
-      <c r="D968" s="14"/>
+      <c r="C968" s="13"/>
+      <c r="D968" s="13"/>
     </row>
     <row r="969" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C969" s="14"/>
-      <c r="D969" s="14"/>
+      <c r="C969" s="13"/>
+      <c r="D969" s="13"/>
     </row>
     <row r="970" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C970" s="14"/>
-      <c r="D970" s="14"/>
+      <c r="C970" s="13"/>
+      <c r="D970" s="13"/>
     </row>
     <row r="971" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C971" s="14"/>
-      <c r="D971" s="14"/>
+      <c r="C971" s="13"/>
+      <c r="D971" s="13"/>
     </row>
     <row r="972" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C972" s="14"/>
-      <c r="D972" s="14"/>
+      <c r="C972" s="13"/>
+      <c r="D972" s="13"/>
     </row>
     <row r="973" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C973" s="14"/>
-      <c r="D973" s="14"/>
+      <c r="C973" s="13"/>
+      <c r="D973" s="13"/>
     </row>
     <row r="974" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C974" s="14"/>
-      <c r="D974" s="14"/>
+      <c r="C974" s="13"/>
+      <c r="D974" s="13"/>
     </row>
     <row r="975" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C975" s="14"/>
-      <c r="D975" s="14"/>
+      <c r="C975" s="13"/>
+      <c r="D975" s="13"/>
     </row>
     <row r="976" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C976" s="14"/>
-      <c r="D976" s="14"/>
+      <c r="C976" s="13"/>
+      <c r="D976" s="13"/>
     </row>
     <row r="977" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C977" s="14"/>
-      <c r="D977" s="14"/>
+      <c r="C977" s="13"/>
+      <c r="D977" s="13"/>
     </row>
     <row r="978" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C978" s="14"/>
-      <c r="D978" s="14"/>
+      <c r="C978" s="13"/>
+      <c r="D978" s="13"/>
     </row>
     <row r="979" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C979" s="14"/>
-      <c r="D979" s="14"/>
+      <c r="C979" s="13"/>
+      <c r="D979" s="13"/>
     </row>
     <row r="980" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C980" s="14"/>
-      <c r="D980" s="14"/>
+      <c r="C980" s="13"/>
+      <c r="D980" s="13"/>
     </row>
     <row r="981" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C981" s="14"/>
-      <c r="D981" s="14"/>
+      <c r="C981" s="13"/>
+      <c r="D981" s="13"/>
     </row>
     <row r="982" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C982" s="14"/>
-      <c r="D982" s="14"/>
+      <c r="C982" s="13"/>
+      <c r="D982" s="13"/>
     </row>
     <row r="983" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C983" s="14"/>
-      <c r="D983" s="14"/>
+      <c r="C983" s="13"/>
+      <c r="D983" s="13"/>
     </row>
     <row r="984" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C984" s="14"/>
-      <c r="D984" s="14"/>
+      <c r="C984" s="13"/>
+      <c r="D984" s="13"/>
     </row>
     <row r="985" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C985" s="14"/>
-      <c r="D985" s="14"/>
+      <c r="C985" s="13"/>
+      <c r="D985" s="13"/>
     </row>
     <row r="986" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C986" s="14"/>
-      <c r="D986" s="14"/>
+      <c r="C986" s="13"/>
+      <c r="D986" s="13"/>
     </row>
     <row r="987" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C987" s="14"/>
-      <c r="D987" s="14"/>
+      <c r="C987" s="13"/>
+      <c r="D987" s="13"/>
     </row>
     <row r="988" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C988" s="14"/>
-      <c r="D988" s="14"/>
+      <c r="C988" s="13"/>
+      <c r="D988" s="13"/>
     </row>
     <row r="989" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C989" s="14"/>
-      <c r="D989" s="14"/>
+      <c r="C989" s="13"/>
+      <c r="D989" s="13"/>
     </row>
     <row r="990" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C990" s="14"/>
-      <c r="D990" s="14"/>
+      <c r="C990" s="13"/>
+      <c r="D990" s="13"/>
     </row>
     <row r="991" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C991" s="14"/>
-      <c r="D991" s="14"/>
+      <c r="C991" s="13"/>
+      <c r="D991" s="13"/>
     </row>
     <row r="992" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C992" s="14"/>
-      <c r="D992" s="14"/>
+      <c r="C992" s="13"/>
+      <c r="D992" s="13"/>
     </row>
     <row r="993" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C993" s="14"/>
-      <c r="D993" s="14"/>
+      <c r="C993" s="13"/>
+      <c r="D993" s="13"/>
     </row>
     <row r="994" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C994" s="14"/>
-      <c r="D994" s="14"/>
+      <c r="C994" s="13"/>
+      <c r="D994" s="13"/>
     </row>
     <row r="995" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C995" s="14"/>
-      <c r="D995" s="14"/>
+      <c r="C995" s="13"/>
+      <c r="D995" s="13"/>
     </row>
     <row r="996" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C996" s="14"/>
-      <c r="D996" s="14"/>
+      <c r="C996" s="13"/>
+      <c r="D996" s="13"/>
     </row>
     <row r="997" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C997" s="14"/>
-      <c r="D997" s="14"/>
+      <c r="C997" s="13"/>
+      <c r="D997" s="13"/>
     </row>
     <row r="998" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C998" s="14"/>
-      <c r="D998" s="14"/>
+      <c r="C998" s="13"/>
+      <c r="D998" s="13"/>
     </row>
     <row r="999" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C999" s="14"/>
-      <c r="D999" s="14"/>
+      <c r="C999" s="13"/>
+      <c r="D999" s="13"/>
     </row>
     <row r="1000" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C1000" s="14"/>
-      <c r="D1000" s="14"/>
+      <c r="C1000" s="13"/>
+      <c r="D1000" s="13"/>
     </row>
     <row r="1001" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C1001" s="14"/>
-      <c r="D1001" s="14"/>
+      <c r="C1001" s="13"/>
+      <c r="D1001" s="13"/>
     </row>
     <row r="1002" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C1002" s="14"/>
-      <c r="D1002" s="14"/>
+      <c r="C1002" s="13"/>
+      <c r="D1002" s="13"/>
     </row>
     <row r="1003" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C1003" s="14"/>
-      <c r="D1003" s="14"/>
+      <c r="C1003" s="13"/>
+      <c r="D1003" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7102,7 +6839,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -7113,69 +6850,69 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B2" s="8">
         <v>250</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B3" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B4" s="8">
         <v>350</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B6" s="8">
         <v>500</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -7191,8 +6928,8 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -7209,159 +6946,159 @@
         <f>Plans!A1</f>
         <v>Plan (Family)</v>
       </c>
-      <c r="C1" s="12" t="str">
+      <c r="C1" s="11" t="str">
         <f>Plans!C1</f>
-        <v>AETNA ACO 1000 CO</v>
-      </c>
-      <c r="D1" s="12" t="str">
+        <v>PPO A 1000</v>
+      </c>
+      <c r="D1" s="11" t="str">
         <f>Plans!D1</f>
-        <v>AETNA ACO 6500 CO</v>
-      </c>
-      <c r="E1" s="12" t="str">
+        <v>PPO A HDHP</v>
+      </c>
+      <c r="E1" s="11" t="str">
         <f>Plans!E1</f>
-        <v>AETNA EPO 0 CO</v>
-      </c>
-      <c r="F1" s="12" t="str">
+        <v>PPO B 0</v>
+      </c>
+      <c r="F1" s="11" t="str">
         <f>Plans!F1</f>
-        <v>AETNA EPO 2000 CO</v>
-      </c>
-      <c r="G1" s="12" t="str">
+        <v>PPO B 2000</v>
+      </c>
+      <c r="G1" s="11" t="str">
         <f>Plans!G1</f>
-        <v>AETNA HDHP 3000 CO</v>
-      </c>
-      <c r="H1" s="12" t="str">
+        <v>HMO A 1000</v>
+      </c>
+      <c r="H1" s="11" t="str">
         <f>Plans!H1</f>
-        <v>AETNA PPO 300 CO</v>
-      </c>
-      <c r="I1" s="12" t="str">
+        <v>HMO A 3000</v>
+      </c>
+      <c r="I1" s="11">
         <f>Plans!I1</f>
-        <v>AETNA PPO 6350 CO</v>
-      </c>
-      <c r="J1" s="12" t="str">
+        <v>0</v>
+      </c>
+      <c r="J1" s="11">
         <f>Plans!J1</f>
-        <v>KAISER HDHP 6650 CO</v>
-      </c>
-      <c r="K1" s="12" t="str">
+        <v>0</v>
+      </c>
+      <c r="K1" s="11">
         <f>Plans!K1</f>
-        <v>KAISER HMO 20 CO</v>
-      </c>
-      <c r="L1" s="12" t="str">
+        <v>0</v>
+      </c>
+      <c r="L1" s="11">
         <f>Plans!L1</f>
-        <v>KAISER HMO 30 CO</v>
-      </c>
-      <c r="M1" s="12" t="str">
+        <v>0</v>
+      </c>
+      <c r="M1" s="11">
         <f>Plans!M1</f>
-        <v>KAISER HMO 3000 CO</v>
-      </c>
-      <c r="N1" s="12" t="str">
+        <v>0</v>
+      </c>
+      <c r="N1" s="11">
         <f>Plans!N1</f>
-        <v>UHC SELECT PLUS (Current)</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="14">
+        <v>9</v>
+      </c>
+      <c r="C2" s="13">
         <f>Plans!C2*24</f>
-        <v>8628</v>
-      </c>
-      <c r="D2" s="14">
+        <v>8400</v>
+      </c>
+      <c r="D2" s="13">
         <f>Plans!D2*24</f>
-        <v>2208</v>
-      </c>
-      <c r="E2" s="14">
+        <v>2400</v>
+      </c>
+      <c r="E2" s="13">
         <f>Plans!E2*24</f>
-        <v>13896</v>
-      </c>
-      <c r="F2" s="14">
+        <v>14400</v>
+      </c>
+      <c r="F2" s="13">
         <f>Plans!F2*24</f>
-        <v>8520</v>
-      </c>
-      <c r="G2" s="14">
+        <v>8400</v>
+      </c>
+      <c r="G2" s="13">
         <f>Plans!G2*24</f>
-        <v>6528</v>
-      </c>
-      <c r="H2" s="14">
+        <v>4800</v>
+      </c>
+      <c r="H2" s="13">
         <f>Plans!H2*24</f>
-        <v>16668</v>
-      </c>
-      <c r="I2" s="14">
+        <v>2400</v>
+      </c>
+      <c r="I2" s="13">
         <f>Plans!I2*24</f>
-        <v>3432</v>
-      </c>
-      <c r="J2" s="14">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13">
         <f>Plans!J2*24</f>
-        <v>1926</v>
-      </c>
-      <c r="K2" s="14">
+        <v>0</v>
+      </c>
+      <c r="K2" s="13">
         <f>Plans!K2*24</f>
-        <v>8568</v>
-      </c>
-      <c r="L2" s="14">
+        <v>0</v>
+      </c>
+      <c r="L2" s="13">
         <f>Plans!L2*24</f>
-        <v>4560</v>
-      </c>
-      <c r="M2" s="14">
+        <v>0</v>
+      </c>
+      <c r="M2" s="13">
         <f>Plans!M2*24</f>
-        <v>2616</v>
-      </c>
-      <c r="N2" s="14">
+        <v>0</v>
+      </c>
+      <c r="N2" s="13">
         <f>Plans!N2*24</f>
-        <v>8904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="14">
+        <v>27</v>
+      </c>
+      <c r="C3" s="13">
         <f>SUM(Plans!C14:C16)</f>
-        <v>6480</v>
-      </c>
-      <c r="D3" s="14">
+        <v>6300</v>
+      </c>
+      <c r="D3" s="13">
         <f>SUM(Plans!D14:D16)</f>
-        <v>9380</v>
-      </c>
-      <c r="E3" s="14">
+        <v>9500</v>
+      </c>
+      <c r="E3" s="13">
         <f>SUM(Plans!E14:E16)</f>
-        <v>1880</v>
-      </c>
-      <c r="F3" s="14">
+        <v>1850</v>
+      </c>
+      <c r="F3" s="13">
         <f>SUM(Plans!F14:F16)</f>
-        <v>7880</v>
-      </c>
-      <c r="G3" s="14">
+        <v>7600</v>
+      </c>
+      <c r="G3" s="13">
         <f>SUM(Plans!G14:G16)</f>
-        <v>9630</v>
-      </c>
-      <c r="H3" s="14">
+        <v>4000</v>
+      </c>
+      <c r="H3" s="13">
         <f>SUM(Plans!H14:H16)</f>
-        <v>3580</v>
-      </c>
-      <c r="I3" s="14">
+        <v>7300</v>
+      </c>
+      <c r="I3" s="13">
         <f>SUM(Plans!I14:I16)</f>
-        <v>10030</v>
-      </c>
-      <c r="J3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
         <f>SUM(Plans!J14:J16)</f>
-        <v>15320</v>
-      </c>
-      <c r="K3" s="14">
+        <v>0</v>
+      </c>
+      <c r="K3" s="13">
         <f>SUM(Plans!K14:K16)</f>
-        <v>1890</v>
-      </c>
-      <c r="L3" s="14">
+        <v>0</v>
+      </c>
+      <c r="L3" s="13">
         <f>SUM(Plans!L14:L16)</f>
-        <v>4350</v>
-      </c>
-      <c r="M3" s="14">
+        <v>0</v>
+      </c>
+      <c r="M3" s="13">
         <f>SUM(Plans!M14:M16)</f>
-        <v>7320</v>
-      </c>
-      <c r="N3" s="14">
+        <v>0</v>
+      </c>
+      <c r="N3" s="13">
         <f>SUM(Plans!N14:N16)</f>
-        <v>6310</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7369,882 +7106,882 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="14">
+        <v>10</v>
+      </c>
+      <c r="C5" s="13">
         <f t="shared" ref="C5:K5" si="0">SUM(C6:C8)</f>
-        <v>1310</v>
-      </c>
-      <c r="D5" s="14">
-        <f t="shared" si="0"/>
-        <v>3610</v>
-      </c>
-      <c r="E5" s="14">
-        <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="F5" s="14">
-        <f t="shared" si="0"/>
-        <v>480</v>
-      </c>
-      <c r="G5" s="14">
-        <f t="shared" si="0"/>
-        <v>320</v>
-      </c>
-      <c r="H5" s="14">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="I5" s="14">
-        <f t="shared" si="0"/>
-        <v>3350</v>
-      </c>
-      <c r="J5" s="14">
-        <f t="shared" si="0"/>
-        <v>3200</v>
-      </c>
-      <c r="K5" s="14">
-        <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="L5" s="14">
-        <f t="shared" ref="L5:N5" si="1">SUM(L6:L8)</f>
-        <v>1000</v>
-      </c>
-      <c r="M5" s="14">
+        <v>755</v>
+      </c>
+      <c r="D5" s="13">
+        <f t="shared" ref="D5:H5" si="1">SUM(D6:D8)</f>
+        <v>2080</v>
+      </c>
+      <c r="E5" s="13">
         <f t="shared" si="1"/>
-        <v>1410</v>
-      </c>
-      <c r="N5" s="14">
+        <v>150</v>
+      </c>
+      <c r="F5" s="13">
         <f t="shared" si="1"/>
-        <v>990</v>
+        <v>280</v>
+      </c>
+      <c r="G5" s="13">
+        <f t="shared" si="1"/>
+        <v>580</v>
+      </c>
+      <c r="H5" s="13">
+        <f t="shared" si="1"/>
+        <v>815</v>
+      </c>
+      <c r="I5" s="13">
+        <f t="shared" ref="I5:N5" si="2">SUM(I6:I8)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="14">
+        <v>11</v>
+      </c>
+      <c r="C6" s="13">
         <f>Plans!C6*Usage!$B1+Usage!$B1*Usage!$B2*Plans!C9</f>
-        <v>600</v>
-      </c>
-      <c r="D6" s="14">
+        <v>400</v>
+      </c>
+      <c r="D6" s="13">
         <f>Plans!D6*Usage!$B1+Usage!$B1*Usage!$B2*Plans!D9</f>
-        <v>1650</v>
-      </c>
-      <c r="E6" s="14">
+        <v>1100</v>
+      </c>
+      <c r="E6" s="13">
         <f>Plans!E6*Usage!$B1+Usage!$B1*Usage!$B2*Plans!E9</f>
-        <v>120</v>
-      </c>
-      <c r="F6" s="14">
+        <v>80</v>
+      </c>
+      <c r="F6" s="13">
         <f>Plans!F6*Usage!$B1+Usage!$B1*Usage!$B2*Plans!F9</f>
-        <v>240</v>
-      </c>
-      <c r="G6" s="14">
+        <v>160</v>
+      </c>
+      <c r="G6" s="13">
         <f>Plans!G6*Usage!$B1+Usage!$B1*Usage!$B2*Plans!G9</f>
-        <v>150</v>
-      </c>
-      <c r="H6" s="14">
+        <v>320</v>
+      </c>
+      <c r="H6" s="13">
         <f>Plans!H6*Usage!$B1+Usage!$B1*Usage!$B2*Plans!H9</f>
-        <v>270</v>
-      </c>
-      <c r="I6" s="14">
+        <v>440</v>
+      </c>
+      <c r="I6" s="13">
         <f>Plans!I6*Usage!$B1+Usage!$B1*Usage!$B2*Plans!I9</f>
-        <v>1650</v>
-      </c>
-      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
         <f>Plans!J6*Usage!$B1+Usage!$B1*Usage!$B2*Plans!J9</f>
-        <v>1500</v>
-      </c>
-      <c r="K6" s="14">
+        <v>0</v>
+      </c>
+      <c r="K6" s="13">
         <f>Plans!K6*Usage!$B1+Usage!$B1*Usage!$B2*Plans!K9</f>
-        <v>120</v>
-      </c>
-      <c r="L6" s="14">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13">
         <f>Plans!L6*Usage!$B1+Usage!$B1*Usage!$B2*Plans!L9</f>
-        <v>480</v>
-      </c>
-      <c r="M6" s="14">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
         <f>Plans!M6*Usage!$B1+Usage!$B1*Usage!$B2*Plans!M9</f>
-        <v>660</v>
-      </c>
-      <c r="N6" s="14">
+        <v>0</v>
+      </c>
+      <c r="N6" s="13">
         <f>Plans!N6*Usage!$B1+Usage!$B1*Usage!$B2*Plans!N9</f>
-        <v>450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="14">
+        <v>12</v>
+      </c>
+      <c r="C7" s="13">
         <f>(Plans!C7*Usage!$B3)+(Usage!$B3*Usage!$B4*Plans!C9)</f>
-        <v>310</v>
-      </c>
-      <c r="D7" s="14">
+        <v>155</v>
+      </c>
+      <c r="D7" s="13">
         <f>(Plans!D7*Usage!$B3)+(Usage!$B3*Usage!$B4*Plans!D9)</f>
-        <v>830</v>
-      </c>
-      <c r="E7" s="14">
+        <v>415</v>
+      </c>
+      <c r="E7" s="13">
         <f>(Plans!E7*Usage!$B3)+(Usage!$B3*Usage!$B4*Plans!E9)</f>
-        <v>70</v>
-      </c>
-      <c r="F7" s="14">
+        <v>35</v>
+      </c>
+      <c r="F7" s="13">
         <f>(Plans!F7*Usage!$B3)+(Usage!$B3*Usage!$B4*Plans!F9)</f>
-        <v>120</v>
-      </c>
-      <c r="G7" s="14">
+        <v>60</v>
+      </c>
+      <c r="G7" s="13">
         <f>(Plans!G7*Usage!$B3)+(Usage!$B3*Usage!$B4*Plans!G9)</f>
-        <v>70</v>
-      </c>
-      <c r="H7" s="14">
+        <v>115</v>
+      </c>
+      <c r="H7" s="13">
         <f>(Plans!H7*Usage!$B3)+(Usage!$B3*Usage!$B4*Plans!H9)</f>
-        <v>150</v>
-      </c>
-      <c r="I7" s="14">
+        <v>165</v>
+      </c>
+      <c r="I7" s="13">
         <f>(Plans!I7*Usage!$B3)+(Usage!$B3*Usage!$B4*Plans!I9)</f>
-        <v>700</v>
-      </c>
-      <c r="J7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
         <f>(Plans!J7*Usage!$B3)+(Usage!$B3*Usage!$B4*Plans!J9)</f>
-        <v>700</v>
-      </c>
-      <c r="K7" s="14">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
         <f>(Plans!K7*Usage!$B3)+(Usage!$B3*Usage!$B4*Plans!K9)</f>
-        <v>70</v>
-      </c>
-      <c r="L7" s="14">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13">
         <f>(Plans!L7*Usage!$B3)+(Usage!$B3*Usage!$B4*Plans!L9)</f>
-        <v>230</v>
-      </c>
-      <c r="M7" s="14">
+        <v>0</v>
+      </c>
+      <c r="M7" s="13">
         <f>(Plans!M7*Usage!$B3)+(Usage!$B3*Usage!$B4*Plans!M9)</f>
-        <v>330</v>
-      </c>
-      <c r="N7" s="14">
+        <v>0</v>
+      </c>
+      <c r="N7" s="13">
         <f>(Plans!N7*Usage!$B3)+(Usage!$B3*Usage!$B4*Plans!N9)</f>
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="14">
+        <v>13</v>
+      </c>
+      <c r="C8" s="13">
         <f>(Plans!C7*Usage!$B5)+(Usage!$B5*Usage!$B6*Plans!C9)</f>
-        <v>400</v>
-      </c>
-      <c r="D8" s="14">
+        <v>200</v>
+      </c>
+      <c r="D8" s="13">
         <f>(Plans!D7*Usage!$B5)+(Usage!$B5*Usage!$B6*Plans!D9)</f>
-        <v>1130</v>
-      </c>
-      <c r="E8" s="14">
+        <v>565</v>
+      </c>
+      <c r="E8" s="13">
         <f>(Plans!E7*Usage!$B5)+(Usage!$B5*Usage!$B6*Plans!E9)</f>
-        <v>70</v>
-      </c>
-      <c r="F8" s="14">
+        <v>35</v>
+      </c>
+      <c r="F8" s="13">
         <f>(Plans!F7*Usage!$B5)+(Usage!$B5*Usage!$B6*Plans!F9)</f>
-        <v>120</v>
-      </c>
-      <c r="G8" s="14">
+        <v>60</v>
+      </c>
+      <c r="G8" s="13">
         <f>(Plans!G7*Usage!$B5)+(Usage!$B5*Usage!$B6*Plans!G9)</f>
-        <v>100</v>
-      </c>
-      <c r="H8" s="14">
+        <v>145</v>
+      </c>
+      <c r="H8" s="13">
         <f>(Plans!H7*Usage!$B5)+(Usage!$B5*Usage!$B6*Plans!H9)</f>
-        <v>180</v>
-      </c>
-      <c r="I8" s="14">
+        <v>210</v>
+      </c>
+      <c r="I8" s="13">
         <f>(Plans!I7*Usage!$B5)+(Usage!$B5*Usage!$B6*Plans!I9)</f>
-        <v>1000</v>
-      </c>
-      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
         <f>(Plans!J7*Usage!$B5)+(Usage!$B5*Usage!$B6*Plans!J9)</f>
-        <v>1000</v>
-      </c>
-      <c r="K8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
         <f>(Plans!K7*Usage!$B5)+(Usage!$B5*Usage!$B6*Plans!K9)</f>
-        <v>70</v>
-      </c>
-      <c r="L8" s="14">
+        <v>0</v>
+      </c>
+      <c r="L8" s="13">
         <f>(Plans!L7*Usage!$B5)+(Usage!$B5*Usage!$B6*Plans!L9)</f>
-        <v>290</v>
-      </c>
-      <c r="M8" s="14">
+        <v>0</v>
+      </c>
+      <c r="M8" s="13">
         <f>(Plans!M7*Usage!$B5)+(Usage!$B5*Usage!$B6*Plans!M9)</f>
-        <v>420</v>
-      </c>
-      <c r="N8" s="14">
+        <v>0</v>
+      </c>
+      <c r="N8" s="13">
         <f>(Plans!N7*Usage!$B5)+(Usage!$B5*Usage!$B6*Plans!N9)</f>
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="14">
+        <v>56</v>
+      </c>
+      <c r="C11" s="13">
         <f>Plans!C5</f>
         <v>8000</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <f>Plans!D5</f>
         <v>13000</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <f>Plans!E5</f>
         <v>4000</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <f>Plans!F5</f>
         <v>11000</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <f>Plans!G5</f>
+        <v>4000</v>
+      </c>
+      <c r="H11" s="13">
+        <f>Plans!H5</f>
         <v>10000</v>
       </c>
-      <c r="H11" s="14">
-        <f>Plans!H5</f>
-        <v>7500</v>
-      </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <f>Plans!I5</f>
-        <v>12700</v>
-      </c>
-      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="13">
         <f>Plans!J5</f>
-        <v>13300</v>
-      </c>
-      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="13">
         <f>Plans!K5</f>
-        <v>4000</v>
-      </c>
-      <c r="L11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="13">
         <f>Plans!L5</f>
-        <v>4000</v>
-      </c>
-      <c r="M11" s="14">
+        <v>0</v>
+      </c>
+      <c r="M11" s="13">
         <f>Plans!M5</f>
-        <v>10000</v>
-      </c>
-      <c r="N11" s="14">
+        <v>0</v>
+      </c>
+      <c r="N11" s="13">
         <f>Plans!N5</f>
-        <v>13000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
-        <v>75</v>
+      <c r="B12" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="15">
+        <v>51</v>
+      </c>
+      <c r="C13" s="14">
         <f>C2</f>
-        <v>8628</v>
-      </c>
-      <c r="D13" s="15">
-        <f t="shared" ref="D13:K13" si="2">D2</f>
-        <v>2208</v>
-      </c>
-      <c r="E13" s="15">
-        <f t="shared" si="2"/>
-        <v>13896</v>
-      </c>
-      <c r="F13" s="15">
-        <f t="shared" si="2"/>
-        <v>8520</v>
-      </c>
-      <c r="G13" s="15">
-        <f t="shared" si="2"/>
-        <v>6528</v>
-      </c>
-      <c r="H13" s="15">
-        <f t="shared" si="2"/>
-        <v>16668</v>
-      </c>
-      <c r="I13" s="15">
-        <f t="shared" si="2"/>
-        <v>3432</v>
-      </c>
-      <c r="J13" s="15">
-        <f t="shared" si="2"/>
-        <v>1926</v>
-      </c>
-      <c r="K13" s="15">
-        <f t="shared" si="2"/>
-        <v>8568</v>
-      </c>
-      <c r="L13" s="15">
-        <f t="shared" ref="L13:N13" si="3">L2</f>
-        <v>4560</v>
-      </c>
-      <c r="M13" s="15">
+        <v>8400</v>
+      </c>
+      <c r="D13" s="14">
+        <f t="shared" ref="D13:G13" si="3">D2</f>
+        <v>2400</v>
+      </c>
+      <c r="E13" s="14">
         <f t="shared" si="3"/>
-        <v>2616</v>
-      </c>
-      <c r="N13" s="15">
+        <v>14400</v>
+      </c>
+      <c r="F13" s="14">
         <f t="shared" si="3"/>
-        <v>8904</v>
+        <v>8400</v>
+      </c>
+      <c r="G13" s="14">
+        <f t="shared" si="3"/>
+        <v>4800</v>
+      </c>
+      <c r="H13" s="14">
+        <f>H2</f>
+        <v>2400</v>
+      </c>
+      <c r="I13" s="14">
+        <f t="shared" ref="I13" si="4">I2</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <f>J2</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
+        <f t="shared" ref="K13:N13" si="5">K2</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="14">
-        <f t="shared" ref="C14:K14" si="4">C2+C5</f>
-        <v>9938</v>
-      </c>
-      <c r="D14" s="14">
-        <f t="shared" si="4"/>
-        <v>5818</v>
-      </c>
-      <c r="E14" s="14">
-        <f t="shared" si="4"/>
-        <v>14156</v>
-      </c>
-      <c r="F14" s="14">
-        <f t="shared" si="4"/>
-        <v>9000</v>
-      </c>
-      <c r="G14" s="14">
-        <f t="shared" si="4"/>
-        <v>6848</v>
-      </c>
-      <c r="H14" s="14">
-        <f t="shared" si="4"/>
-        <v>17268</v>
-      </c>
-      <c r="I14" s="14">
-        <f t="shared" si="4"/>
-        <v>6782</v>
-      </c>
-      <c r="J14" s="14">
-        <f t="shared" si="4"/>
-        <v>5126</v>
-      </c>
-      <c r="K14" s="14">
-        <f t="shared" si="4"/>
-        <v>8828</v>
-      </c>
-      <c r="L14" s="14">
-        <f t="shared" ref="L14:N14" si="5">L2+L5</f>
-        <v>5560</v>
-      </c>
-      <c r="M14" s="14">
-        <f t="shared" si="5"/>
-        <v>4026</v>
-      </c>
-      <c r="N14" s="14">
-        <f t="shared" si="5"/>
-        <v>9894</v>
+        <v>52</v>
+      </c>
+      <c r="C14" s="13">
+        <f t="shared" ref="C14:K14" si="6">C2+C5</f>
+        <v>9155</v>
+      </c>
+      <c r="D14" s="13">
+        <f t="shared" ref="D14:H14" si="7">D2+D5</f>
+        <v>4480</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="7"/>
+        <v>14550</v>
+      </c>
+      <c r="F14" s="13">
+        <f t="shared" si="7"/>
+        <v>8680</v>
+      </c>
+      <c r="G14" s="13">
+        <f t="shared" si="7"/>
+        <v>5380</v>
+      </c>
+      <c r="H14" s="13">
+        <f t="shared" si="7"/>
+        <v>3215</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" ref="I14:N14" si="8">I2+I5</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="14">
-        <f t="shared" ref="C15:K15" si="6">C2+IF((C5+C3)&gt;C11,C11,(C3+C5))</f>
-        <v>16418</v>
-      </c>
-      <c r="D15" s="14">
-        <f t="shared" si="6"/>
-        <v>15198</v>
-      </c>
-      <c r="E15" s="14">
-        <f t="shared" si="6"/>
-        <v>16036</v>
-      </c>
-      <c r="F15" s="14">
-        <f t="shared" si="6"/>
-        <v>16880</v>
-      </c>
-      <c r="G15" s="14">
-        <f t="shared" si="6"/>
-        <v>16478</v>
-      </c>
-      <c r="H15" s="14">
-        <f t="shared" si="6"/>
-        <v>20848</v>
-      </c>
-      <c r="I15" s="14">
-        <f t="shared" si="6"/>
-        <v>16132</v>
-      </c>
-      <c r="J15" s="14">
-        <f t="shared" si="6"/>
-        <v>15226</v>
-      </c>
-      <c r="K15" s="14">
-        <f t="shared" si="6"/>
-        <v>10718</v>
-      </c>
-      <c r="L15" s="14">
-        <f t="shared" ref="L15:N15" si="7">L2+IF((L5+L3)&gt;L11,L11,(L3+L5))</f>
-        <v>8560</v>
-      </c>
-      <c r="M15" s="14">
-        <f t="shared" si="7"/>
-        <v>11346</v>
-      </c>
-      <c r="N15" s="14">
-        <f t="shared" si="7"/>
-        <v>16204</v>
+        <v>53</v>
+      </c>
+      <c r="C15" s="13">
+        <f t="shared" ref="C15:K15" si="9">C2+IF((C5+C3)&gt;C11,C11,(C3+C5))</f>
+        <v>15455</v>
+      </c>
+      <c r="D15" s="13">
+        <f t="shared" ref="D15:H15" si="10">D2+IF((D5+D3)&gt;D11,D11,(D3+D5))</f>
+        <v>13980</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="10"/>
+        <v>16400</v>
+      </c>
+      <c r="F15" s="13">
+        <f t="shared" si="10"/>
+        <v>16280</v>
+      </c>
+      <c r="G15" s="13">
+        <f t="shared" si="10"/>
+        <v>8800</v>
+      </c>
+      <c r="H15" s="13">
+        <f t="shared" si="10"/>
+        <v>10515</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" ref="I15:N15" si="11">I2+IF((I5+I3)&gt;I11,I11,(I3+I5))</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="14">
-        <f t="shared" ref="C16:K16" si="8">C2+C11</f>
-        <v>16628</v>
-      </c>
-      <c r="D16" s="14">
-        <f t="shared" si="8"/>
-        <v>15208</v>
-      </c>
-      <c r="E16" s="14">
-        <f t="shared" si="8"/>
-        <v>17896</v>
-      </c>
-      <c r="F16" s="14">
-        <f t="shared" si="8"/>
-        <v>19520</v>
-      </c>
-      <c r="G16" s="14">
-        <f t="shared" si="8"/>
-        <v>16528</v>
-      </c>
-      <c r="H16" s="14">
-        <f t="shared" si="8"/>
-        <v>24168</v>
-      </c>
-      <c r="I16" s="14">
-        <f t="shared" si="8"/>
-        <v>16132</v>
-      </c>
-      <c r="J16" s="14">
-        <f t="shared" si="8"/>
-        <v>15226</v>
-      </c>
-      <c r="K16" s="14">
-        <f t="shared" si="8"/>
-        <v>12568</v>
-      </c>
-      <c r="L16" s="14">
-        <f t="shared" ref="L16:N16" si="9">L2+L11</f>
-        <v>8560</v>
-      </c>
-      <c r="M16" s="14">
-        <f t="shared" si="9"/>
-        <v>12616</v>
-      </c>
-      <c r="N16" s="14">
-        <f t="shared" si="9"/>
-        <v>21904</v>
+        <v>54</v>
+      </c>
+      <c r="C16" s="13">
+        <f t="shared" ref="C16:K16" si="12">C2+C11</f>
+        <v>16400</v>
+      </c>
+      <c r="D16" s="13">
+        <f t="shared" ref="D16:H16" si="13">D2+D11</f>
+        <v>15400</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" si="13"/>
+        <v>18400</v>
+      </c>
+      <c r="F16" s="13">
+        <f t="shared" si="13"/>
+        <v>19400</v>
+      </c>
+      <c r="G16" s="13">
+        <f t="shared" si="13"/>
+        <v>8800</v>
+      </c>
+      <c r="H16" s="13">
+        <f t="shared" si="13"/>
+        <v>12400</v>
+      </c>
+      <c r="I16" s="13">
+        <f t="shared" ref="I16:N16" si="14">I2+I11</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="13">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="13">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="13">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="13">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="13">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
+      <c r="B17" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="15">
+        <v>51</v>
+      </c>
+      <c r="C18" s="14">
         <f>C13/12</f>
-        <v>719</v>
-      </c>
-      <c r="D18" s="15">
-        <f t="shared" ref="D18:K18" si="10">D13/12</f>
-        <v>184</v>
-      </c>
-      <c r="E18" s="15">
-        <f t="shared" si="10"/>
-        <v>1158</v>
-      </c>
-      <c r="F18" s="15">
-        <f t="shared" si="10"/>
-        <v>710</v>
-      </c>
-      <c r="G18" s="15">
-        <f t="shared" si="10"/>
-        <v>544</v>
-      </c>
-      <c r="H18" s="15">
-        <f t="shared" si="10"/>
-        <v>1389</v>
-      </c>
-      <c r="I18" s="15">
-        <f t="shared" si="10"/>
-        <v>286</v>
-      </c>
-      <c r="J18" s="15">
-        <f t="shared" si="10"/>
-        <v>160.5</v>
-      </c>
-      <c r="K18" s="15">
-        <f t="shared" si="10"/>
-        <v>714</v>
-      </c>
-      <c r="L18" s="15">
-        <f t="shared" ref="L18:N18" si="11">L13/12</f>
-        <v>380</v>
-      </c>
-      <c r="M18" s="15">
-        <f t="shared" si="11"/>
-        <v>218</v>
-      </c>
-      <c r="N18" s="15">
-        <f t="shared" si="11"/>
-        <v>742</v>
+        <v>700</v>
+      </c>
+      <c r="D18" s="14">
+        <f t="shared" ref="D18:G18" si="15">D13/12</f>
+        <v>200</v>
+      </c>
+      <c r="E18" s="14">
+        <f t="shared" si="15"/>
+        <v>1200</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" si="15"/>
+        <v>700</v>
+      </c>
+      <c r="G18" s="14">
+        <f t="shared" si="15"/>
+        <v>400</v>
+      </c>
+      <c r="H18" s="14">
+        <f>H13/12</f>
+        <v>200</v>
+      </c>
+      <c r="I18" s="14">
+        <f t="shared" ref="I18" si="16">I13/12</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="14">
+        <f>J13/12</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="14">
+        <f t="shared" ref="K18:N18" si="17">K13/12</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="14">
+        <v>52</v>
+      </c>
+      <c r="C19" s="13">
         <f>C14/12</f>
-        <v>828.16666666666663</v>
-      </c>
-      <c r="D19" s="14">
-        <f t="shared" ref="D19:K19" si="12">D14/12</f>
-        <v>484.83333333333331</v>
-      </c>
-      <c r="E19" s="14">
-        <f t="shared" si="12"/>
-        <v>1179.6666666666667</v>
-      </c>
-      <c r="F19" s="14">
-        <f t="shared" si="12"/>
-        <v>750</v>
-      </c>
-      <c r="G19" s="14">
-        <f t="shared" si="12"/>
-        <v>570.66666666666663</v>
-      </c>
-      <c r="H19" s="14">
-        <f t="shared" si="12"/>
-        <v>1439</v>
-      </c>
-      <c r="I19" s="14">
-        <f t="shared" si="12"/>
-        <v>565.16666666666663</v>
-      </c>
-      <c r="J19" s="14">
-        <f t="shared" si="12"/>
-        <v>427.16666666666669</v>
-      </c>
-      <c r="K19" s="14">
-        <f t="shared" si="12"/>
-        <v>735.66666666666663</v>
-      </c>
-      <c r="L19" s="14">
-        <f t="shared" ref="L19:N19" si="13">L14/12</f>
-        <v>463.33333333333331</v>
-      </c>
-      <c r="M19" s="14">
-        <f t="shared" si="13"/>
-        <v>335.5</v>
-      </c>
-      <c r="N19" s="14">
-        <f t="shared" si="13"/>
-        <v>824.5</v>
+        <v>762.91666666666663</v>
+      </c>
+      <c r="D19" s="13">
+        <f t="shared" ref="D19:G19" si="18">D14/12</f>
+        <v>373.33333333333331</v>
+      </c>
+      <c r="E19" s="13">
+        <f t="shared" si="18"/>
+        <v>1212.5</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" si="18"/>
+        <v>723.33333333333337</v>
+      </c>
+      <c r="G19" s="13">
+        <f t="shared" si="18"/>
+        <v>448.33333333333331</v>
+      </c>
+      <c r="H19" s="13">
+        <f>H14/12</f>
+        <v>267.91666666666669</v>
+      </c>
+      <c r="I19" s="13">
+        <f t="shared" ref="I19" si="19">I14/12</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="13">
+        <f>J14/12</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="13">
+        <f t="shared" ref="K19:N19" si="20">K14/12</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="13">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="13">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="13">
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="14">
+        <v>53</v>
+      </c>
+      <c r="C20" s="13">
         <f>C15/12</f>
-        <v>1368.1666666666667</v>
-      </c>
-      <c r="D20" s="14">
-        <f t="shared" ref="D20:K20" si="14">D15/12</f>
-        <v>1266.5</v>
-      </c>
-      <c r="E20" s="14">
-        <f t="shared" si="14"/>
-        <v>1336.3333333333333</v>
-      </c>
-      <c r="F20" s="14">
-        <f t="shared" si="14"/>
-        <v>1406.6666666666667</v>
-      </c>
-      <c r="G20" s="14">
-        <f t="shared" si="14"/>
-        <v>1373.1666666666667</v>
-      </c>
-      <c r="H20" s="14">
-        <f t="shared" si="14"/>
-        <v>1737.3333333333333</v>
-      </c>
-      <c r="I20" s="14">
-        <f t="shared" si="14"/>
-        <v>1344.3333333333333</v>
-      </c>
-      <c r="J20" s="14">
-        <f t="shared" si="14"/>
-        <v>1268.8333333333333</v>
-      </c>
-      <c r="K20" s="14">
-        <f t="shared" si="14"/>
-        <v>893.16666666666663</v>
-      </c>
-      <c r="L20" s="14">
-        <f t="shared" ref="L20:N20" si="15">L15/12</f>
-        <v>713.33333333333337</v>
-      </c>
-      <c r="M20" s="14">
-        <f t="shared" si="15"/>
-        <v>945.5</v>
-      </c>
-      <c r="N20" s="14">
-        <f t="shared" si="15"/>
-        <v>1350.3333333333333</v>
+        <v>1287.9166666666667</v>
+      </c>
+      <c r="D20" s="13">
+        <f t="shared" ref="D20:G20" si="21">D15/12</f>
+        <v>1165</v>
+      </c>
+      <c r="E20" s="13">
+        <f t="shared" si="21"/>
+        <v>1366.6666666666667</v>
+      </c>
+      <c r="F20" s="13">
+        <f t="shared" si="21"/>
+        <v>1356.6666666666667</v>
+      </c>
+      <c r="G20" s="13">
+        <f t="shared" si="21"/>
+        <v>733.33333333333337</v>
+      </c>
+      <c r="H20" s="13">
+        <f>H15/12</f>
+        <v>876.25</v>
+      </c>
+      <c r="I20" s="13">
+        <f t="shared" ref="I20" si="22">I15/12</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="13">
+        <f>J15/12</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="13">
+        <f t="shared" ref="K20:N20" si="23">K15/12</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="13">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="13">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="13">
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="14">
+        <v>54</v>
+      </c>
+      <c r="C21" s="13">
         <f>C16/12</f>
-        <v>1385.6666666666667</v>
-      </c>
-      <c r="D21" s="14">
-        <f t="shared" ref="D21:K21" si="16">D16/12</f>
-        <v>1267.3333333333333</v>
-      </c>
-      <c r="E21" s="14">
-        <f t="shared" si="16"/>
-        <v>1491.3333333333333</v>
-      </c>
-      <c r="F21" s="14">
-        <f t="shared" si="16"/>
-        <v>1626.6666666666667</v>
-      </c>
-      <c r="G21" s="14">
-        <f t="shared" si="16"/>
-        <v>1377.3333333333333</v>
-      </c>
-      <c r="H21" s="14">
-        <f t="shared" si="16"/>
-        <v>2014</v>
-      </c>
-      <c r="I21" s="14">
-        <f t="shared" si="16"/>
-        <v>1344.3333333333333</v>
-      </c>
-      <c r="J21" s="14">
-        <f t="shared" si="16"/>
-        <v>1268.8333333333333</v>
-      </c>
-      <c r="K21" s="14">
-        <f t="shared" si="16"/>
-        <v>1047.3333333333333</v>
-      </c>
-      <c r="L21" s="14">
-        <f t="shared" ref="L21:N21" si="17">L16/12</f>
-        <v>713.33333333333337</v>
-      </c>
-      <c r="M21" s="14">
-        <f t="shared" si="17"/>
-        <v>1051.3333333333333</v>
-      </c>
-      <c r="N21" s="14">
-        <f t="shared" si="17"/>
-        <v>1825.3333333333333</v>
+        <v>1366.6666666666667</v>
+      </c>
+      <c r="D21" s="13">
+        <f t="shared" ref="D21:G21" si="24">D16/12</f>
+        <v>1283.3333333333333</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" si="24"/>
+        <v>1533.3333333333333</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" si="24"/>
+        <v>1616.6666666666667</v>
+      </c>
+      <c r="G21" s="13">
+        <f t="shared" si="24"/>
+        <v>733.33333333333337</v>
+      </c>
+      <c r="H21" s="13">
+        <f>H16/12</f>
+        <v>1033.3333333333333</v>
+      </c>
+      <c r="I21" s="13">
+        <f t="shared" ref="I21" si="25">I16/12</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="13">
+        <f>J16/12</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="13">
+        <f t="shared" ref="K21:N21" si="26">K16/12</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="13">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="13">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="13">
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="12">
+        <v>56</v>
+      </c>
+      <c r="C24" s="11">
         <f>Plans!C11</f>
-        <v>24000</v>
-      </c>
-      <c r="D24" s="12">
+        <v>20000</v>
+      </c>
+      <c r="D24" s="11">
         <f>Plans!D11</f>
-        <v>50000</v>
-      </c>
-      <c r="E24" s="12" t="str">
+        <v>45000</v>
+      </c>
+      <c r="E24" s="11" t="str">
         <f>Plans!E11</f>
         <v>No Coverage</v>
       </c>
-      <c r="F24" s="12" t="str">
+      <c r="F24" s="11" t="str">
         <f>Plans!F11</f>
         <v>Emergency Only</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="11" t="str">
         <f>Plans!G11</f>
-        <v>20000</v>
-      </c>
-      <c r="H24" s="12">
+        <v>Emergency Only</v>
+      </c>
+      <c r="H24" s="11" t="str">
         <f>Plans!H11</f>
-        <v>11000</v>
-      </c>
-      <c r="I24" s="12">
+        <v>Emergency Only</v>
+      </c>
+      <c r="I24" s="11">
         <f>Plans!I11</f>
-        <v>30000</v>
-      </c>
-      <c r="J24" s="12" t="str">
+        <v>0</v>
+      </c>
+      <c r="J24" s="11">
         <f>Plans!J11</f>
-        <v>No Coverage</v>
-      </c>
-      <c r="K24" s="12" t="str">
+        <v>0</v>
+      </c>
+      <c r="K24" s="11">
         <f>Plans!K11</f>
-        <v>Emergency Only</v>
-      </c>
-      <c r="L24" s="12" t="str">
+        <v>0</v>
+      </c>
+      <c r="L24" s="11">
         <f>Plans!L11</f>
-        <v>Emergency Only</v>
-      </c>
-      <c r="M24" s="12" t="str">
+        <v>0</v>
+      </c>
+      <c r="M24" s="11">
         <f>Plans!M11</f>
-        <v>Emergency Only</v>
-      </c>
-      <c r="N24" s="12">
+        <v>0</v>
+      </c>
+      <c r="N24" s="11">
         <f>Plans!N11</f>
-        <v>26000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="12">
+        <v>32</v>
+      </c>
+      <c r="C25" s="11">
         <f>IF(ISNUMBER(C24),C24+C2,C24)</f>
-        <v>32628</v>
-      </c>
-      <c r="D25" s="12">
-        <f t="shared" ref="D25:K25" si="18">IF(ISNUMBER(D24),D24+D2,D24)</f>
-        <v>52208</v>
-      </c>
-      <c r="E25" s="12" t="str">
-        <f t="shared" si="18"/>
+        <v>28400</v>
+      </c>
+      <c r="D25" s="11">
+        <f t="shared" ref="D25:G25" si="27">IF(ISNUMBER(D24),D24+D2,D24)</f>
+        <v>47400</v>
+      </c>
+      <c r="E25" s="11" t="str">
+        <f t="shared" si="27"/>
         <v>No Coverage</v>
       </c>
-      <c r="F25" s="12" t="str">
-        <f t="shared" si="18"/>
+      <c r="F25" s="11" t="str">
+        <f t="shared" si="27"/>
         <v>Emergency Only</v>
       </c>
-      <c r="G25" s="12">
-        <f t="shared" si="18"/>
-        <v>26528</v>
-      </c>
-      <c r="H25" s="12">
-        <f t="shared" si="18"/>
-        <v>27668</v>
-      </c>
-      <c r="I25" s="12">
-        <f t="shared" si="18"/>
-        <v>33432</v>
-      </c>
-      <c r="J25" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v>No Coverage</v>
-      </c>
-      <c r="K25" s="12" t="str">
-        <f t="shared" si="18"/>
+      <c r="G25" s="11" t="str">
+        <f t="shared" si="27"/>
         <v>Emergency Only</v>
       </c>
-      <c r="L25" s="12" t="str">
-        <f t="shared" ref="L25:N25" si="19">IF(ISNUMBER(L24),L24+L2,L24)</f>
+      <c r="H25" s="11" t="str">
+        <f>IF(ISNUMBER(H24),H24+H2,H24)</f>
         <v>Emergency Only</v>
       </c>
-      <c r="M25" s="12" t="str">
-        <f t="shared" si="19"/>
-        <v>Emergency Only</v>
-      </c>
-      <c r="N25" s="12">
-        <f t="shared" si="19"/>
-        <v>34904</v>
+      <c r="I25" s="11">
+        <f t="shared" ref="I25" si="28">IF(ISNUMBER(I24),I24+I2,I24)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <f>IF(ISNUMBER(J24),J24+J2,J24)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <f t="shared" ref="K25" si="29">IF(ISNUMBER(K24),K24+K2,K24)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <f t="shared" ref="L25" si="30">IF(ISNUMBER(L24),L24+L2,L24)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <f t="shared" ref="M25" si="31">IF(ISNUMBER(M24),M24+M2,M24)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="11">
+        <f t="shared" ref="N25" si="32">IF(ISNUMBER(N24),N24+N2,N24)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="13" t="str">
+        <v>18</v>
+      </c>
+      <c r="C27" s="12" t="str">
         <f>Plans!C18</f>
+        <v>Broad</v>
+      </c>
+      <c r="D27" s="12" t="str">
+        <f>Plans!D18</f>
+        <v>Broad</v>
+      </c>
+      <c r="E27" s="12" t="str">
+        <f>Plans!E18</f>
         <v>Limited</v>
       </c>
-      <c r="D27" s="13" t="str">
-        <f>Plans!D18</f>
+      <c r="F27" s="12" t="str">
+        <f>Plans!F18</f>
         <v>Limited</v>
       </c>
-      <c r="E27" s="13" t="str">
-        <f>Plans!E18</f>
-        <v>Aetna EPO Only</v>
-      </c>
-      <c r="F27" s="13" t="str">
-        <f>Plans!F18</f>
-        <v>Aetna EPO Only</v>
-      </c>
-      <c r="G27" s="13" t="str">
+      <c r="G27" s="12" t="str">
         <f>Plans!G18</f>
-        <v>Board</v>
-      </c>
-      <c r="H27" s="13" t="str">
+        <v>HMO Only</v>
+      </c>
+      <c r="H27" s="12" t="str">
         <f>Plans!H18</f>
-        <v>Broad</v>
-      </c>
-      <c r="I27" s="13" t="str">
+        <v>HMO Only</v>
+      </c>
+      <c r="I27" s="12">
         <f>Plans!I18</f>
-        <v>Broad</v>
-      </c>
-      <c r="J27" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="J27" s="12">
         <f>Plans!J18</f>
-        <v>Kaiser Only</v>
-      </c>
-      <c r="K27" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="K27" s="12">
         <f>Plans!K18</f>
-        <v>Kaiser Only</v>
-      </c>
-      <c r="L27" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="L27" s="12">
         <f>Plans!L18</f>
-        <v>Kaiser Only</v>
-      </c>
-      <c r="M27" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="M27" s="12">
         <f>Plans!M18</f>
-        <v>Kaiser Only</v>
-      </c>
-      <c r="N27" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="N27" s="12">
         <f>Plans!N18</f>
-        <v>Broad</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Health Plan Cost Estimator.xlsx
+++ b/Health Plan Cost Estimator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaellines/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21254489-648D-3341-A7F3-DCB45973FBC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CA2CFB-3E34-C040-B85A-35824F8E57DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
   <si>
     <t>Primary CoPay</t>
   </si>
@@ -260,6 +260,9 @@
   <si>
     <t>PPO A HDHP</t>
   </si>
+  <si>
+    <t>This project is licensed under the terms of the MIT license.</t>
+  </si>
 </sst>
 </file>
 
@@ -268,7 +271,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -328,6 +331,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF24292E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -349,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -373,6 +382,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2387,10 +2397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39D49AF-1BEE-1147-8C7D-6404FDFF2B49}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2409,118 +2419,123 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+    <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -6928,8 +6943,8 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -7109,7 +7124,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="13">
-        <f t="shared" ref="C5:K5" si="0">SUM(C6:C8)</f>
+        <f t="shared" ref="C5" si="0">SUM(C6:C8)</f>
         <v>755</v>
       </c>
       <c r="D5" s="13">
@@ -7437,7 +7452,7 @@
         <v>52</v>
       </c>
       <c r="C14" s="13">
-        <f t="shared" ref="C14:K14" si="6">C2+C5</f>
+        <f t="shared" ref="C14" si="6">C2+C5</f>
         <v>9155</v>
       </c>
       <c r="D14" s="13">
@@ -7490,7 +7505,7 @@
         <v>53</v>
       </c>
       <c r="C15" s="13">
-        <f t="shared" ref="C15:K15" si="9">C2+IF((C5+C3)&gt;C11,C11,(C3+C5))</f>
+        <f t="shared" ref="C15" si="9">C2+IF((C5+C3)&gt;C11,C11,(C3+C5))</f>
         <v>15455</v>
       </c>
       <c r="D15" s="13">
@@ -7543,7 +7558,7 @@
         <v>54</v>
       </c>
       <c r="C16" s="13">
-        <f t="shared" ref="C16:K16" si="12">C2+C11</f>
+        <f t="shared" ref="C16" si="12">C2+C11</f>
         <v>16400</v>
       </c>
       <c r="D16" s="13">

--- a/Health Plan Cost Estimator.xlsx
+++ b/Health Plan Cost Estimator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaellines/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CA2CFB-3E34-C040-B85A-35824F8E57DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F770B0B1-7C73-E541-BA6F-2CEAB49AD68E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
   <si>
     <t>Primary CoPay</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>This project is licensed under the terms of the MIT license.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Assumes a semi monthly payroll (2 paychecks a month) in order to calculate monthly and annual costs. If this is not your situation you need to adjust the cost per period or calculation in excel. </t>
   </si>
 </sst>
 </file>
@@ -2397,10 +2400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39D49AF-1BEE-1147-8C7D-6404FDFF2B49}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2537,6 +2540,11 @@
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -6943,7 +6951,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
